--- a/rampup.xlsx
+++ b/rampup.xlsx
@@ -429,100 +429,100 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>724.63768115942025</c:v>
+                  <c:v>1063.8297872340424</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>869.56521739130437</c:v>
+                  <c:v>1265.8227848101267</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>1010.10101010101</c:v>
+                  <c:v>1515.1515151515152</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>1149.4252873563219</c:v>
+                  <c:v>1754.3859649122808</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>1282.051282051282</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>1388.8888888888889</c:v>
+                  <c:v>2173.913043478261</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>1492.5373134328358</c:v>
+                  <c:v>2380.9523809523807</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>1612.9032258064517</c:v>
+                  <c:v>2564.102564102564</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>1694.9152542372881</c:v>
+                  <c:v>2777.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>1785.7142857142858</c:v>
+                  <c:v>2941.1764705882351</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>1886.7924528301887</c:v>
+                  <c:v>3030.3030303030305</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0">
-                  <c:v>1960.7843137254902</c:v>
+                  <c:v>3225.8064516129034</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0">
-                  <c:v>2040.8163265306123</c:v>
+                  <c:v>3333.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
-                  <c:v>2127.6595744680849</c:v>
+                  <c:v>3448.2758620689656</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0">
-                  <c:v>2173.913043478261</c:v>
+                  <c:v>3571.4285714285716</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0">
-                  <c:v>2272.7272727272725</c:v>
+                  <c:v>3703.7037037037039</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0">
-                  <c:v>2325.5813953488373</c:v>
+                  <c:v>3846.1538461538462</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
-                  <c:v>2380.9523809523807</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>2439.0243902439024</c:v>
+                  <c:v>4166.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0">
-                  <c:v>2500</c:v>
+                  <c:v>4166.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0">
-                  <c:v>2564.102564102564</c:v>
+                  <c:v>4347.826086956522</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0">
-                  <c:v>2631.5789473684213</c:v>
+                  <c:v>4347.826086956522</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>2702.7027027027025</c:v>
+                  <c:v>4545.454545454545</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0">
-                  <c:v>2777.7777777777778</c:v>
+                  <c:v>4545.454545454545</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0">
-                  <c:v>2857.1428571428573</c:v>
+                  <c:v>4761.9047619047615</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0">
-                  <c:v>2857.1428571428573</c:v>
+                  <c:v>4761.9047619047615</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0">
-                  <c:v>2941.1764705882351</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0">
-                  <c:v>3030.3030303030305</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0">
-                  <c:v>3030.3030303030305</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0">
-                  <c:v>3125</c:v>
+                  <c:v>5263.1578947368425</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0">
-                  <c:v>3125</c:v>
+                  <c:v>5263.1578947368425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,11 +537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471281208"/>
-        <c:axId val="471285128"/>
+        <c:axId val="289416224"/>
+        <c:axId val="289417008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471281208"/>
+        <c:axId val="289416224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,12 +597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471285128"/>
+        <c:crossAx val="289417008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471285128"/>
+        <c:axId val="289417008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471281208"/>
+        <c:crossAx val="289416224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -897,73 +897,73 @@
                   <c:v>217.39130434782609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.57142857142858</c:v>
+                  <c:v>151.5151515151515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.34289277321491</c:v>
+                  <c:v>94.38583563660174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.979518909646728</c:v>
+                  <c:v>55.706562235410821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.832801155820505</c:v>
+                  <c:v>47.754552447166198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.064766959298083</c:v>
+                  <c:v>42.744962608104721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.823913386462806</c:v>
+                  <c:v>39.15233125065545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.049547491722727</c:v>
+                  <c:v>36.391558174916732</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.227150077040882</c:v>
+                  <c:v>34.174588334086621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.068535865789684</c:v>
+                  <c:v>32.338609344273529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.396572052410903</c:v>
+                  <c:v>30.782923672557846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.094978630281744</c:v>
+                  <c:v>29.441124783008718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.083559530682685</c:v>
+                  <c:v>28.267252020871918</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.304830418752893</c:v>
+                  <c:v>27.228268631221315</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.716287778717884</c:v>
+                  <c:v>26.299691654173255</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.285691107945439</c:v>
+                  <c:v>25.462914524430218</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.988054615185526</c:v>
+                  <c:v>24.703494283588896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.803657767168296</c:v>
+                  <c:v>24.01001579177635</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.716688483419695</c:v>
+                  <c:v>23.373315324226542</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.714293062137308</c:v>
+                  <c:v>22.785935823305138</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.785895518939313</c:v>
+                  <c:v>22.241735943854433</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.922700072276527</c:v>
+                  <c:v>21.735603854384539</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.117321000422116</c:v>
+                  <c:v>21.263244019389543</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35.363502885223333</c:v>
+                  <c:v>20.821015851814536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,73 +1082,73 @@
                   <c:v>217.39130434782609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.57142857142858</c:v>
+                  <c:v>151.5151515151515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.34289277321491</c:v>
+                  <c:v>94.38583563660174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.43829350726656</c:v>
+                  <c:v>79.48268575151036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.696923820866502</c:v>
+                  <c:v>66.453241266215215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.910530662384005</c:v>
+                  <c:v>57.067369115081931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.311069786100461</c:v>
+                  <c:v>50.439332873534084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.757992070382159</c:v>
+                  <c:v>45.572651207436998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.576646158925797</c:v>
+                  <c:v>41.842748011997344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.357357982023991</c:v>
+                  <c:v>38.87994342047952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.839843370313893</c:v>
+                  <c:v>36.458382429681933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.851292053532248</c:v>
+                  <c:v>34.43363056561229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.272449310734828</c:v>
+                  <c:v>32.709230244431446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.018250519404361</c:v>
+                  <c:v>31.218280686132108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.02628208857648</c:v>
+                  <c:v>29.912855907125362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.249629214486426</c:v>
+                  <c:v>28.757662272295686</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.652283930310062</c:v>
+                  <c:v>27.726086469431653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.206103884835443</c:v>
+                  <c:v>26.797646318317632</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.888742192569659</c:v>
+                  <c:v>25.956295492355036</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.682203723103179</c:v>
+                  <c:v>25.189265345892075</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.571816367376094</c:v>
+                  <c:v>24.486254605405446</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.545483794758347</c:v>
+                  <c:v>23.838850315878187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.593133257141929</c:v>
+                  <c:v>23.240106152318887</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.706301155342246</c:v>
+                  <c:v>22.68423008190959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,73 +1267,73 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,11 +1348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471285912"/>
-        <c:axId val="404182160"/>
+        <c:axId val="291385864"/>
+        <c:axId val="291385080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471285912"/>
+        <c:axId val="291385864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,12 +1409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404182160"/>
+        <c:crossAx val="291385080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404182160"/>
+        <c:axId val="291385080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471285912"/>
+        <c:crossAx val="291385864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1652,7 +1652,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1714,11 +1713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404182552"/>
-        <c:axId val="404179808"/>
+        <c:axId val="291384296"/>
+        <c:axId val="291379200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404182552"/>
+        <c:axId val="291384296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,12 +1773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404179808"/>
+        <c:crossAx val="291379200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404179808"/>
+        <c:axId val="291379200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404182552"/>
+        <c:crossAx val="291384296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2059,11 +2058,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404181768"/>
-        <c:axId val="404182944"/>
+        <c:axId val="291385472"/>
+        <c:axId val="291379984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404181768"/>
+        <c:axId val="291385472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,12 +2118,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404182944"/>
+        <c:crossAx val="291379984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404182944"/>
+        <c:axId val="291379984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404181768"/>
+        <c:crossAx val="291385472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4844,14 +4843,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="4" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="1.7265625" customWidth="1"/>
     <col min="10" max="10" width="6.7265625" customWidth="1"/>
@@ -4888,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4954,58 +4953,58 @@
       <c r="A4" s="7"/>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>38.81987577639751</v>
+        <v>65.876152832674592</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" s="16">
         <f>$B$12/J4</f>
-        <v>178.57142857142858</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="G4" s="3">
         <f>$B$12/J4</f>
-        <v>178.57142857142858</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="H4" s="14">
         <f>ROUND(G4,0)</f>
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="J4" s="15">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>40.22853579821367</v>
+        <v>57.129315878549761</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="16">
         <f>B17</f>
-        <v>138.34289277321491</v>
+        <v>94.38583563660174</v>
       </c>
       <c r="G5" s="3">
         <f>B17</f>
-        <v>138.34289277321491</v>
+        <v>94.38583563660174</v>
       </c>
       <c r="H5" s="8">
         <f>ROUND(G5,0)</f>
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J35" si="3">$B$12/H5</f>
-        <v>724.63768115942025</v>
+        <v>1063.8297872340424</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="2"/>
-        <v>164.63768115942025</v>
+        <v>403.82978723404244</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5017,34 +5016,34 @@
       </c>
       <c r="D6" s="3">
         <f>G5-G6</f>
-        <v>22.904599265948349</v>
+        <v>14.903149885091381</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" ref="F6:F35" si="4">F5*(1+-1*$B$22*F5*F5)</f>
-        <v>95.979518909646728</v>
+        <v>55.706562235410821</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G35" si="5">G5*(1+I6+1.5*I6*I6)</f>
-        <v>115.43829350726656</v>
+        <v>79.48268575151036</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H35" si="6">ROUND(G6,0)</f>
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I35" si="7">-1*$B$22*G5*G5</f>
-        <v>-0.30622009569377978</v>
+        <v>-0.40979955456570155</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="3"/>
-        <v>869.56521739130437</v>
+        <v>1265.8227848101267</v>
       </c>
       <c r="K6" s="4">
         <f>J6-J5</f>
-        <v>144.92753623188412</v>
+        <v>201.99299757608424</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5057,34 +5056,34 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D37" si="8">G6-G7</f>
-        <v>16.741369686400063</v>
+        <v>13.029444485295144</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" si="4"/>
-        <v>81.832801155820505</v>
+        <v>47.754552447166198</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="5"/>
-        <v>98.696923820866502</v>
+        <v>66.453241266215215</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="7"/>
-        <v>-0.21321599372591715</v>
+        <v>-0.29060487737657403</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="3"/>
-        <v>1010.10101010101</v>
+        <v>1515.1515151515152</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" ref="K7:K35" si="9">J7-J6</f>
-        <v>140.53579270970567</v>
+        <v>249.32873034138856</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -5093,34 +5092,34 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="8"/>
-        <v>11.786393158482497</v>
+        <v>9.3858721511332845</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="4"/>
-        <v>73.064766959298083</v>
+        <v>42.744962608104721</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="5"/>
-        <v>86.910530662384005</v>
+        <v>57.067369115081931</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="7"/>
-        <v>-0.15585732434723082</v>
+        <v>-0.20313753064014722</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="3"/>
-        <v>1149.4252873563219</v>
+        <v>1754.3859649122808</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="9"/>
-        <v>139.32427725531181</v>
+        <v>239.23444976076553</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5136,34 +5135,34 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="8"/>
-        <v>8.5994608762835441</v>
+        <v>6.6280362415478464</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="4"/>
-        <v>66.823913386462806</v>
+        <v>39.15233125065545</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="5"/>
-        <v>78.311069786100461</v>
+        <v>50.439332873534084</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="7"/>
-        <v>-0.12085504544027503</v>
+        <v>-0.14980749241498231</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>1282.051282051282</v>
+        <v>2000</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="9"/>
-        <v>132.62599469496013</v>
+        <v>245.61403508771923</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5172,41 +5171,41 @@
       </c>
       <c r="B10">
         <f>B2</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="8"/>
-        <v>6.5530777157183024</v>
+        <v>4.8666816660970866</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" si="4"/>
-        <v>62.049547491722727</v>
+        <v>36.391558174916732</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="5"/>
-        <v>71.757992070382159</v>
+        <v>45.572651207436998</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="7"/>
-        <v>-9.812197841669594E-2</v>
+        <v>-0.1170298098334501</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>1388.8888888888889</v>
+        <v>2173.913043478261</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="9"/>
-        <v>106.83760683760693</v>
+        <v>173.91304347826099</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5214,41 +5213,41 @@
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>160000</v>
+        <v>460000</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>5.1813459114563614</v>
+        <v>3.729903195439654</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" si="4"/>
-        <v>58.227150077040882</v>
+        <v>34.174588334086621</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="5"/>
-        <v>66.576646158925797</v>
+        <v>41.842748011997344</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="7"/>
-        <v>-8.2387350815568458E-2</v>
+        <v>-9.5535860751436608E-2</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>1492.5373134328358</v>
+        <v>2380.9523809523807</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="9"/>
-        <v>103.64842454394693</v>
+        <v>207.03933747411975</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5263,34 +5262,34 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="8"/>
-        <v>4.2192881769018058</v>
+        <v>2.9628045915178234</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="4"/>
-        <v>55.068535865789684</v>
+        <v>32.338609344273529</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="5"/>
-        <v>62.357357982023991</v>
+        <v>38.87994342047952</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="7"/>
-        <v>-7.0919197020332947E-2</v>
+        <v>-8.0537515814993355E-2</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="3"/>
-        <v>1612.9032258064517</v>
+        <v>2564.102564102564</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="9"/>
-        <v>120.36591237361586</v>
+        <v>183.15018315018324</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5299,34 +5298,34 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="8"/>
-        <v>3.5175146117100979</v>
+        <v>2.4215609907975875</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="4"/>
-        <v>52.396572052410903</v>
+        <v>30.782923672557846</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="5"/>
-        <v>58.839843370313893</v>
+        <v>36.458382429681933</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="7"/>
-        <v>-6.2215041511972657E-2</v>
+        <v>-6.9535900017465679E-2</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>1694.9152542372881</v>
+        <v>2777.7777777777778</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="9"/>
-        <v>82.012028430836381</v>
+        <v>213.67521367521385</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5335,34 +5334,34 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="8"/>
-        <v>2.9885513167816455</v>
+        <v>2.0247518640696427</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" si="4"/>
-        <v>50.094978630281744</v>
+        <v>29.441124783008718</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="5"/>
-        <v>55.851292053532248</v>
+        <v>34.43363056561229</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="7"/>
-        <v>-5.5394034685489146E-2</v>
+        <v>-6.1143827871891251E-2</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>1785.7142857142858</v>
+        <v>2941.1764705882351</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="9"/>
-        <v>90.799031476997698</v>
+        <v>163.39869281045731</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5371,38 +5370,38 @@
       </c>
       <c r="B15" s="4">
         <f>(B10*B10-B9*B9)/(2*B11)</f>
-        <v>11.8671875</v>
+        <v>38.910326086956523</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="8"/>
-        <v>2.5788427427974199</v>
+        <v>1.7244003211808447</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" si="4"/>
-        <v>48.083559530682685</v>
+        <v>28.267252020871918</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="5"/>
-        <v>53.272449310734828</v>
+        <v>32.709230244431446</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="6"/>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="7"/>
-        <v>-4.9909869184783275E-2</v>
+        <v>-5.4541046040737173E-2</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>1886.7924528301887</v>
+        <v>3030.3030303030305</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="9"/>
-        <v>101.07816711590294</v>
+        <v>89.126559714795349</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -5411,34 +5410,34 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="8"/>
-        <v>2.2541987913304666</v>
+        <v>1.490949558299338</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" si="4"/>
-        <v>46.304830418752893</v>
+        <v>27.228268631221315</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="5"/>
-        <v>51.018250519404361</v>
+        <v>31.218280686132108</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="7"/>
-        <v>-4.5407261689036985E-2</v>
+        <v>-4.9215112186428524E-2</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>1960.7843137254902</v>
+        <v>3225.8064516129034</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="9"/>
-        <v>73.991860895301443</v>
+        <v>195.50342130987292</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -5447,71 +5446,71 @@
       </c>
       <c r="B17" s="3">
         <f>B12/SQRT(B9*B9+2*B11)</f>
-        <v>138.34289277321491</v>
+        <v>94.38583563660174</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="8"/>
-        <v>1.9919684308278818</v>
+        <v>1.3054247790067457</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="4"/>
-        <v>44.716287778717884</v>
+        <v>26.299691654173255</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="5"/>
-        <v>49.02628208857648</v>
+        <v>29.912855907125362</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="6"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="7"/>
-        <v>-4.1645790176971252E-2</v>
+        <v>-4.4830728253913932E-2</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>2040.8163265306123</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="9"/>
-        <v>80.032012805122122</v>
+        <v>107.52688172043008</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D18" s="3">
         <f t="shared" si="8"/>
-        <v>1.776652874090054</v>
+        <v>1.1551936348296756</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="4"/>
-        <v>43.285691107945439</v>
+        <v>25.462914524430218</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="5"/>
-        <v>47.249629214486426</v>
+        <v>28.757662272295686</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="7"/>
-        <v>-3.84572213668588E-2</v>
+        <v>-4.1159831631940452E-2</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>2127.6595744680849</v>
+        <v>3448.2758620689656</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="9"/>
-        <v>86.843247937472597</v>
+        <v>114.9425287356321</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -5520,34 +5519,34 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="8"/>
-        <v>1.5973452841763631</v>
+        <v>1.0315758028640332</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="4"/>
-        <v>41.988054615185526</v>
+        <v>24.703494283588896</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="5"/>
-        <v>45.652283930310062</v>
+        <v>27.726086469431653</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="7"/>
-        <v>-3.5720439374503185E-2</v>
+        <v>-3.8042144410901257E-2</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>2173.913043478261</v>
+        <v>3571.4285714285716</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>46.253469010176104</v>
+        <v>123.15270935960598</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -5556,38 +5555,38 @@
       </c>
       <c r="B20" s="3">
         <f>B12/B10</f>
-        <v>50</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="8"/>
-        <v>1.4461800454746196</v>
+        <v>0.92844015111402101</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="4"/>
-        <v>40.803657767168296</v>
+        <v>24.01001579177635</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="5"/>
-        <v>44.206103884835443</v>
+        <v>26.797646318317632</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="7"/>
-        <v>-3.3346096448858338E-2</v>
+        <v>-3.5361850061878447E-2</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="3"/>
-        <v>2272.7272727272725</v>
+        <v>3703.7037037037039</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>98.814229249011532</v>
+        <v>132.27513227513236</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5596,34 +5595,34 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="8"/>
-        <v>1.3173616922657843</v>
+        <v>0.84135082596259636</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="4"/>
-        <v>39.716688483419695</v>
+        <v>23.373315324226542</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="5"/>
-        <v>42.888742192569659</v>
+        <v>25.956295492355036</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="7"/>
-        <v>-3.126687393082981E-2</v>
+        <v>-3.3033237017275556E-2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>2325.5813953488373</v>
+        <v>3846.1538461538462</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>52.854122621564784</v>
+        <v>142.45014245014227</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -5632,38 +5631,38 @@
       </c>
       <c r="B22">
         <f>B11/(B12*B12)</f>
-        <v>1.5999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="8"/>
-        <v>1.20653846946648</v>
+        <v>0.76703014646296097</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" si="4"/>
-        <v>38.714293062137308</v>
+        <v>22.785935823305138</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="5"/>
-        <v>41.682203723103179</v>
+        <v>25.189265345892075</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="7"/>
-        <v>-2.9431107309771276E-2</v>
+        <v>-3.0991546681576713E-2</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>2380.9523809523807</v>
+        <v>4000</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="9"/>
-        <v>55.370985603543431</v>
+        <v>153.84615384615381</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -5672,34 +5671,34 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="8"/>
-        <v>1.1103873557270845</v>
+        <v>0.70301074048662926</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" si="4"/>
-        <v>37.785895518939313</v>
+        <v>22.241735943854433</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="5"/>
-        <v>40.571816367376094</v>
+        <v>24.486254605405446</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="7"/>
-        <v>-2.7798497715428423E-2</v>
+        <v>-2.9186958078624932E-2</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>2439.0243902439024</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="9"/>
-        <v>58.072009291521681</v>
+        <v>166.66666666666697</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -5708,34 +5707,34 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="8"/>
-        <v>1.026332572617747</v>
+        <v>0.64740428952725892</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="4"/>
-        <v>36.922700072276527</v>
+        <v>21.735603854384539</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="5"/>
-        <v>39.545483794758347</v>
+        <v>23.838850315878187</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="7"/>
-        <v>-2.6337156533569387E-2</v>
+        <v>-2.7580526571634009E-2</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="9"/>
-        <v>60.975609756097583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -5744,34 +5743,34 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="8"/>
-        <v>0.95235053761641808</v>
+        <v>0.59874416355929938</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="4"/>
-        <v>36.117321000422116</v>
+        <v>21.263244019389543</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="5"/>
-        <v>38.593133257141929</v>
+        <v>23.240106152318887</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="7"/>
-        <v>-2.5021524616983919E-2</v>
+        <v>-2.6141376081610896E-2</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>2564.102564102564</v>
+        <v>4347.826086956522</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="9"/>
-        <v>64.102564102563974</v>
+        <v>181.15942028985501</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -5780,34 +5779,34 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="8"/>
-        <v>0.88683210179968341</v>
+        <v>0.55587607040929754</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="4"/>
-        <v>35.363502885223333</v>
+        <v>20.821015851814536</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="5"/>
-        <v>37.706301155342246</v>
+        <v>22.68423008190959</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="7"/>
-        <v>-2.383087895365623E-2</v>
+        <v>-2.4844716562668307E-2</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="3"/>
-        <v>2631.5789473684213</v>
+        <v>4347.826086956522</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="9"/>
-        <v>67.476383265857294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5816,34 +5815,34 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="8"/>
-        <v>0.82848354859238782</v>
+        <v>0.51788062213616826</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="4"/>
-        <v>34.655906161368826</v>
+        <v>20.405809894487593</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="5"/>
-        <v>36.877817606749858</v>
+        <v>22.166349459773421</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="7"/>
-        <v>-2.2748242349077821E-2</v>
+        <v>-2.3670417542814549E-2</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="3"/>
-        <v>2702.7027027027025</v>
+        <v>4545.454545454545</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="9"/>
-        <v>71.123755334281213</v>
+        <v>197.62845849802306</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -5852,34 +5851,34 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="8"/>
-        <v>0.77625432063945254</v>
+        <v>0.48401755839681826</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" s="16">
         <f t="shared" si="4"/>
-        <v>33.989940617977609</v>
+        <v>20.014951592746637</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="5"/>
-        <v>36.101563286110405</v>
+        <v>21.682331901376603</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="7"/>
-        <v>-2.1759574902987355E-2</v>
+        <v>-2.2601964225148683E-2</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="3"/>
-        <v>2777.7777777777778</v>
+        <v>4545.454545454545</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="9"/>
-        <v>75.075075075075347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -5888,34 +5887,34 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="8"/>
-        <v>0.72928349765543032</v>
+        <v>0.45368494179322738</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="4"/>
-        <v>33.361634627839571</v>
+        <v>19.646125647674925</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="5"/>
-        <v>35.372279788454975</v>
+        <v>21.228646959583376</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="7"/>
-        <v>-2.0853165947216555E-2</v>
+        <v>-2.1625681767346864E-2</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="3"/>
-        <v>2857.1428571428573</v>
+        <v>4761.9047619047615</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="9"/>
-        <v>79.365079365079509</v>
+        <v>216.45021645021643</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -5924,30 +5923,30 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="8"/>
-        <v>0.68685963769743807</v>
+        <v>0.42638888122998253</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" s="16">
         <f t="shared" si="4"/>
-        <v>32.767531350969385</v>
+        <v>19.297315923718919</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="5"/>
-        <v>34.685420150757537</v>
+        <v>20.802258078353393</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="7"/>
-        <v>-2.0019170838923843E-2</v>
+        <v>-2.073015077979291E-2</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="3"/>
-        <v>2857.1428571428573</v>
+        <v>4761.9047619047615</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="9"/>
@@ -5960,34 +5959,34 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="8"/>
-        <v>0.64839028076910665</v>
+        <v>0.40172077438071341</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" s="16">
         <f t="shared" si="4"/>
-        <v>32.204605551189744</v>
+        <v>18.96675725376917</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="5"/>
-        <v>34.03702986998843</v>
+        <v>20.40053730397268</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="7"/>
-        <v>-1.9249253936553228E-2</v>
+        <v>-1.9905761293287274E-2</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="3"/>
-        <v>2941.1764705882351</v>
+        <v>5000</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="9"/>
-        <v>84.033613445377796</v>
+        <v>238.09523809523853</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -5996,34 +5995,34 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="8"/>
-        <v>0.61337853211149707</v>
+        <v>0.3793399974568672</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="4"/>
-        <v>31.670196339858915</v>
+        <v>18.652896445070525</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="5"/>
-        <v>33.423651337876933</v>
+        <v>20.021197306515813</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="7"/>
-        <v>-1.8536310437927753E-2</v>
+        <v>-1.914436842537592E-2</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="3"/>
-        <v>3030.3030303030305</v>
+        <v>5000</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="9"/>
-        <v>89.126559714795349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -6032,30 +6031,30 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="8"/>
-        <v>0.58140489680937435</v>
+        <v>0.35896059348251441</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="4"/>
-        <v>31.161952351910756</v>
+        <v>18.354360472797978</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="5"/>
-        <v>32.842246441067559</v>
+        <v>19.662236713033298</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="7"/>
-        <v>-1.7874247500095398E-2</v>
+        <v>-1.8439023712976059E-2</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="3"/>
-        <v>3030.3030303030305</v>
+        <v>5000</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="9"/>
@@ -6065,34 +6064,34 @@
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D34" s="3">
         <f t="shared" si="8"/>
-        <v>0.55211305394710308</v>
+        <v>0.3403409313903083</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" s="16">
         <f t="shared" si="4"/>
-        <v>30.677786717753708</v>
+        <v>18.069930341232077</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="5"/>
-        <v>32.290133387120456</v>
+        <v>19.32189578164299</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="7"/>
-        <v>-1.7257810420733037E-2</v>
+        <v>-1.7783763417730306E-2</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="3"/>
-        <v>3125</v>
+        <v>5263.1578947368425</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="9"/>
-        <v>94.696969696969518</v>
+        <v>263.15789473684254</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6101,30 +6100,30 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="8"/>
-        <v>0.5251986174812231</v>
+        <v>0.32327559728410193</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="4"/>
-        <v>30.215839821037214</v>
+        <v>17.798519452696446</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="5"/>
-        <v>31.764934769639233</v>
+        <v>18.998620184358888</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="7"/>
-        <v>-1.6682443426528495E-2</v>
+        <v>-1.7173440203446966E-2</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="3"/>
-        <v>3125</v>
+        <v>5263.1578947368425</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="9"/>
@@ -6137,7 +6136,7 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="8"/>
-        <v>31.764934769639233</v>
+        <v>18.998620184358888</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">

--- a/rampup.xlsx
+++ b/rampup.xlsx
@@ -13,7 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>pps</t>
   </si>
@@ -145,17 +149,68 @@
   <si>
     <t>p(ARR) better</t>
   </si>
+  <si>
+    <t>ARR_8_24 format</t>
+  </si>
+  <si>
+    <t>rev/m</t>
+  </si>
+  <si>
+    <t>rev/sec</t>
+  </si>
+  <si>
+    <t>tread pitch to cut</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>steps/per mm setup</t>
+  </si>
+  <si>
+    <t>steps/sec</t>
+  </si>
+  <si>
+    <t>encoder*2</t>
+  </si>
+  <si>
+    <t>HZ spindle encoder</t>
+  </si>
+  <si>
+    <t>mm per spindle step</t>
+  </si>
+  <si>
+    <t>steps to accelerate to 4000</t>
+  </si>
+  <si>
+    <t>mm accel path len</t>
+  </si>
+  <si>
+    <t>spindle steps accel path</t>
+  </si>
+  <si>
+    <t>sec, accel time</t>
+  </si>
+  <si>
+    <t>spindle steps when accel</t>
+  </si>
+  <si>
+    <t>mm accel path len by spindle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -267,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,9 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,6 +346,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,6 +475,52 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:yVal>
             <c:numRef>
               <c:f>Лист1!$J$2:$J$35</c:f>
@@ -432,82 +537,82 @@
                   <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>1063.8297872340424</c:v>
+                  <c:v>1071.4285714285713</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>1265.8227848101267</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>1515.1515151515152</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>1754.3859649122808</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>2173.913043478261</c:v>
+                  <c:v>2142.8571428571427</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>2380.9523809523807</c:v>
+                  <c:v>2307.6923076923076</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>2564.102564102564</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>2777.7777777777778</c:v>
+                  <c:v>2727.2727272727275</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>2941.1764705882351</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>3030.3030303030305</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0">
-                  <c:v>3225.8064516129034</c:v>
+                  <c:v>3333.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0">
                   <c:v>3333.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
-                  <c:v>3448.2758620689656</c:v>
+                  <c:v>3333.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0">
-                  <c:v>3571.4285714285716</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0">
-                  <c:v>3703.7037037037039</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0">
-                  <c:v>3846.1538461538462</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
-                  <c:v>4000</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>4166.666666666667</c:v>
+                  <c:v>4285.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0">
-                  <c:v>4166.666666666667</c:v>
+                  <c:v>4285.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0">
-                  <c:v>4347.826086956522</c:v>
+                  <c:v>4285.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0">
-                  <c:v>4347.826086956522</c:v>
+                  <c:v>4285.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>4545.454545454545</c:v>
+                  <c:v>4285.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0">
-                  <c:v>4545.454545454545</c:v>
+                  <c:v>4285.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0">
-                  <c:v>4761.9047619047615</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0">
-                  <c:v>4761.9047619047615</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0">
                   <c:v>5000</c:v>
@@ -519,10 +624,150 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0">
-                  <c:v>5263.1578947368425</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0">
-                  <c:v>5263.1578947368425</c:v>
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$2:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0.0\ _₽_-;\-* #\ ##0.0\ _₽_-;_-* "-"?\ _₽_-;_-@_-</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1059.4810050208546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1258.1356436876538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1504.817494144412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1752.3148788993626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1982.5797508212245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2194.2984959295286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2389.9003949579878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2572.0202037980921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2742.8534492135568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2904.1375642760904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3057.2410066734733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3203.2513579270349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3343.0442185287829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3477.3341119711649</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3606.711683246433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3731.6710136458742</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3852.6298958745169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3969.9450788590875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4083.9238834805128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194.8331683341985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4302.9063354782502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4408.3488678660888</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4511.3427531888328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4612.0500532348669</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4710.6158103428443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4807.1704342548719</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4901.8316777630444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4994.7062839970813</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5085.8913693025606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5175.475591531047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5263.5401428956211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,11 +782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289416224"/>
-        <c:axId val="289417008"/>
+        <c:axId val="374557144"/>
+        <c:axId val="374556360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289416224"/>
+        <c:axId val="374557144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,12 +842,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289417008"/>
+        <c:crossAx val="374556360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289417008"/>
+        <c:axId val="374556360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289416224"/>
+        <c:crossAx val="374557144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -891,79 +1136,79 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.39130434782609</c:v>
+                  <c:v>65.217391304347828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151.5151515151515</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.38583563660174</c:v>
+                  <c:v>28.315750690980522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.706562235410821</c:v>
+                  <c:v>16.711968670623246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.754552447166198</c:v>
+                  <c:v>14.326365734149858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.744962608104721</c:v>
+                  <c:v>12.823488782431417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.15233125065545</c:v>
+                  <c:v>11.745699375196637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.391558174916732</c:v>
+                  <c:v>10.917467452475021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.174588334086621</c:v>
+                  <c:v>10.252376500225987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.338609344273529</c:v>
+                  <c:v>9.7015828032820579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.782923672557846</c:v>
+                  <c:v>9.2348771017673528</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.441124783008718</c:v>
+                  <c:v>8.8323374349026142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.267252020871918</c:v>
+                  <c:v>8.4801756062615752</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.228268631221315</c:v>
+                  <c:v>8.1684805893663945</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.299691654173255</c:v>
+                  <c:v>7.8899074962519764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.462914524430218</c:v>
+                  <c:v>7.6388743573290654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.703494283588896</c:v>
+                  <c:v>7.411048285076669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.01001579177635</c:v>
+                  <c:v>7.2030047375329058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.373315324226542</c:v>
+                  <c:v>7.0119945972679627</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.785935823305138</c:v>
+                  <c:v>6.8357807469915413</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.241735943854433</c:v>
+                  <c:v>6.6725207831563296</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.735603854384539</c:v>
+                  <c:v>6.5206811563153622</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.263244019389543</c:v>
+                  <c:v>6.3789732058168633</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.821015851814536</c:v>
+                  <c:v>6.2463047555443607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,82 +1318,82 @@
             <c:numRef>
               <c:f>Лист1!$G$2:$G$26</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.39130434782609</c:v>
+                  <c:v>65.217391304347828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151.5151515151515</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.38583563660174</c:v>
+                  <c:v>28.315750690980522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.48268575151036</c:v>
+                  <c:v>23.84480572545311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.453241266215215</c:v>
+                  <c:v>19.935972379864562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.067369115081931</c:v>
+                  <c:v>17.120210734524576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.439332873534084</c:v>
+                  <c:v>15.131799862060225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.572651207436998</c:v>
+                  <c:v>13.671795362231098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.842748011997344</c:v>
+                  <c:v>12.552824403599201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.87994342047952</c:v>
+                  <c:v>11.663983026143853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.458382429681933</c:v>
+                  <c:v>10.937514728904578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.43363056561229</c:v>
+                  <c:v>10.330089169683685</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.709230244431446</c:v>
+                  <c:v>9.8127690733294326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.218280686132108</c:v>
+                  <c:v>9.3654842058396319</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.912855907125362</c:v>
+                  <c:v>8.9738567721376086</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.757662272295686</c:v>
+                  <c:v>8.6272986816887069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.726086469431653</c:v>
+                  <c:v>8.317825940829497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.797646318317632</c:v>
+                  <c:v>8.0392938954952911</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.956295492355036</c:v>
+                  <c:v>7.7868886477065127</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.189265345892075</c:v>
+                  <c:v>7.5567796037676231</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.486254605405446</c:v>
+                  <c:v>7.3458763816216335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.838850315878187</c:v>
+                  <c:v>7.1516550947634556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.240106152318887</c:v>
+                  <c:v>6.9720318456956658</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.68423008190959</c:v>
+                  <c:v>6.8052690245728762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,79 +1506,79 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,11 +1593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291385864"/>
-        <c:axId val="291385080"/>
+        <c:axId val="374557928"/>
+        <c:axId val="374558320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291385864"/>
+        <c:axId val="374557928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,12 +1654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291385080"/>
+        <c:crossAx val="374558320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291385080"/>
+        <c:axId val="374558320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291385864"/>
+        <c:crossAx val="374557928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1567,14 +1812,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.1248906386701742E-3"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1623,82 +1861,103 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$N$42:$N$45</c:f>
+              <c:f>Лист1!$R$41:$R$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>-400.39677700000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>-395.19657599999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>-384.79639900000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1200</c:v>
+                  <c:v>-369.59624800000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-349.99612500000012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-326.3960320000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-299.19597100000033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-268.79594400000019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-235.59595300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-199.99600000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-162.39608700000031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-123.19621600000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-82.79638900000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-41.59660800000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1249999997271516E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.602807999999641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.802438999999595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.20201599999973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162.40153699999973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.00099999999975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>235.60040300000037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>268.79974399999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>299.19902099999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>326.3982319999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>349.99737499999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>369.59644799999933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>384.79544900000019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>395.19437600000037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400.39322699999911</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>399.99199999999973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,11 +1972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291384296"/>
-        <c:axId val="291379200"/>
+        <c:axId val="374555968"/>
+        <c:axId val="316336936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291384296"/>
+        <c:axId val="374555968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,12 +2032,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291379200"/>
+        <c:crossAx val="316336936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291379200"/>
+        <c:axId val="316336936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +2057,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1835,7 +2094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291384296"/>
+        <c:crossAx val="374555968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1899,6 +2158,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1937,6 +2197,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1947,103 +2215,166 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$R$41:$R$70</c:f>
+              <c:f>Лист1!$M$2:$M$48</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>_-* #\ ##0.0\ _₽_-;\-* #\ ##0.0\ _₽_-;_-* "-"?\ _₽_-;_-@_-</c:formatCode>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>-400.39677700000004</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-395.19657599999994</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-384.79639900000006</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-369.59624800000006</c:v>
+                  <c:v>1059.4810050208546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-349.99612500000012</c:v>
+                  <c:v>1258.1356436876538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-326.3960320000001</c:v>
+                  <c:v>1504.817494144412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-299.19597100000033</c:v>
+                  <c:v>1752.3148788993626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-268.79594400000019</c:v>
+                  <c:v>1982.5797508212245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-235.59595300000001</c:v>
+                  <c:v>2194.2984959295286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-199.99600000000009</c:v>
+                  <c:v>2389.9003949579878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-162.39608700000031</c:v>
+                  <c:v>2572.0202037980921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-123.19621600000005</c:v>
+                  <c:v>2742.8534492135568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-82.79638900000009</c:v>
+                  <c:v>2904.1375642760904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-41.59660800000006</c:v>
+                  <c:v>3057.2410066734733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1249999997271516E-3</c:v>
+                  <c:v>3203.2513579270349</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.602807999999641</c:v>
+                  <c:v>3343.0442185287829</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82.802438999999595</c:v>
+                  <c:v>3477.3341119711649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.20201599999973</c:v>
+                  <c:v>3606.711683246433</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>162.40153699999973</c:v>
+                  <c:v>3731.6710136458742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.00099999999975</c:v>
+                  <c:v>3852.6298958745169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>235.60040300000037</c:v>
+                  <c:v>3969.9450788590875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>268.79974399999992</c:v>
+                  <c:v>4083.9238834805128</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>299.19902099999899</c:v>
+                  <c:v>4194.8331683341985</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>326.3982319999991</c:v>
+                  <c:v>4302.9063354782502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>349.99737499999992</c:v>
+                  <c:v>4408.3488678660888</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>369.59644799999933</c:v>
+                  <c:v>4511.3427531888328</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>384.79544900000019</c:v>
+                  <c:v>4612.0500532348669</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>395.19437600000037</c:v>
+                  <c:v>4710.6158103428443</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>400.39322699999911</c:v>
+                  <c:v>4807.1704342548719</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>399.99199999999973</c:v>
+                  <c:v>4901.8316777630444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4994.7062839970813</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5085.8913693025606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5175.475591531047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5263.5401428956211</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5350.1595984142568</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5435.4026447106817</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5519.3327090932717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5602.0085050422858</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5683.4845072507251</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5763.8113669965915</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5843.0362767340303</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5921.2032912717759</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5998.3536116794867</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6074.5258370641368</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6149.756188542643</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6224.0787090663171</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6297.5254421991112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,11 +2389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291385472"/>
-        <c:axId val="291379984"/>
+        <c:axId val="374561064"/>
+        <c:axId val="317297144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291385472"/>
+        <c:axId val="374561064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,12 +2449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291379984"/>
+        <c:crossAx val="317297144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291379984"/>
+        <c:axId val="317297144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2474,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.0\ _₽_-;\-* #\ ##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2180,7 +2511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291385472"/>
+        <c:crossAx val="374561064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4457,16 +4788,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>226787</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426358</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>553357</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70922</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79994</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4487,16 +4818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253997</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371928</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>426355</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4517,20 +4848,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>117927</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>84364</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391138</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>93169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>573634</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>34898</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4547,20 +4878,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>111312</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594180</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>328706</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>53041</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>303894</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15421</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4576,6 +4907,211 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+      <sheetName val="Лист5"/>
+      <sheetName val="Лист4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="G11">
+            <v>400</v>
+          </cell>
+          <cell r="L11">
+            <v>3.9215686274509803E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>460.82949308755758</v>
+          </cell>
+          <cell r="L12">
+            <v>3.3333333333333333E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>580</v>
+          </cell>
+          <cell r="L13">
+            <v>4.7619047619047616E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>1063.8297872340424</v>
+          </cell>
+          <cell r="L14">
+            <v>5.8823529411764705E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>1265.8227848101267</v>
+          </cell>
+          <cell r="L15">
+            <v>7.1428571428571425E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>1515.1515151515152</v>
+          </cell>
+          <cell r="L16">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>1900</v>
+          </cell>
+          <cell r="L17">
+            <v>9.0909090909090912E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>2110</v>
+          </cell>
+          <cell r="L18">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>2173.913043478261</v>
+          </cell>
+          <cell r="L19">
+            <v>0.1111111111111111</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>2380.9523809523807</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>2564.102564102564</v>
+          </cell>
+          <cell r="J21">
+            <v>392.35</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>2777.7777777777778</v>
+          </cell>
+          <cell r="J22">
+            <v>455.81</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23">
+            <v>658.83</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24">
+            <v>947.8900000000001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>1274.75</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26">
+            <v>1596.4500000000003</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27">
+            <v>1875.3100000000004</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28">
+            <v>2078.9300000000003</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29">
+            <v>2180.1900000000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30">
+            <v>2157.25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31">
+            <v>1993.5500000000011</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32">
+            <v>1677.8100000000031</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33">
+            <v>1204.0299999999988</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34">
+            <v>571.4900000000016</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35">
+            <v>-215.25</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36">
+            <v>-1146.3499999999985</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37">
+            <v>-2206.6900000000023</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38">
+            <v>-3375.8699999999953</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39">
+            <v>-4628.2100000000064</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40">
+            <v>-5932.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4844,7 +5380,7 @@
   <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4852,13 +5388,17 @@
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="4" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="1.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" customWidth="1"/>
+    <col min="9" max="9" width="6.36328125" customWidth="1"/>
     <col min="10" max="10" width="6.7265625" customWidth="1"/>
     <col min="11" max="11" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4868,21 +5408,24 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I1" s="10"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4895,24 +5438,33 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f t="shared" ref="F2:F3" si="0">$B$12/J2</f>
-        <v>250</v>
-      </c>
-      <c r="G2" s="3">
+        <v>75</v>
+      </c>
+      <c r="G2" s="21">
         <f>$B$12/J2</f>
-        <v>250</v>
-      </c>
-      <c r="H2" s="13">
+        <v>75</v>
+      </c>
+      <c r="H2" s="12">
         <f>ROUND(G2,0)</f>
-        <v>250</v>
-      </c>
-      <c r="J2" s="15">
+        <v>75</v>
+      </c>
+      <c r="J2" s="14">
         <v>400</v>
       </c>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G2*POWER(2,24),8),",")</f>
+        <v>0x4B000000,</v>
+      </c>
+      <c r="M2" s="19">
+        <f>$B$12/G2</f>
+        <v>400</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4924,90 +5476,114 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D5" si="1">G2-G3</f>
-        <v>32.608695652173907</v>
+        <v>9.7826086956521721</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>217.39130434782609</v>
-      </c>
-      <c r="G3" s="3">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="G3" s="21">
         <f>$B$12/J3</f>
-        <v>217.39130434782609</v>
-      </c>
-      <c r="H3" s="14">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="H3" s="13">
         <f>ROUND(G3,0)</f>
-        <v>217</v>
-      </c>
-      <c r="J3" s="15">
+        <v>65</v>
+      </c>
+      <c r="J3" s="14">
         <v>460</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K5" si="2">J3-J2</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G3*POWER(2,24),8),",")</f>
+        <v>0x4137A6F4,</v>
+      </c>
+      <c r="M3" s="19">
+        <f>$B$12/G3</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>65.876152832674592</v>
+        <v>19.762845849802375</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>$B$12/J4</f>
-        <v>151.5151515151515</v>
-      </c>
-      <c r="G4" s="3">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="G4" s="21">
         <f>$B$12/J4</f>
-        <v>151.5151515151515</v>
-      </c>
-      <c r="H4" s="14">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="H4" s="13">
         <f>ROUND(G4,0)</f>
-        <v>152</v>
-      </c>
-      <c r="J4" s="15">
+        <v>45</v>
+      </c>
+      <c r="J4" s="14">
         <v>660</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G4*POWER(2,24),8),",")</f>
+        <v>0x2D745D17,</v>
+      </c>
+      <c r="M4" s="19">
+        <f>$B$12/G4</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>57.129315878549761</v>
+        <v>17.138794763564931</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>B17</f>
-        <v>94.38583563660174</v>
-      </c>
-      <c r="G5" s="3">
+        <v>28.315750690980522</v>
+      </c>
+      <c r="G5" s="21">
         <f>B17</f>
-        <v>94.38583563660174</v>
+        <v>28.315750690980522</v>
       </c>
       <c r="H5" s="8">
         <f>ROUND(G5,0)</f>
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J35" si="3">$B$12/H5</f>
-        <v>1063.8297872340424</v>
+        <v>1071.4285714285713</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="2"/>
-        <v>403.82978723404244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>411.42857142857133</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G5*POWER(2,24),8),",")</f>
+        <v>0x1C50D509,</v>
+      </c>
+      <c r="M5" s="19">
+        <f>$B$12/G5</f>
+        <v>1059.4810050208546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5016,113 +5592,137 @@
       </c>
       <c r="D6" s="3">
         <f>G5-G6</f>
-        <v>14.903149885091381</v>
+        <v>4.4709449655274121</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f t="shared" ref="F6:F35" si="4">F5*(1+-1*$B$22*F5*F5)</f>
-        <v>55.706562235410821</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" ref="G6:G35" si="5">G5*(1+I6+1.5*I6*I6)</f>
-        <v>79.48268575151036</v>
+        <v>16.711968670623246</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" ref="G6:G48" si="5">G5*(1+I6+1.5*I6*I6)</f>
+        <v>23.84480572545311</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H35" si="6">ROUND(G6,0)</f>
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I35" si="7">-1*$B$22*G5*G5</f>
-        <v>-0.40979955456570155</v>
+        <f t="shared" ref="I6:I48" si="7">-1*$B$22*G5*G5</f>
+        <v>-0.40979955456570161</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="3"/>
-        <v>1265.8227848101267</v>
+        <v>1250</v>
       </c>
       <c r="K6" s="4">
         <f>J6-J5</f>
-        <v>201.99299757608424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>178.57142857142867</v>
+      </c>
+      <c r="L6" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G6*POWER(2,24),8),",")</f>
+        <v>0x17D84530,</v>
+      </c>
+      <c r="M6" s="19">
+        <f>$B$12/G6</f>
+        <v>1258.1356436876538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
         <f>((((72000000)/((B6)/(1/B12)))+0.5)-1)</f>
-        <v>719.50000000000011</v>
+        <v>2399.5</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D37" si="8">G6-G7</f>
-        <v>13.029444485295144</v>
+        <v>3.9088333455885476</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f t="shared" si="4"/>
-        <v>47.754552447166198</v>
-      </c>
-      <c r="G7" s="3">
+        <v>14.326365734149858</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="5"/>
-        <v>66.453241266215215</v>
+        <v>19.935972379864562</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="7"/>
-        <v>-0.29060487737657403</v>
+        <v>-0.29060487737657409</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="3"/>
-        <v>1515.1515151515152</v>
+        <v>1500</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" ref="K7:K35" si="9">J7-J6</f>
-        <v>249.32873034138856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="L7" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G7*POWER(2,24),8),",")</f>
+        <v>0x13EF9BE2,</v>
+      </c>
+      <c r="M7" s="19">
+        <f>$B$12/G7</f>
+        <v>1504.817494144412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="8"/>
-        <v>9.3858721511332845</v>
+        <v>2.8157616453399861</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f t="shared" si="4"/>
-        <v>42.744962608104721</v>
-      </c>
-      <c r="G8" s="3">
+        <v>12.823488782431417</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="5"/>
-        <v>57.067369115081931</v>
+        <v>17.120210734524576</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20313753064014722</v>
+        <v>-0.20313753064014717</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="3"/>
-        <v>1754.3859649122808</v>
+        <v>1764.7058823529412</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="9"/>
-        <v>239.23444976076553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>264.70588235294122</v>
+      </c>
+      <c r="L8" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G8*POWER(2,24),8),",")</f>
+        <v>0x111EC621,</v>
+      </c>
+      <c r="M8" s="19">
+        <f>$B$12/G8</f>
+        <v>1752.3148788993626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5135,26 +5735,26 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="8"/>
-        <v>6.6280362415478464</v>
+        <v>1.9884108724643514</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f t="shared" si="4"/>
-        <v>39.15233125065545</v>
-      </c>
-      <c r="G9" s="3">
+        <v>11.745699375196637</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="5"/>
-        <v>50.439332873534084</v>
+        <v>15.131799862060225</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14980749241498231</v>
+        <v>-0.14980749241498229</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
@@ -5162,10 +5762,18 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="9"/>
-        <v>245.61403508771923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>235.29411764705878</v>
+      </c>
+      <c r="L9" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G9*POWER(2,24),8),",")</f>
+        <v>0x0F21BDA2,</v>
+      </c>
+      <c r="M9" s="19">
+        <f>$B$12/G9</f>
+        <v>1982.5797508212245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5178,37 +5786,45 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="8"/>
-        <v>4.8666816660970866</v>
+        <v>1.4600044998291271</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <f t="shared" si="4"/>
-        <v>36.391558174916732</v>
-      </c>
-      <c r="G10" s="3">
+        <v>10.917467452475021</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="5"/>
-        <v>45.572651207436998</v>
+        <v>13.671795362231098</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="7"/>
-        <v>-0.1170298098334501</v>
+        <v>-0.11702980983345011</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>2173.913043478261</v>
+        <v>2142.8571428571427</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="9"/>
-        <v>173.91304347826099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>142.85714285714266</v>
+      </c>
+      <c r="L10" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G10*POWER(2,24),8),",")</f>
+        <v>0x0DABFAC7,</v>
+      </c>
+      <c r="M10" s="19">
+        <f>$B$12/G10</f>
+        <v>2194.2984959295286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5220,151 +5836,183 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>3.729903195439654</v>
+        <v>1.1189709586318966</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f t="shared" si="4"/>
-        <v>34.174588334086621</v>
-      </c>
-      <c r="G11" s="3">
+        <v>10.252376500225987</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="5"/>
-        <v>41.842748011997344</v>
+        <v>12.552824403599201</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="7"/>
-        <v>-9.5535860751436608E-2</v>
+        <v>-9.5535860751436594E-2</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>2380.9523809523807</v>
+        <v>2307.6923076923076</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="9"/>
-        <v>207.03933747411975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>164.83516483516496</v>
+      </c>
+      <c r="L11" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G11*POWER(2,24),8),",")</f>
+        <v>0x0C8D85E6,</v>
+      </c>
+      <c r="M11" s="19">
+        <f>$B$12/G11</f>
+        <v>2389.9003949579878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="8"/>
-        <v>2.9628045915178234</v>
+        <v>0.88884137745534808</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <f t="shared" si="4"/>
-        <v>32.338609344273529</v>
-      </c>
-      <c r="G12" s="3">
+        <v>9.7015828032820579</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="5"/>
-        <v>38.87994342047952</v>
+        <v>11.663983026143853</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="7"/>
-        <v>-8.0537515814993355E-2</v>
+        <v>-8.0537515814993341E-2</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="3"/>
-        <v>2564.102564102564</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="9"/>
-        <v>183.15018315018324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>192.30769230769238</v>
+      </c>
+      <c r="L12" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G12*POWER(2,24),8),",")</f>
+        <v>0x0BA9FACA,</v>
+      </c>
+      <c r="M12" s="19">
+        <f>$B$12/G12</f>
+        <v>2572.0202037980921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="8"/>
-        <v>2.4215609907975875</v>
+        <v>0.72646829723927553</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f t="shared" si="4"/>
-        <v>30.782923672557846</v>
-      </c>
-      <c r="G13" s="3">
+        <v>9.2348771017673528</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="5"/>
-        <v>36.458382429681933</v>
+        <v>10.937514728904578</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="7"/>
-        <v>-6.9535900017465679E-2</v>
+        <v>-6.9535900017465652E-2</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>2777.7777777777778</v>
+        <v>2727.2727272727275</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="9"/>
-        <v>213.67521367521385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>227.27272727272748</v>
+      </c>
+      <c r="L13" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G13*POWER(2,24),8),",")</f>
+        <v>0x0AF000F7,</v>
+      </c>
+      <c r="M13" s="19">
+        <f>$B$12/G13</f>
+        <v>2742.8534492135568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="8"/>
-        <v>2.0247518640696427</v>
+        <v>0.60742555922089281</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="4"/>
-        <v>29.441124783008718</v>
-      </c>
-      <c r="G14" s="3">
+        <v>8.8323374349026142</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="5"/>
-        <v>34.43363056561229</v>
+        <v>10.330089169683685</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="7"/>
-        <v>-6.1143827871891251E-2</v>
+        <v>-6.1143827871891238E-2</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>2941.1764705882351</v>
+        <v>3000</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="9"/>
-        <v>163.39869281045731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>272.72727272727252</v>
+      </c>
+      <c r="L14" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G14*POWER(2,24),8),",")</f>
+        <v>0x0A5480B9,</v>
+      </c>
+      <c r="M14" s="19">
+        <f>$B$12/G14</f>
+        <v>2904.1375642760904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5374,102 +6022,118 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="8"/>
-        <v>1.7244003211808447</v>
+        <v>0.51732009635425236</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <f t="shared" si="4"/>
-        <v>28.267252020871918</v>
-      </c>
-      <c r="G15" s="3">
+        <v>8.4801756062615752</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="5"/>
-        <v>32.709230244431446</v>
+        <v>9.8127690733294326</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="7"/>
-        <v>-5.4541046040737173E-2</v>
+        <v>-5.4541046040737153E-2</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>3030.3030303030305</v>
+        <v>3000</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="9"/>
-        <v>89.126559714795349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G15*POWER(2,24),8),",")</f>
+        <v>0x09D011A2,</v>
+      </c>
+      <c r="M15" s="19">
+        <f>$B$12/G15</f>
+        <v>3057.2410066734733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="8"/>
-        <v>1.490949558299338</v>
+        <v>0.44728486748980067</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <f t="shared" si="4"/>
-        <v>27.228268631221315</v>
-      </c>
-      <c r="G16" s="3">
+        <v>8.1684805893663945</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="5"/>
-        <v>31.218280686132108</v>
+        <v>9.3654842058396319</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="7"/>
-        <v>-4.9215112186428524E-2</v>
+        <v>-4.9215112186428517E-2</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>3225.8064516129034</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="9"/>
-        <v>195.50342130987292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>333.33333333333348</v>
+      </c>
+      <c r="L16" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G16*POWER(2,24),8),",")</f>
+        <v>0x095D905F,</v>
+      </c>
+      <c r="M16" s="19">
+        <f>$B$12/G16</f>
+        <v>3203.2513579270349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3">
         <f>B12/SQRT(B9*B9+2*B11)</f>
-        <v>94.38583563660174</v>
+        <v>28.315750690980522</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="8"/>
-        <v>1.3054247790067457</v>
+        <v>0.39162743370202335</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f t="shared" si="4"/>
-        <v>26.299691654173255</v>
-      </c>
-      <c r="G17" s="3">
+        <v>7.8899074962519764</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="5"/>
-        <v>29.912855907125362</v>
+        <v>8.9738567721376086</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="7"/>
-        <v>-4.4830728253913932E-2</v>
+        <v>-4.4830728253913939E-2</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
@@ -5477,324 +6141,396 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="9"/>
-        <v>107.52688172043008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G17*POWER(2,24),8),",")</f>
+        <v>0x08F94EAD,</v>
+      </c>
+      <c r="M17" s="19">
+        <f>$B$12/G17</f>
+        <v>3343.0442185287829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D18" s="3">
         <f t="shared" si="8"/>
-        <v>1.1551936348296756</v>
+        <v>0.34655809044890162</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <f t="shared" si="4"/>
-        <v>25.462914524430218</v>
-      </c>
-      <c r="G18" s="3">
+        <v>7.6388743573290654</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="5"/>
-        <v>28.757662272295686</v>
+        <v>8.6272986816887069</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="7"/>
-        <v>-4.1159831631940452E-2</v>
+        <v>-4.1159831631940459E-2</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>3448.2758620689656</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="9"/>
-        <v>114.9425287356321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G18*POWER(2,24),8),",")</f>
+        <v>0x08A096A5,</v>
+      </c>
+      <c r="M18" s="19">
+        <f>$B$12/G18</f>
+        <v>3477.3341119711649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="8"/>
-        <v>1.0315758028640332</v>
+        <v>0.30947274085920995</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <f t="shared" si="4"/>
-        <v>24.703494283588896</v>
-      </c>
-      <c r="G19" s="3">
+        <v>7.411048285076669</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="5"/>
-        <v>27.726086469431653</v>
+        <v>8.317825940829497</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="7"/>
-        <v>-3.8042144410901257E-2</v>
+        <v>-3.8042144410901271E-2</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>3571.4285714285716</v>
+        <v>3750</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>123.15270935960598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>416.66666666666652</v>
+      </c>
+      <c r="L19" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G19*POWER(2,24),8),",")</f>
+        <v>0x08515D0A,</v>
+      </c>
+      <c r="M19" s="19">
+        <f>$B$12/G19</f>
+        <v>3606.711683246433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3">
         <f>B12/B10</f>
-        <v>16.666666666666668</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="8"/>
-        <v>0.92844015111402101</v>
+        <v>0.27853204533420595</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <f t="shared" si="4"/>
-        <v>24.01001579177635</v>
-      </c>
-      <c r="G20" s="3">
+        <v>7.2030047375329058</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="5"/>
-        <v>26.797646318317632</v>
+        <v>8.0392938954952911</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="7"/>
-        <v>-3.5361850061878447E-2</v>
+        <v>-3.5361850061878461E-2</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="3"/>
-        <v>3703.7037037037039</v>
+        <v>3750</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>132.27513227513236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G20*POWER(2,24),8),",")</f>
+        <v>0x080A0F2A,</v>
+      </c>
+      <c r="M20" s="19">
+        <f>$B$12/G20</f>
+        <v>3731.6710136458742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="8"/>
-        <v>0.84135082596259636</v>
+        <v>0.25240524778877838</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <f t="shared" si="4"/>
-        <v>23.373315324226542</v>
-      </c>
-      <c r="G21" s="3">
+        <v>7.0119945972679627</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="5"/>
-        <v>25.956295492355036</v>
+        <v>7.7868886477065127</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="7"/>
-        <v>-3.3033237017275556E-2</v>
+        <v>-3.3033237017275577E-2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>3846.1538461538462</v>
+        <v>3750</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>142.45014245014227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G21*POWER(2,24),8),",")</f>
+        <v>0x07C97188,</v>
+      </c>
+      <c r="M21" s="19">
+        <f>$B$12/G21</f>
+        <v>3852.6298958745169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22">
         <f>B11/(B12*B12)</f>
-        <v>4.6E-5</v>
+        <v>5.1111111111111116E-4</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="8"/>
-        <v>0.76703014646296097</v>
+        <v>0.23010904393888953</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f t="shared" si="4"/>
-        <v>22.785935823305138</v>
-      </c>
-      <c r="G22" s="3">
+        <v>6.8357807469915413</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="5"/>
-        <v>25.189265345892075</v>
+        <v>7.5567796037676231</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="7"/>
-        <v>-3.0991546681576713E-2</v>
+        <v>-3.0991546681576734E-2</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="9"/>
-        <v>153.84615384615381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G22*POWER(2,24),8),",")</f>
+        <v>0x078E891B,</v>
+      </c>
+      <c r="M22" s="19">
+        <f>$B$12/G22</f>
+        <v>3969.9450788590875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="8"/>
-        <v>0.70301074048662926</v>
+        <v>0.21090322214598967</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="4"/>
-        <v>22.241735943854433</v>
-      </c>
-      <c r="G23" s="3">
+        <v>6.6725207831563296</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="5"/>
-        <v>24.486254605405446</v>
+        <v>7.3458763816216335</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="7"/>
-        <v>-2.9186958078624932E-2</v>
+        <v>-2.9186958078624939E-2</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>4166.666666666667</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="9"/>
-        <v>166.66666666666697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>535.71428571428532</v>
+      </c>
+      <c r="L23" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G23*POWER(2,24),8),",")</f>
+        <v>0x07588B5A,</v>
+      </c>
+      <c r="M23" s="19">
+        <f>$B$12/G23</f>
+        <v>4083.9238834805128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="8"/>
-        <v>0.64740428952725892</v>
+        <v>0.19422128685817786</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <f t="shared" si="4"/>
-        <v>21.735603854384539</v>
-      </c>
-      <c r="G24" s="3">
+        <v>6.5206811563153622</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" si="5"/>
-        <v>23.838850315878187</v>
+        <v>7.1516550947634556</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="7"/>
-        <v>-2.7580526571634009E-2</v>
+        <v>-2.7580526571634015E-2</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>4166.666666666667</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G24*POWER(2,24),8),",")</f>
+        <v>0x0726D2DE,</v>
+      </c>
+      <c r="M24" s="19">
+        <f>$B$12/G24</f>
+        <v>4194.8331683341985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="8"/>
-        <v>0.59874416355929938</v>
+        <v>0.17962324906778981</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <f t="shared" si="4"/>
-        <v>21.263244019389543</v>
-      </c>
-      <c r="G25" s="3">
+        <v>6.3789732058168633</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="5"/>
-        <v>23.240106152318887</v>
+        <v>6.9720318456956658</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="7"/>
-        <v>-2.6141376081610896E-2</v>
+        <v>-2.6141376081610893E-2</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>4347.826086956522</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="9"/>
-        <v>181.15942028985501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G25*POWER(2,24),8),",")</f>
+        <v>0x06F8D714,</v>
+      </c>
+      <c r="M25" s="19">
+        <f>$B$12/G25</f>
+        <v>4302.9063354782502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="8"/>
-        <v>0.55587607040929754</v>
+        <v>0.16676282112278962</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>20.821015851814536</v>
-      </c>
-      <c r="G26" s="3">
+        <v>6.2463047555443607</v>
+      </c>
+      <c r="G26" s="21">
         <f t="shared" si="5"/>
-        <v>22.68423008190959</v>
+        <v>6.8052690245728762</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="7"/>
@@ -5802,183 +6538,223 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="3"/>
-        <v>4347.826086956522</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G26*POWER(2,24),8),",")</f>
+        <v>0x06CE261C,</v>
+      </c>
+      <c r="M26" s="19">
+        <f>$B$12/G26</f>
+        <v>4408.3488678660888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="8"/>
-        <v>0.51788062213616826</v>
+        <v>0.15536418664085083</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <f t="shared" si="4"/>
-        <v>20.405809894487593</v>
-      </c>
-      <c r="G27" s="3">
+        <v>6.1217429683462772</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" si="5"/>
-        <v>22.166349459773421</v>
+        <v>6.6499048379320254</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="7"/>
-        <v>-2.3670417542814549E-2</v>
+        <v>-2.3670417542814546E-2</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="3"/>
-        <v>4545.454545454545</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="9"/>
-        <v>197.62845849802306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G27*POWER(2,24),8),",")</f>
+        <v>0x06A66029,</v>
+      </c>
+      <c r="M27" s="19">
+        <f>$B$12/G27</f>
+        <v>4511.3427531888328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="8"/>
-        <v>0.48401755839681826</v>
+        <v>0.14520526751904494</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <f t="shared" si="4"/>
-        <v>20.014951592746637</v>
-      </c>
-      <c r="G28" s="3">
+        <v>6.00448547782399</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="5"/>
-        <v>21.682331901376603</v>
+        <v>6.5046995704129804</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="7"/>
-        <v>-2.2601964225148683E-2</v>
+        <v>-2.260196422514868E-2</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="3"/>
-        <v>4545.454545454545</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G28*POWER(2,24),8),",")</f>
+        <v>0x068133FD,</v>
+      </c>
+      <c r="M28" s="19">
+        <f>$B$12/G28</f>
+        <v>4612.0500532348669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="8"/>
-        <v>0.45368494179322738</v>
+        <v>0.1361054825379675</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <f t="shared" si="4"/>
-        <v>19.646125647674925</v>
-      </c>
-      <c r="G29" s="3">
+        <v>5.8938376943024755</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="5"/>
-        <v>21.228646959583376</v>
+        <v>6.3685940878750129</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="7"/>
-        <v>-2.1625681767346864E-2</v>
+        <v>-2.162568176734686E-2</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="3"/>
-        <v>4761.9047619047615</v>
+        <v>5000</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="9"/>
-        <v>216.45021645021643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>714.28571428571468</v>
+      </c>
+      <c r="L29" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G29*POWER(2,24),8),",")</f>
+        <v>0x065E5C2E,</v>
+      </c>
+      <c r="M29" s="19">
+        <f>$B$12/G29</f>
+        <v>4710.6158103428443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="8"/>
-        <v>0.42638888122998253</v>
+        <v>0.1279166643689944</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <f t="shared" si="4"/>
-        <v>19.297315923718919</v>
-      </c>
-      <c r="G30" s="3">
+        <v>5.7891947771156733</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="5"/>
-        <v>20.802258078353393</v>
+        <v>6.2406774235060185</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="7"/>
-        <v>-2.073015077979291E-2</v>
+        <v>-2.0730150779792914E-2</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="3"/>
-        <v>4761.9047619047615</v>
+        <v>5000</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G30*POWER(2,24),8),",")</f>
+        <v>0x063D9D09,</v>
+      </c>
+      <c r="M30" s="19">
+        <f>$B$12/G30</f>
+        <v>4807.1704342548719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="8"/>
-        <v>0.40172077438071341</v>
+        <v>0.12051623231421349</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <f t="shared" si="4"/>
-        <v>18.96675725376917</v>
-      </c>
-      <c r="G31" s="3">
+        <v>5.6900271761307488</v>
+      </c>
+      <c r="G31" s="21">
         <f t="shared" si="5"/>
-        <v>20.40053730397268</v>
+        <v>6.120161191191805</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="7"/>
-        <v>-1.9905761293287274E-2</v>
+        <v>-1.9905761293287281E-2</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="3"/>
@@ -5986,35 +6762,43 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="9"/>
-        <v>238.09523809523853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L31" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G31*POWER(2,24),8),",")</f>
+        <v>0x061EC2E2,</v>
+      </c>
+      <c r="M31" s="19">
+        <f>$B$12/G31</f>
+        <v>4901.8316777630444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="8"/>
-        <v>0.3793399974568672</v>
+        <v>0.1138019992370598</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <f t="shared" si="4"/>
-        <v>18.652896445070525</v>
-      </c>
-      <c r="G32" s="3">
+        <v>5.5958689335211558</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="5"/>
-        <v>20.021197306515813</v>
+        <v>6.0063591919547452</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="7"/>
-        <v>-1.914436842537592E-2</v>
+        <v>-1.9144368425375931E-2</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="3"/>
@@ -6024,6 +6808,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="L32" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G32*POWER(2,24),8),",")</f>
+        <v>0x0601A0C1,</v>
+      </c>
+      <c r="M32" s="19">
+        <f>$B$12/G32</f>
+        <v>4994.7062839970813</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -6031,26 +6823,26 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="8"/>
-        <v>0.35896059348251441</v>
+        <v>0.10768817804475539</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <f t="shared" si="4"/>
-        <v>18.354360472797978</v>
-      </c>
-      <c r="G33" s="3">
+        <v>5.5063081418393915</v>
+      </c>
+      <c r="G33" s="21">
         <f t="shared" si="5"/>
-        <v>19.662236713033298</v>
+        <v>5.8986710139099898</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="7"/>
-        <v>-1.8439023712976059E-2</v>
+        <v>-1.8439023712976066E-2</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="3"/>
@@ -6060,38 +6852,54 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="L33" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G33*POWER(2,24),8),",")</f>
+        <v>0x05E60F4D,</v>
+      </c>
+      <c r="M33" s="19">
+        <f>$B$12/G33</f>
+        <v>5085.8913693025606</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D34" s="3">
         <f t="shared" si="8"/>
-        <v>0.3403409313903083</v>
+        <v>0.10210227941709249</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <f t="shared" si="4"/>
-        <v>18.069930341232077</v>
+        <v>5.4209791023696212</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="5"/>
-        <v>19.32189578164299</v>
+        <v>5.7965687344928973</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="7"/>
-        <v>-1.7783763417730306E-2</v>
+        <v>-1.778376341773031E-2</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="3"/>
-        <v>5263.1578947368425</v>
+        <v>5000</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="9"/>
-        <v>263.15789473684254</v>
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G34*POWER(2,24),8),",")</f>
+        <v>0x05CBEBED,</v>
+      </c>
+      <c r="M34" s="19">
+        <f>$B$12/G34</f>
+        <v>5175.475591531047</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6100,35 +6908,43 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="8"/>
-        <v>0.32327559728410193</v>
+        <v>9.6982679185231291E-2</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <f t="shared" si="4"/>
-        <v>17.798519452696446</v>
+        <v>5.3395558358089321</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="5"/>
-        <v>18.998620184358888</v>
+        <v>5.699586055307666</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="7"/>
-        <v>-1.7173440203446966E-2</v>
+        <v>-1.7173440203446969E-2</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="3"/>
-        <v>5263.1578947368425</v>
+        <v>5000</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="L35" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G35*POWER(2,24),8),",")</f>
+        <v>0x05B31812,</v>
+      </c>
+      <c r="M35" s="19">
+        <f>$B$12/G35</f>
+        <v>5263.5401428956211</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -6136,7 +6952,23 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="8"/>
-        <v>18.998620184358888</v>
+        <v>9.2276694126786296E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="5"/>
+        <v>5.6073093611808797</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.660358816983833E-2</v>
+      </c>
+      <c r="L36" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G36*POWER(2,24),8),",")</f>
+        <v>0x059B78A0,</v>
+      </c>
+      <c r="M36" s="19">
+        <f>$B$12/G36</f>
+        <v>5350.1595984142568</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -6145,14 +6977,100 @@
       </c>
       <c r="D37" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.7939047521834013E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="5"/>
+        <v>5.5193703136590457</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.6070313783459883E-2</v>
+      </c>
+      <c r="L37" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G37*POWER(2,24),8),",")</f>
+        <v>0x0584F573,</v>
+      </c>
+      <c r="M37" s="19">
+        <f>$B$12/G37</f>
+        <v>5435.4026447106817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G38" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4354396774403675</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.5570207092531499E-2</v>
+      </c>
+      <c r="L38" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G38*POWER(2,24),8),",")</f>
+        <v>0x056F78F9,</v>
+      </c>
+      <c r="M38" s="19">
+        <f>$B$12/G38</f>
+        <v>5519.3327090932717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G39" s="3">
+        <f t="shared" si="5"/>
+        <v>5.3552221445214583</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.5100268960069779E-2</v>
+      </c>
+      <c r="L39" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G39*POWER(2,24),8),",")</f>
+        <v>0x055AEFD6,</v>
+      </c>
+      <c r="M39" s="19">
+        <f>$B$12/G39</f>
+        <v>5602.0085050422858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G40" s="3">
+        <f t="shared" si="5"/>
+        <v>5.2784519710975539</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.4657851044332872E-2</v>
+      </c>
+      <c r="L40" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G40*POWER(2,24),8),",")</f>
+        <v>0x054748A0,</v>
+      </c>
+      <c r="M40" s="19">
+        <f>$B$12/G40</f>
+        <v>5683.4845072507251</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G41" s="3">
+        <f t="shared" si="5"/>
+        <v>5.204889280690046</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.4240605996827201E-2</v>
+      </c>
+      <c r="L41" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G41*POWER(2,24),8),",")</f>
+        <v>0x0534739F,</v>
+      </c>
+      <c r="M41" s="19">
+        <f>$B$12/G41</f>
+        <v>5763.8113669965915</v>
+      </c>
       <c r="Q41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="16">
         <f xml:space="preserve"> -66.667*POWER(Q41,3) + 500*POWER(Q41,2) - 833.33*Q41</f>
         <v>-400.39677700000004</v>
       </c>
@@ -6160,18 +7078,26 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="I42" s="2"/>
-      <c r="M42">
-        <v>200</v>
-      </c>
-      <c r="N42">
-        <f>M42+200</f>
-        <v>400</v>
+      <c r="G42" s="3">
+        <f t="shared" si="5"/>
+        <v>5.1343169166097535</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.3846445905723764E-2</v>
+      </c>
+      <c r="L42" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G42*POWER(2,24),8),",")</f>
+        <v>0x05226297,</v>
+      </c>
+      <c r="M42" s="19">
+        <f>$B$12/G42</f>
+        <v>5843.0362767340303</v>
       </c>
       <c r="Q42">
         <v>1.2</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R42" s="16">
         <f t="shared" ref="R42:R70" si="10" xml:space="preserve"> -66.667*POWER(Q42,3) + 500*POWER(Q42,2) - 833.33*Q42</f>
         <v>-395.19657599999994</v>
       </c>
@@ -6179,18 +7105,26 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="I43" s="2"/>
-      <c r="M43">
-        <v>400</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ref="N43:N45" si="11">M43+200</f>
-        <v>600</v>
+      <c r="G43" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0665377498897692</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.3473507435650156E-2</v>
+      </c>
+      <c r="L43" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G43*POWER(2,24),8),",")</f>
+        <v>0x0511089E,</v>
+      </c>
+      <c r="M43" s="19">
+        <f>$B$12/G43</f>
+        <v>5921.2032912717759</v>
       </c>
       <c r="Q43">
         <v>1.3</v>
       </c>
-      <c r="R43" s="17">
+      <c r="R43" s="16">
         <f t="shared" si="10"/>
         <v>-384.79639900000006</v>
       </c>
@@ -6198,18 +7132,26 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="I44" s="2"/>
-      <c r="M44">
-        <v>800</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="11"/>
-        <v>1000</v>
+      <c r="G44" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0013723668418848</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.3120122438540801E-2</v>
+      </c>
+      <c r="L44" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G44*POWER(2,24),8),",")</f>
+        <v>0x050059F0,</v>
+      </c>
+      <c r="M44" s="19">
+        <f>$B$12/G44</f>
+        <v>5998.3536116794867</v>
       </c>
       <c r="Q44">
         <v>1.4</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R44" s="16">
         <f t="shared" si="10"/>
         <v>-369.59624800000006</v>
       </c>
@@ -6217,18 +7159,26 @@
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="I45" s="2"/>
-      <c r="M45">
-        <v>1000</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="11"/>
-        <v>1200</v>
+      <c r="G45" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9386570745905694</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.2784793059813795E-2</v>
+      </c>
+      <c r="L45" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G45*POWER(2,24),8),",")</f>
+        <v>0x04F04BD4,</v>
+      </c>
+      <c r="M45" s="19">
+        <f>$B$12/G45</f>
+        <v>6074.5258370641368</v>
       </c>
       <c r="Q45">
         <v>1.5</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="16">
         <f t="shared" si="10"/>
         <v>-349.99612500000012</v>
       </c>
@@ -6236,11 +7186,26 @@
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="I46" s="2"/>
+      <c r="G46" s="3">
+        <f t="shared" si="5"/>
+        <v>4.878242174200623</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.2466170557984003E-2</v>
+      </c>
+      <c r="L46" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G46*POWER(2,24),8),",")</f>
+        <v>0x04E0D47A,</v>
+      </c>
+      <c r="M46" s="19">
+        <f>$B$12/G46</f>
+        <v>6149.756188542643</v>
+      </c>
       <c r="Q46">
         <v>1.6</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R46" s="16">
         <f t="shared" si="10"/>
         <v>-326.3960320000001</v>
       </c>
@@ -6248,11 +7213,26 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="I47" s="2"/>
+      <c r="G47" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8199904600018053</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.2163037207409808E-2</v>
+      </c>
+      <c r="L47" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G47*POWER(2,24),8),",")</f>
+        <v>0x04D1EAE5,</v>
+      </c>
+      <c r="M47" s="19">
+        <f>$B$12/G47</f>
+        <v>6224.0787090663171</v>
+      </c>
       <c r="Q47">
         <v>1.7</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="16">
         <f t="shared" si="10"/>
         <v>-299.19597100000033</v>
       </c>
@@ -6260,11 +7240,26 @@
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="I48" s="2"/>
+      <c r="G48" s="3">
+        <f t="shared" si="5"/>
+        <v>4.763775910927313</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.1874290773193191E-2</v>
+      </c>
+      <c r="L48" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(G48*POWER(2,24),8),",")</f>
+        <v>0x04C386D1,</v>
+      </c>
+      <c r="M48" s="19">
+        <f>$B$12/G48</f>
+        <v>6297.5254421991112</v>
+      </c>
       <c r="Q48">
         <v>1.8</v>
       </c>
-      <c r="R48" s="17">
+      <c r="R48" s="16">
         <f t="shared" si="10"/>
         <v>-268.79594400000019</v>
       </c>
@@ -6272,11 +7267,26 @@
     <row r="49" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="I49" s="2"/>
+      <c r="G49" s="3">
+        <f t="shared" ref="G49:G53" si="11">G48*(1+I49+1.5*I49*I49)</f>
+        <v>4.7094825455050353</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" ref="I49:I53" si="12">-1*$B$22*G48*G48</f>
+        <v>-1.159893114176047E-2</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" ref="L49:L53" si="13">CONCATENATE("0x",DEC2HEX(G49*POWER(2,24),8),",")</f>
+        <v>0x04B5A0A5,</v>
+      </c>
+      <c r="M49" s="19">
+        <f t="shared" ref="M49:M53" si="14">$B$12/G49</f>
+        <v>6370.12659249231</v>
+      </c>
       <c r="Q49">
         <v>1.9</v>
       </c>
-      <c r="R49" s="17">
+      <c r="R49" s="16">
         <f t="shared" si="10"/>
         <v>-235.59595300000001</v>
       </c>
@@ -6284,11 +7294,26 @@
     <row r="50" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="I50" s="2"/>
+      <c r="G50" s="3">
+        <f t="shared" si="11"/>
+        <v>4.6570034168642778</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="12"/>
+        <v>-1.1336048765946257E-2</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="13"/>
+        <v>0x04A83160,</v>
+      </c>
+      <c r="M50" s="19">
+        <f t="shared" si="14"/>
+        <v>6441.9106697156003</v>
+      </c>
       <c r="Q50">
         <v>2</v>
       </c>
-      <c r="R50" s="17">
+      <c r="R50" s="16">
         <f t="shared" si="10"/>
         <v>-199.99600000000009</v>
       </c>
@@ -6296,11 +7321,26 @@
     <row r="51" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="I51" s="2"/>
+      <c r="G51" s="3">
+        <f t="shared" si="11"/>
+        <v>4.6062397279725129</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="12"/>
+        <v>-1.1084814643728175E-2</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="13"/>
+        <v>0x049B3286,</v>
+      </c>
+      <c r="M51" s="19">
+        <f t="shared" si="14"/>
+        <v>6512.9046188841821</v>
+      </c>
       <c r="Q51">
         <v>2.1</v>
       </c>
-      <c r="R51" s="17">
+      <c r="R51" s="16">
         <f t="shared" si="10"/>
         <v>-162.39608700000031</v>
       </c>
@@ -6308,11 +7348,26 @@
     <row r="52" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="I52" s="2"/>
+      <c r="G52" s="3">
+        <f t="shared" si="11"/>
+        <v>4.5571000504726502</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="12"/>
+        <v>-1.0844471598348948E-2</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="13"/>
+        <v>0x048E9E1B,</v>
+      </c>
+      <c r="M52" s="19">
+        <f t="shared" si="14"/>
+        <v>6583.133937752471</v>
+      </c>
       <c r="Q52">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R52" s="17">
+      <c r="R52" s="16">
         <f t="shared" si="10"/>
         <v>-123.19621600000005</v>
       </c>
@@ -6320,11 +7375,26 @@
     <row r="53" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="I53" s="2"/>
+      <c r="G53" s="3">
+        <f t="shared" si="11"/>
+        <v>4.5094996330888746</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="12"/>
+        <v>-1.0614326666898004E-2</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="13"/>
+        <v>0x04826E91,</v>
+      </c>
+      <c r="M53" s="19">
+        <f t="shared" si="14"/>
+        <v>6652.6227832179429</v>
+      </c>
       <c r="Q53">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R53" s="17">
+      <c r="R53" s="16">
         <f t="shared" si="10"/>
         <v>-82.79638900000009</v>
       </c>
@@ -6336,7 +7406,7 @@
       <c r="Q54">
         <v>2.4</v>
       </c>
-      <c r="R54" s="17">
+      <c r="R54" s="16">
         <f t="shared" si="10"/>
         <v>-41.59660800000006</v>
       </c>
@@ -6348,7 +7418,7 @@
       <c r="Q55">
         <v>2.5</v>
       </c>
-      <c r="R55" s="17">
+      <c r="R55" s="16">
         <f t="shared" si="10"/>
         <v>3.1249999997271516E-3</v>
       </c>
@@ -6360,7 +7430,7 @@
       <c r="Q56">
         <v>2.6</v>
       </c>
-      <c r="R56" s="17">
+      <c r="R56" s="16">
         <f t="shared" si="10"/>
         <v>41.602807999999641</v>
       </c>
@@ -6372,7 +7442,7 @@
       <c r="Q57">
         <v>2.7</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="16">
         <f t="shared" si="10"/>
         <v>82.802438999999595</v>
       </c>
@@ -6384,7 +7454,7 @@
       <c r="Q58">
         <v>2.8</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R58" s="16">
         <f t="shared" si="10"/>
         <v>123.20201599999973</v>
       </c>
@@ -6396,7 +7466,7 @@
       <c r="Q59">
         <v>2.9</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="16">
         <f t="shared" si="10"/>
         <v>162.40153699999973</v>
       </c>
@@ -6408,7 +7478,7 @@
       <c r="Q60">
         <v>3</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R60" s="16">
         <f t="shared" si="10"/>
         <v>200.00099999999975</v>
       </c>
@@ -6420,7 +7490,7 @@
       <c r="Q61">
         <v>3.1</v>
       </c>
-      <c r="R61" s="17">
+      <c r="R61" s="16">
         <f t="shared" si="10"/>
         <v>235.60040300000037</v>
       </c>
@@ -6432,7 +7502,7 @@
       <c r="Q62">
         <v>3.2</v>
       </c>
-      <c r="R62" s="17">
+      <c r="R62" s="16">
         <f t="shared" si="10"/>
         <v>268.79974399999992</v>
       </c>
@@ -6444,7 +7514,7 @@
       <c r="Q63">
         <v>3.3</v>
       </c>
-      <c r="R63" s="17">
+      <c r="R63" s="16">
         <f t="shared" si="10"/>
         <v>299.19902099999899</v>
       </c>
@@ -6456,7 +7526,7 @@
       <c r="Q64">
         <v>3.4</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="16">
         <f t="shared" si="10"/>
         <v>326.3982319999991</v>
       </c>
@@ -6468,7 +7538,7 @@
       <c r="Q65">
         <v>3.5</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="16">
         <f t="shared" si="10"/>
         <v>349.99737499999992</v>
       </c>
@@ -6480,7 +7550,7 @@
       <c r="Q66">
         <v>3.6</v>
       </c>
-      <c r="R66" s="17">
+      <c r="R66" s="16">
         <f t="shared" si="10"/>
         <v>369.59644799999933</v>
       </c>
@@ -6492,7 +7562,7 @@
       <c r="Q67">
         <v>3.7</v>
       </c>
-      <c r="R67" s="17">
+      <c r="R67" s="16">
         <f t="shared" si="10"/>
         <v>384.79544900000019</v>
       </c>
@@ -6504,7 +7574,7 @@
       <c r="Q68">
         <v>3.8</v>
       </c>
-      <c r="R68" s="17">
+      <c r="R68" s="16">
         <f t="shared" si="10"/>
         <v>395.19437600000037</v>
       </c>
@@ -6516,7 +7586,7 @@
       <c r="Q69">
         <v>3.9</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="16">
         <f t="shared" si="10"/>
         <v>400.39322699999911</v>
       </c>
@@ -6528,7 +7598,7 @@
       <c r="Q70">
         <v>4</v>
       </c>
-      <c r="R70" s="17">
+      <c r="R70" s="16">
         <f t="shared" si="10"/>
         <v>399.99199999999973</v>
       </c>
@@ -6537,128 +7607,240 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="I71" s="2"/>
+      <c r="Q71">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R71" s="16">
+        <f t="shared" ref="R71:R86" si="15" xml:space="preserve"> -66.667*POWER(Q71,3) + 500*POWER(Q71,2) - 833.33*Q71</f>
+        <v>393.59069300000056</v>
+      </c>
     </row>
     <row r="72" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="I72" s="2"/>
+      <c r="Q72">
+        <v>4.2</v>
+      </c>
+      <c r="R72" s="16">
+        <f t="shared" si="15"/>
+        <v>380.78930399999945</v>
+      </c>
     </row>
     <row r="73" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="I73" s="2"/>
+      <c r="Q73">
+        <v>4.3</v>
+      </c>
+      <c r="R73" s="16">
+        <f t="shared" si="15"/>
+        <v>361.18783100000064</v>
+      </c>
     </row>
     <row r="74" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="I74" s="2"/>
+      <c r="Q74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R74" s="16">
+        <f t="shared" si="15"/>
+        <v>334.38627199999928</v>
+      </c>
     </row>
     <row r="75" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="I75" s="2"/>
+      <c r="Q75">
+        <v>4.5</v>
+      </c>
+      <c r="R75" s="16">
+        <f t="shared" si="15"/>
+        <v>299.9846249999996</v>
+      </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="I76" s="2"/>
+      <c r="Q76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R76" s="16">
+        <f t="shared" si="15"/>
+        <v>257.58288800000037</v>
+      </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="I77" s="2"/>
+      <c r="Q77">
+        <v>4.7</v>
+      </c>
+      <c r="R77" s="16">
+        <f t="shared" si="15"/>
+        <v>206.78105899999946</v>
+      </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="2"/>
+      <c r="Q78">
+        <v>4.8</v>
+      </c>
+      <c r="R78" s="16">
+        <f t="shared" si="15"/>
+        <v>147.1791360000002</v>
+      </c>
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="I79" s="2"/>
+      <c r="Q79">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R79" s="16">
+        <f t="shared" si="15"/>
+        <v>78.377116999999544</v>
+      </c>
     </row>
     <row r="80" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80" s="16">
+        <f t="shared" si="15"/>
+        <v>-2.5000000000545697E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q81">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R81" s="16">
+        <f t="shared" si="15"/>
+        <v>-88.427217000000383</v>
+      </c>
+    </row>
+    <row r="82" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q82">
+        <v>5.2</v>
+      </c>
+      <c r="R82" s="16">
+        <f t="shared" si="15"/>
+        <v>-187.22953600000073</v>
+      </c>
+    </row>
+    <row r="83" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q83">
+        <v>5.3</v>
+      </c>
+      <c r="R83" s="16">
+        <f t="shared" si="15"/>
+        <v>-296.8319590000001</v>
+      </c>
+    </row>
+    <row r="84" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q84">
+        <v>5.4</v>
+      </c>
+      <c r="R84" s="16">
+        <f t="shared" si="15"/>
+        <v>-417.6344880000006</v>
+      </c>
+    </row>
+    <row r="85" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q85">
+        <v>5.5</v>
+      </c>
+      <c r="R85" s="16">
+        <f t="shared" si="15"/>
+        <v>-550.03712500000074</v>
+      </c>
+    </row>
+    <row r="86" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="Q86">
+        <v>5.6</v>
+      </c>
+      <c r="R86" s="16">
+        <f t="shared" si="15"/>
+        <v>-694.43987199999992</v>
+      </c>
+    </row>
+    <row r="87" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="I96" s="2"/>
@@ -7913,4 +9095,157 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>500</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>A1/60</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1.5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>A7/A5/A3</f>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>400/1</f>
+        <v>400</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>A2*A3*A5</f>
+        <v>5000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>1800*2</f>
+        <v>3600</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>A2*A7</f>
+        <v>30000.000000000004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>A3/A7</f>
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <f>A14/A5</f>
+        <v>0.05</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <f>A15/A11</f>
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>1366/100000</f>
+        <v>1.366E-2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>A2*A18</f>
+        <v>0.11383333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>A19*A7</f>
+        <v>409.8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f>A20*A11</f>
+        <v>0.17075000000000001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rampup.xlsx
+++ b/rampup.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="7900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="arc" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>pps</t>
   </si>
@@ -197,6 +195,69 @@
   <si>
     <t>mm accel path len by spindle</t>
   </si>
+  <si>
+    <t>z1z</t>
+  </si>
+  <si>
+    <t>x1z</t>
+  </si>
+  <si>
+    <t>z0z</t>
+  </si>
+  <si>
+    <t>x0z</t>
+  </si>
+  <si>
+    <t>octant</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>zcdelta</t>
+  </si>
+  <si>
+    <t>xcdelta</t>
+  </si>
+  <si>
+    <t>zc</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>z0</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3 X12. Z-4.5 I-1.99 K-2.245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1 X10., </t>
+  </si>
+  <si>
+    <t>G1 X0. Z-2.5 F1.,</t>
+  </si>
 </sst>
 </file>
 
@@ -208,9 +269,9 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -346,13 +407,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -782,11 +843,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374557144"/>
-        <c:axId val="374556360"/>
+        <c:axId val="406653960"/>
+        <c:axId val="406656312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374557144"/>
+        <c:axId val="406653960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,12 +903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374556360"/>
+        <c:crossAx val="406656312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374556360"/>
+        <c:axId val="406656312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374557144"/>
+        <c:crossAx val="406653960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1593,11 +1654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374557928"/>
-        <c:axId val="374558320"/>
+        <c:axId val="406652000"/>
+        <c:axId val="406656704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374557928"/>
+        <c:axId val="406652000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,12 +1715,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374558320"/>
+        <c:crossAx val="406656704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374558320"/>
+        <c:axId val="406656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374557928"/>
+        <c:crossAx val="406652000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1812,7 +1873,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1972,11 +2032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374555968"/>
-        <c:axId val="316336936"/>
+        <c:axId val="453590616"/>
+        <c:axId val="453588656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374555968"/>
+        <c:axId val="453590616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,12 +2092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316336936"/>
+        <c:crossAx val="453588656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316336936"/>
+        <c:axId val="453588656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374555968"/>
+        <c:crossAx val="453590616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2389,11 +2449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374561064"/>
-        <c:axId val="317297144"/>
+        <c:axId val="453585128"/>
+        <c:axId val="453585912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374561064"/>
+        <c:axId val="453585128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,12 +2509,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317297144"/>
+        <c:crossAx val="453585912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317297144"/>
+        <c:axId val="453585912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374561064"/>
+        <c:crossAx val="453585128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4909,209 +4969,282 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="Лист5"/>
-      <sheetName val="Лист4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="11">
-          <cell r="G11">
-            <v>400</v>
-          </cell>
-          <cell r="L11">
-            <v>3.9215686274509803E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>460.82949308755758</v>
-          </cell>
-          <cell r="L12">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>580</v>
-          </cell>
-          <cell r="L13">
-            <v>4.7619047619047616E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>1063.8297872340424</v>
-          </cell>
-          <cell r="L14">
-            <v>5.8823529411764705E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>1265.8227848101267</v>
-          </cell>
-          <cell r="L15">
-            <v>7.1428571428571425E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>1515.1515151515152</v>
-          </cell>
-          <cell r="L16">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>1900</v>
-          </cell>
-          <cell r="L17">
-            <v>9.0909090909090912E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>2110</v>
-          </cell>
-          <cell r="L18">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19">
-            <v>2173.913043478261</v>
-          </cell>
-          <cell r="L19">
-            <v>0.1111111111111111</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>2380.9523809523807</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>2564.102564102564</v>
-          </cell>
-          <cell r="J21">
-            <v>392.35</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>2777.7777777777778</v>
-          </cell>
-          <cell r="J22">
-            <v>455.81</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>658.83</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>947.8900000000001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>1274.75</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>1596.4500000000003</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>1875.3100000000004</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>2078.9300000000003</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>2180.1900000000005</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>2157.25</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>1993.5500000000011</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>1677.8100000000031</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>1204.0299999999988</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>571.4900000000016</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>-215.25</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>-1146.3499999999985</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>-2206.6900000000023</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>-3375.8699999999953</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>-4628.2100000000064</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>-5932.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248132</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Пирог 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4062689" y="944033"/>
+          <a:ext cx="2891043" cy="2910216"/>
+        </a:xfrm>
+        <a:prstGeom prst="pie">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12580656"/>
+            <a:gd name="adj2" fmla="val 15598426"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Группа 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6908800" y="622300"/>
+          <a:ext cx="4286250" cy="3790950"/>
+          <a:chOff x="4895850" y="622300"/>
+          <a:chExt cx="4286250" cy="3790950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5250543" y="1029861"/>
+            <a:ext cx="2857500" cy="2856339"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6731000" y="622300"/>
+            <a:ext cx="0" cy="3790950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Прямая со стрелкой 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4895850" y="2400300"/>
+            <a:ext cx="4286250" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5107215" y="787399"/>
+            <a:ext cx="3160486" cy="3145065"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208643</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>439965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4475843" y="1379764"/>
+          <a:ext cx="2060122" cy="2039258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5379,7 +5512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5455,11 +5588,11 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G2*POWER(2,24),8),",")</f>
+        <f t="shared" ref="L2:L48" si="1">CONCATENATE("0x",DEC2HEX(G2*POWER(2,24),8),",")</f>
         <v>0x4B000000,</v>
       </c>
       <c r="M2" s="19">
-        <f>$B$12/G2</f>
+        <f t="shared" ref="M2:M48" si="2">$B$12/G2</f>
         <v>400</v>
       </c>
       <c r="O2" s="17"/>
@@ -5475,7 +5608,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D5" si="1">G2-G3</f>
+        <f t="shared" ref="D3:D5" si="3">G2-G3</f>
         <v>9.7826086956521721</v>
       </c>
       <c r="E3">
@@ -5497,22 +5630,22 @@
         <v>460</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K5" si="2">J3-J2</f>
+        <f t="shared" ref="K3:K5" si="4">J3-J2</f>
         <v>60</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G3*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x4137A6F4,</v>
       </c>
       <c r="M3" s="19">
-        <f>$B$12/G3</f>
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.762845849802375</v>
       </c>
       <c r="E4">
@@ -5534,21 +5667,21 @@
         <v>660</v>
       </c>
       <c r="K4" s="4">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>0x2D745D17,</v>
+      </c>
+      <c r="M4" s="19">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="L4" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G4*POWER(2,24),8),",")</f>
-        <v>0x2D745D17,</v>
-      </c>
-      <c r="M4" s="19">
-        <f>$B$12/G4</f>
         <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.138794763564931</v>
       </c>
       <c r="E5">
@@ -5567,19 +5700,19 @@
         <v>28</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J35" si="3">$B$12/H5</f>
+        <f t="shared" ref="J5:J35" si="5">$B$12/H5</f>
         <v>1071.4285714285713</v>
       </c>
       <c r="K5" s="4">
+        <f t="shared" si="4"/>
+        <v>411.42857142857133</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>0x1C50D509,</v>
+      </c>
+      <c r="M5" s="19">
         <f t="shared" si="2"/>
-        <v>411.42857142857133</v>
-      </c>
-      <c r="L5" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G5*POWER(2,24),8),",")</f>
-        <v>0x1C50D509,</v>
-      </c>
-      <c r="M5" s="19">
-        <f>$B$12/G5</f>
         <v>1059.4810050208546</v>
       </c>
     </row>
@@ -5598,23 +5731,23 @@
         <v>5</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" ref="F6:F35" si="4">F5*(1+-1*$B$22*F5*F5)</f>
+        <f t="shared" ref="F6:F35" si="6">F5*(1+-1*$B$22*F5*F5)</f>
         <v>16.711968670623246</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:G48" si="5">G5*(1+I6+1.5*I6*I6)</f>
+        <f t="shared" ref="G6:G48" si="7">G5*(1+I6+1.5*I6*I6)</f>
         <v>23.84480572545311</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H35" si="6">ROUND(G6,0)</f>
+        <f t="shared" ref="H6:H35" si="8">ROUND(G6,0)</f>
         <v>24</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I48" si="7">-1*$B$22*G5*G5</f>
+        <f t="shared" ref="I6:I48" si="9">-1*$B$22*G5*G5</f>
         <v>-0.40979955456570161</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
       <c r="K6" s="4">
@@ -5622,11 +5755,11 @@
         <v>178.57142857142867</v>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G6*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x17D84530,</v>
       </c>
       <c r="M6" s="19">
-        <f>$B$12/G6</f>
+        <f t="shared" si="2"/>
         <v>1258.1356436876538</v>
       </c>
     </row>
@@ -5639,42 +5772,42 @@
         <v>2399.5</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:D37" si="8">G6-G7</f>
+        <f t="shared" ref="D7:D37" si="10">G6-G7</f>
         <v>3.9088333455885476</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.326365734149858</v>
       </c>
       <c r="G7" s="21">
+        <f t="shared" si="7"/>
+        <v>19.935972379864562</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.29060487737657409</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>19.935972379864562</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.29060487737657409</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" ref="K7:K35" si="9">J7-J6</f>
+        <f t="shared" ref="K7:K35" si="11">J7-J6</f>
         <v>250</v>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G7*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x13EF9BE2,</v>
       </c>
       <c r="M7" s="19">
-        <f>$B$12/G7</f>
+        <f t="shared" si="2"/>
         <v>1504.817494144412</v>
       </c>
     </row>
@@ -5683,42 +5816,42 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.8157616453399861</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.823488782431417</v>
       </c>
       <c r="G8" s="21">
+        <f t="shared" si="7"/>
+        <v>17.120210734524576</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.20313753064014717</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>17.120210734524576</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.20313753064014717</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="3"/>
         <v>1764.7058823529412</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>264.70588235294122</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G8*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x111EC621,</v>
       </c>
       <c r="M8" s="19">
-        <f>$B$12/G8</f>
+        <f t="shared" si="2"/>
         <v>1752.3148788993626</v>
       </c>
     </row>
@@ -5734,42 +5867,42 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9884108724643514</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.745699375196637</v>
       </c>
       <c r="G9" s="21">
+        <f t="shared" si="7"/>
+        <v>15.131799862060225</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.14980749241498229</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>15.131799862060225</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.14980749241498229</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>235.29411764705878</v>
       </c>
       <c r="L9" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G9*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0F21BDA2,</v>
       </c>
       <c r="M9" s="19">
-        <f>$B$12/G9</f>
+        <f t="shared" si="2"/>
         <v>1982.5797508212245</v>
       </c>
     </row>
@@ -5785,42 +5918,42 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4600044998291271</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.917467452475021</v>
       </c>
       <c r="G10" s="21">
+        <f t="shared" si="7"/>
+        <v>13.671795362231098</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.11702980983345011</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>13.671795362231098</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.11702980983345011</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="3"/>
         <v>2142.8571428571427</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>142.85714285714266</v>
       </c>
       <c r="L10" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G10*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0DABFAC7,</v>
       </c>
       <c r="M10" s="19">
-        <f>$B$12/G10</f>
+        <f t="shared" si="2"/>
         <v>2194.2984959295286</v>
       </c>
     </row>
@@ -5835,42 +5968,42 @@
         <v>32</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1189709586318966</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.252376500225987</v>
       </c>
       <c r="G11" s="21">
+        <f t="shared" si="7"/>
+        <v>12.552824403599201</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.5535860751436594E-2</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>12.552824403599201</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="7"/>
-        <v>-9.5535860751436594E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="3"/>
         <v>2307.6923076923076</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>164.83516483516496</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G11*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0C8D85E6,</v>
       </c>
       <c r="M11" s="19">
-        <f>$B$12/G11</f>
+        <f t="shared" si="2"/>
         <v>2389.9003949579878</v>
       </c>
     </row>
@@ -5885,42 +6018,42 @@
         <v>31</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.88884137745534808</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.7015828032820579</v>
       </c>
       <c r="G12" s="21">
+        <f t="shared" si="7"/>
+        <v>11.663983026143853</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.0537515814993341E-2</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>11.663983026143853</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="7"/>
-        <v>-8.0537515814993341E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>192.30769230769238</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G12*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0BA9FACA,</v>
       </c>
       <c r="M12" s="19">
-        <f>$B$12/G12</f>
+        <f t="shared" si="2"/>
         <v>2572.0202037980921</v>
       </c>
     </row>
@@ -5929,42 +6062,42 @@
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.72646829723927553</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.2348771017673528</v>
       </c>
       <c r="G13" s="21">
+        <f t="shared" si="7"/>
+        <v>10.937514728904578</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.9535900017465652E-2</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>10.937514728904578</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="7"/>
-        <v>-6.9535900017465652E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="3"/>
         <v>2727.2727272727275</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>227.27272727272748</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G13*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0AF000F7,</v>
       </c>
       <c r="M13" s="19">
-        <f>$B$12/G13</f>
+        <f t="shared" si="2"/>
         <v>2742.8534492135568</v>
       </c>
     </row>
@@ -5973,42 +6106,42 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.60742555922089281</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8323374349026142</v>
       </c>
       <c r="G14" s="21">
+        <f t="shared" si="7"/>
+        <v>10.330089169683685</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.1143827871891238E-2</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>10.330089169683685</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="7"/>
-        <v>-6.1143827871891238E-2</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>272.72727272727252</v>
       </c>
       <c r="L14" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G14*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0A5480B9,</v>
       </c>
       <c r="M14" s="19">
-        <f>$B$12/G14</f>
+        <f t="shared" si="2"/>
         <v>2904.1375642760904</v>
       </c>
     </row>
@@ -6021,42 +6154,42 @@
         <v>38.910326086956523</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51732009635425236</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.4801756062615752</v>
       </c>
       <c r="G15" s="21">
+        <f t="shared" si="7"/>
+        <v>9.8127690733294326</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="9"/>
+        <v>-5.4541046040737153E-2</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>9.8127690733294326</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.4541046040737153E-2</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L15" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G15*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x09D011A2,</v>
       </c>
       <c r="M15" s="19">
-        <f>$B$12/G15</f>
+        <f t="shared" si="2"/>
         <v>3057.2410066734733</v>
       </c>
     </row>
@@ -6065,42 +6198,42 @@
         <v>11</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44728486748980067</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1684805893663945</v>
       </c>
       <c r="G16" s="21">
+        <f t="shared" si="7"/>
+        <v>9.3654842058396319</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="9"/>
+        <v>-4.9215112186428517E-2</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>9.3654842058396319</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.9215112186428517E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="3"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>333.33333333333348</v>
       </c>
       <c r="L16" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G16*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x095D905F,</v>
       </c>
       <c r="M16" s="19">
-        <f>$B$12/G16</f>
+        <f t="shared" si="2"/>
         <v>3203.2513579270349</v>
       </c>
     </row>
@@ -6113,83 +6246,83 @@
         <v>28.315750690980522</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39162743370202335</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.8899074962519764</v>
       </c>
       <c r="G17" s="21">
+        <f t="shared" si="7"/>
+        <v>8.9738567721376086</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="9"/>
+        <v>-4.4830728253913939E-2</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>8.9738567721376086</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.4830728253913939E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="3"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L17" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G17*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x08F94EAD,</v>
       </c>
       <c r="M17" s="19">
-        <f>$B$12/G17</f>
+        <f t="shared" si="2"/>
         <v>3343.0442185287829</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.34655809044890162</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.6388743573290654</v>
       </c>
       <c r="G18" s="21">
+        <f t="shared" si="7"/>
+        <v>8.6272986816887069</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="9"/>
+        <v>-4.1159831631940459E-2</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>8.6272986816887069</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.1159831631940459E-2</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="3"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L18" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G18*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x08A096A5,</v>
       </c>
       <c r="M18" s="19">
-        <f>$B$12/G18</f>
+        <f t="shared" si="2"/>
         <v>3477.3341119711649</v>
       </c>
     </row>
@@ -6198,42 +6331,42 @@
         <v>12</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.30947274085920995</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.411048285076669</v>
       </c>
       <c r="G19" s="21">
+        <f t="shared" si="7"/>
+        <v>8.317825940829497</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="9"/>
+        <v>-3.8042144410901271E-2</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>8.317825940829497</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="7"/>
-        <v>-3.8042144410901271E-2</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="3"/>
         <v>3750</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>416.66666666666652</v>
       </c>
       <c r="L19" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G19*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x08515D0A,</v>
       </c>
       <c r="M19" s="19">
-        <f>$B$12/G19</f>
+        <f t="shared" si="2"/>
         <v>3606.711683246433</v>
       </c>
     </row>
@@ -6246,42 +6379,42 @@
         <v>5</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27853204533420595</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.2030047375329058</v>
       </c>
       <c r="G20" s="21">
+        <f t="shared" si="7"/>
+        <v>8.0392938954952911</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="9"/>
+        <v>-3.5361850061878461E-2</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>8.0392938954952911</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="7"/>
-        <v>-3.5361850061878461E-2</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="3"/>
         <v>3750</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G20*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x080A0F2A,</v>
       </c>
       <c r="M20" s="19">
-        <f>$B$12/G20</f>
+        <f t="shared" si="2"/>
         <v>3731.6710136458742</v>
       </c>
     </row>
@@ -6290,42 +6423,42 @@
         <v>13</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25240524778877838</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.0119945972679627</v>
       </c>
       <c r="G21" s="21">
+        <f t="shared" si="7"/>
+        <v>7.7868886477065127</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="9"/>
+        <v>-3.3033237017275577E-2</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>7.7868886477065127</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="7"/>
-        <v>-3.3033237017275577E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="3"/>
         <v>3750</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G21*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x07C97188,</v>
       </c>
       <c r="M21" s="19">
-        <f>$B$12/G21</f>
+        <f t="shared" si="2"/>
         <v>3852.6298958745169</v>
       </c>
     </row>
@@ -6338,42 +6471,42 @@
         <v>5.1111111111111116E-4</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23010904393888953</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.8357807469915413</v>
       </c>
       <c r="G22" s="21">
+        <f t="shared" si="7"/>
+        <v>7.5567796037676231</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="9"/>
+        <v>-3.0991546681576734E-2</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>7.5567796037676231</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="7"/>
-        <v>-3.0991546681576734E-2</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="3"/>
         <v>3750</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G22*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x078E891B,</v>
       </c>
       <c r="M22" s="19">
-        <f>$B$12/G22</f>
+        <f t="shared" si="2"/>
         <v>3969.9450788590875</v>
       </c>
     </row>
@@ -6382,42 +6515,42 @@
         <v>14</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.21090322214598967</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.6725207831563296</v>
       </c>
       <c r="G23" s="21">
+        <f t="shared" si="7"/>
+        <v>7.3458763816216335</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.9186958078624939E-2</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>7.3458763816216335</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.9186958078624939E-2</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="3"/>
         <v>4285.7142857142853</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>535.71428571428532</v>
       </c>
       <c r="L23" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G23*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x07588B5A,</v>
       </c>
       <c r="M23" s="19">
-        <f>$B$12/G23</f>
+        <f t="shared" si="2"/>
         <v>4083.9238834805128</v>
       </c>
     </row>
@@ -6426,42 +6559,42 @@
         <v>15</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19422128685817786</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.5206811563153622</v>
       </c>
       <c r="G24" s="21">
+        <f t="shared" si="7"/>
+        <v>7.1516550947634556</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.7580526571634015E-2</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>7.1516550947634556</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.7580526571634015E-2</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="3"/>
         <v>4285.7142857142853</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G24*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0726D2DE,</v>
       </c>
       <c r="M24" s="19">
-        <f>$B$12/G24</f>
+        <f t="shared" si="2"/>
         <v>4194.8331683341985</v>
       </c>
     </row>
@@ -6470,42 +6603,42 @@
         <v>27</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17962324906778981</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.3789732058168633</v>
       </c>
       <c r="G25" s="21">
+        <f t="shared" si="7"/>
+        <v>6.9720318456956658</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.6141376081610893E-2</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>6.9720318456956658</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.6141376081610893E-2</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="3"/>
         <v>4285.7142857142853</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L25" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G25*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x06F8D714,</v>
       </c>
       <c r="M25" s="19">
-        <f>$B$12/G25</f>
+        <f t="shared" si="2"/>
         <v>4302.9063354782502</v>
       </c>
     </row>
@@ -6514,42 +6647,42 @@
         <v>16</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16676282112278962</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.2463047555443607</v>
       </c>
       <c r="G26" s="21">
+        <f t="shared" si="7"/>
+        <v>6.8052690245728762</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.4844716562668307E-2</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>6.8052690245728762</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.4844716562668307E-2</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="3"/>
         <v>4285.7142857142853</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L26" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G26*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x06CE261C,</v>
       </c>
       <c r="M26" s="19">
-        <f>$B$12/G26</f>
+        <f t="shared" si="2"/>
         <v>4408.3488678660888</v>
       </c>
     </row>
@@ -6558,42 +6691,42 @@
         <v>17</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.15536418664085083</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.1217429683462772</v>
       </c>
       <c r="G27" s="21">
+        <f t="shared" si="7"/>
+        <v>6.6499048379320254</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.3670417542814546E-2</v>
+      </c>
+      <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>6.6499048379320254</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.3670417542814546E-2</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="3"/>
         <v>4285.7142857142853</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L27" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G27*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x06A66029,</v>
       </c>
       <c r="M27" s="19">
-        <f>$B$12/G27</f>
+        <f t="shared" si="2"/>
         <v>4511.3427531888328</v>
       </c>
     </row>
@@ -6602,42 +6735,42 @@
         <v>18</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14520526751904494</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.00448547782399</v>
       </c>
       <c r="G28" s="21">
+        <f t="shared" si="7"/>
+        <v>6.5046995704129804</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.260196422514868E-2</v>
+      </c>
+      <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>6.5046995704129804</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.260196422514868E-2</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="3"/>
         <v>4285.7142857142853</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L28" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G28*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x068133FD,</v>
       </c>
       <c r="M28" s="19">
-        <f>$B$12/G28</f>
+        <f t="shared" si="2"/>
         <v>4612.0500532348669</v>
       </c>
     </row>
@@ -6646,42 +6779,42 @@
         <v>19</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1361054825379675</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8938376943024755</v>
       </c>
       <c r="G29" s="21">
+        <f t="shared" si="7"/>
+        <v>6.3685940878750129</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.162568176734686E-2</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>6.3685940878750129</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.162568176734686E-2</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>714.28571428571468</v>
       </c>
       <c r="L29" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G29*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x065E5C2E,</v>
       </c>
       <c r="M29" s="19">
-        <f>$B$12/G29</f>
+        <f t="shared" si="2"/>
         <v>4710.6158103428443</v>
       </c>
     </row>
@@ -6690,42 +6823,42 @@
         <v>20</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1279166643689944</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.7891947771156733</v>
       </c>
       <c r="G30" s="21">
+        <f t="shared" si="7"/>
+        <v>6.2406774235060185</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="9"/>
+        <v>-2.0730150779792914E-2</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>6.2406774235060185</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.0730150779792914E-2</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L30" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G30*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x063D9D09,</v>
       </c>
       <c r="M30" s="19">
-        <f>$B$12/G30</f>
+        <f t="shared" si="2"/>
         <v>4807.1704342548719</v>
       </c>
     </row>
@@ -6734,42 +6867,42 @@
         <v>21</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12051623231421349</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.6900271761307488</v>
       </c>
       <c r="G31" s="21">
+        <f t="shared" si="7"/>
+        <v>6.120161191191805</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="9"/>
+        <v>-1.9905761293287281E-2</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>6.120161191191805</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.9905761293287281E-2</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L31" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G31*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x061EC2E2,</v>
       </c>
       <c r="M31" s="19">
-        <f>$B$12/G31</f>
+        <f t="shared" si="2"/>
         <v>4901.8316777630444</v>
       </c>
     </row>
@@ -6778,42 +6911,42 @@
         <v>22</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1138019992370598</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5958689335211558</v>
       </c>
       <c r="G32" s="21">
+        <f t="shared" si="7"/>
+        <v>6.0063591919547452</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="9"/>
+        <v>-1.9144368425375931E-2</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>6.0063591919547452</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.9144368425375931E-2</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L32" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G32*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0601A0C1,</v>
       </c>
       <c r="M32" s="19">
-        <f>$B$12/G32</f>
+        <f t="shared" si="2"/>
         <v>4994.7062839970813</v>
       </c>
     </row>
@@ -6822,83 +6955,83 @@
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10768817804475539</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5063081418393915</v>
       </c>
       <c r="G33" s="21">
+        <f t="shared" si="7"/>
+        <v>5.8986710139099898</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="9"/>
+        <v>-1.8439023712976066E-2</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>5.8986710139099898</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.8439023712976066E-2</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L33" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G33*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x05E60F4D,</v>
       </c>
       <c r="M33" s="19">
-        <f>$B$12/G33</f>
+        <f t="shared" si="2"/>
         <v>5085.8913693025606</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10210227941709249</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4209791023696212</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="7"/>
+        <v>5.7965687344928973</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="9"/>
+        <v>-1.778376341773031E-2</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>5.7965687344928973</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.778376341773031E-2</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L34" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G34*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x05CBEBED,</v>
       </c>
       <c r="M34" s="19">
-        <f>$B$12/G34</f>
+        <f t="shared" si="2"/>
         <v>5175.475591531047</v>
       </c>
     </row>
@@ -6907,42 +7040,42 @@
         <v>36</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.6982679185231291E-2</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3395558358089321</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="7"/>
+        <v>5.699586055307666</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="9"/>
+        <v>-1.7173440203446969E-2</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>5.699586055307666</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.7173440203446969E-2</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L35" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G35*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x05B31812,</v>
       </c>
       <c r="M35" s="19">
-        <f>$B$12/G35</f>
+        <f t="shared" si="2"/>
         <v>5263.5401428956211</v>
       </c>
     </row>
@@ -6951,23 +7084,23 @@
         <v>28</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.2276694126786296E-2</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6073093611808797</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.660358816983833E-2</v>
       </c>
       <c r="L36" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G36*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x059B78A0,</v>
       </c>
       <c r="M36" s="19">
-        <f>$B$12/G36</f>
+        <f t="shared" si="2"/>
         <v>5350.1595984142568</v>
       </c>
     </row>
@@ -6976,95 +7109,95 @@
         <v>29</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.7939047521834013E-2</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5193703136590457</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.6070313783459883E-2</v>
       </c>
       <c r="L37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G37*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0584F573,</v>
       </c>
       <c r="M37" s="19">
-        <f>$B$12/G37</f>
+        <f t="shared" si="2"/>
         <v>5435.4026447106817</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4354396774403675</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5570207092531499E-2</v>
       </c>
       <c r="L38" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G38*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x056F78F9,</v>
       </c>
       <c r="M38" s="19">
-        <f>$B$12/G38</f>
+        <f t="shared" si="2"/>
         <v>5519.3327090932717</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.3552221445214583</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5100268960069779E-2</v>
       </c>
       <c r="L39" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G39*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x055AEFD6,</v>
       </c>
       <c r="M39" s="19">
-        <f>$B$12/G39</f>
+        <f t="shared" si="2"/>
         <v>5602.0085050422858</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2784519710975539</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.4657851044332872E-2</v>
       </c>
       <c r="L40" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G40*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x054748A0,</v>
       </c>
       <c r="M40" s="19">
-        <f>$B$12/G40</f>
+        <f t="shared" si="2"/>
         <v>5683.4845072507251</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.204889280690046</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.4240605996827201E-2</v>
       </c>
       <c r="L41" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G41*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0534739F,</v>
       </c>
       <c r="M41" s="19">
-        <f>$B$12/G41</f>
+        <f t="shared" si="2"/>
         <v>5763.8113669965915</v>
       </c>
       <c r="Q41">
@@ -7079,26 +7212,26 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1343169166097535</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3846445905723764E-2</v>
       </c>
       <c r="L42" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G42*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x05226297,</v>
       </c>
       <c r="M42" s="19">
-        <f>$B$12/G42</f>
+        <f t="shared" si="2"/>
         <v>5843.0362767340303</v>
       </c>
       <c r="Q42">
         <v>1.2</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" ref="R42:R70" si="10" xml:space="preserve"> -66.667*POWER(Q42,3) + 500*POWER(Q42,2) - 833.33*Q42</f>
+        <f t="shared" ref="R42:R70" si="12" xml:space="preserve"> -66.667*POWER(Q42,3) + 500*POWER(Q42,2) - 833.33*Q42</f>
         <v>-395.19657599999994</v>
       </c>
     </row>
@@ -7106,26 +7239,26 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0665377498897692</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3473507435650156E-2</v>
       </c>
       <c r="L43" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G43*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x0511089E,</v>
       </c>
       <c r="M43" s="19">
-        <f>$B$12/G43</f>
+        <f t="shared" si="2"/>
         <v>5921.2032912717759</v>
       </c>
       <c r="Q43">
         <v>1.3</v>
       </c>
       <c r="R43" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-384.79639900000006</v>
       </c>
     </row>
@@ -7133,26 +7266,26 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0013723668418848</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3120122438540801E-2</v>
       </c>
       <c r="L44" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G44*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x050059F0,</v>
       </c>
       <c r="M44" s="19">
-        <f>$B$12/G44</f>
+        <f t="shared" si="2"/>
         <v>5998.3536116794867</v>
       </c>
       <c r="Q44">
         <v>1.4</v>
       </c>
       <c r="R44" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-369.59624800000006</v>
       </c>
     </row>
@@ -7160,26 +7293,26 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9386570745905694</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2784793059813795E-2</v>
       </c>
       <c r="L45" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G45*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x04F04BD4,</v>
       </c>
       <c r="M45" s="19">
-        <f>$B$12/G45</f>
+        <f t="shared" si="2"/>
         <v>6074.5258370641368</v>
       </c>
       <c r="Q45">
         <v>1.5</v>
       </c>
       <c r="R45" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-349.99612500000012</v>
       </c>
     </row>
@@ -7187,26 +7320,26 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.878242174200623</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2466170557984003E-2</v>
       </c>
       <c r="L46" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G46*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x04E0D47A,</v>
       </c>
       <c r="M46" s="19">
-        <f>$B$12/G46</f>
+        <f t="shared" si="2"/>
         <v>6149.756188542643</v>
       </c>
       <c r="Q46">
         <v>1.6</v>
       </c>
       <c r="R46" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-326.3960320000001</v>
       </c>
     </row>
@@ -7214,26 +7347,26 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8199904600018053</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2163037207409808E-2</v>
       </c>
       <c r="L47" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G47*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x04D1EAE5,</v>
       </c>
       <c r="M47" s="19">
-        <f>$B$12/G47</f>
+        <f t="shared" si="2"/>
         <v>6224.0787090663171</v>
       </c>
       <c r="Q47">
         <v>1.7</v>
       </c>
       <c r="R47" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-299.19597100000033</v>
       </c>
     </row>
@@ -7241,26 +7374,26 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.763775910927313</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1874290773193191E-2</v>
       </c>
       <c r="L48" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G48*POWER(2,24),8),",")</f>
+        <f t="shared" si="1"/>
         <v>0x04C386D1,</v>
       </c>
       <c r="M48" s="19">
-        <f>$B$12/G48</f>
+        <f t="shared" si="2"/>
         <v>6297.5254421991112</v>
       </c>
       <c r="Q48">
         <v>1.8</v>
       </c>
       <c r="R48" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-268.79594400000019</v>
       </c>
     </row>
@@ -7268,26 +7401,26 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
-        <f t="shared" ref="G49:G53" si="11">G48*(1+I49+1.5*I49*I49)</f>
+        <f t="shared" ref="G49:G53" si="13">G48*(1+I49+1.5*I49*I49)</f>
         <v>4.7094825455050353</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" ref="I49:I53" si="12">-1*$B$22*G48*G48</f>
+        <f t="shared" ref="I49:I53" si="14">-1*$B$22*G48*G48</f>
         <v>-1.159893114176047E-2</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" ref="L49:L53" si="13">CONCATENATE("0x",DEC2HEX(G49*POWER(2,24),8),",")</f>
+        <f t="shared" ref="L49:L53" si="15">CONCATENATE("0x",DEC2HEX(G49*POWER(2,24),8),",")</f>
         <v>0x04B5A0A5,</v>
       </c>
       <c r="M49" s="19">
-        <f t="shared" ref="M49:M53" si="14">$B$12/G49</f>
+        <f t="shared" ref="M49:M53" si="16">$B$12/G49</f>
         <v>6370.12659249231</v>
       </c>
       <c r="Q49">
         <v>1.9</v>
       </c>
       <c r="R49" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-235.59595300000001</v>
       </c>
     </row>
@@ -7295,26 +7428,26 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.6570034168642778</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.1336048765946257E-2</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0x04A83160,</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6441.9106697156003</v>
       </c>
       <c r="Q50">
         <v>2</v>
       </c>
       <c r="R50" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-199.99600000000009</v>
       </c>
     </row>
@@ -7322,26 +7455,26 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.6062397279725129</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.1084814643728175E-2</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0x049B3286,</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6512.9046188841821</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
       </c>
       <c r="R51" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-162.39608700000031</v>
       </c>
     </row>
@@ -7349,26 +7482,26 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.5571000504726502</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.0844471598348948E-2</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0x048E9E1B,</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6583.133937752471</v>
       </c>
       <c r="Q52">
         <v>2.2000000000000002</v>
       </c>
       <c r="R52" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-123.19621600000005</v>
       </c>
     </row>
@@ -7376,26 +7509,26 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.5094996330888746</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.0614326666898004E-2</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0x04826E91,</v>
       </c>
       <c r="M53" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6652.6227832179429</v>
       </c>
       <c r="Q53">
         <v>2.2999999999999998</v>
       </c>
       <c r="R53" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-82.79638900000009</v>
       </c>
     </row>
@@ -7407,7 +7540,7 @@
         <v>2.4</v>
       </c>
       <c r="R54" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-41.59660800000006</v>
       </c>
     </row>
@@ -7419,7 +7552,7 @@
         <v>2.5</v>
       </c>
       <c r="R55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.1249999997271516E-3</v>
       </c>
     </row>
@@ -7431,7 +7564,7 @@
         <v>2.6</v>
       </c>
       <c r="R56" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>41.602807999999641</v>
       </c>
     </row>
@@ -7443,7 +7576,7 @@
         <v>2.7</v>
       </c>
       <c r="R57" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82.802438999999595</v>
       </c>
     </row>
@@ -7455,7 +7588,7 @@
         <v>2.8</v>
       </c>
       <c r="R58" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>123.20201599999973</v>
       </c>
     </row>
@@ -7467,7 +7600,7 @@
         <v>2.9</v>
       </c>
       <c r="R59" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>162.40153699999973</v>
       </c>
     </row>
@@ -7479,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="R60" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200.00099999999975</v>
       </c>
     </row>
@@ -7491,7 +7624,7 @@
         <v>3.1</v>
       </c>
       <c r="R61" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>235.60040300000037</v>
       </c>
     </row>
@@ -7503,7 +7636,7 @@
         <v>3.2</v>
       </c>
       <c r="R62" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>268.79974399999992</v>
       </c>
     </row>
@@ -7515,7 +7648,7 @@
         <v>3.3</v>
       </c>
       <c r="R63" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>299.19902099999899</v>
       </c>
     </row>
@@ -7527,7 +7660,7 @@
         <v>3.4</v>
       </c>
       <c r="R64" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326.3982319999991</v>
       </c>
     </row>
@@ -7539,7 +7672,7 @@
         <v>3.5</v>
       </c>
       <c r="R65" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>349.99737499999992</v>
       </c>
     </row>
@@ -7551,7 +7684,7 @@
         <v>3.6</v>
       </c>
       <c r="R66" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>369.59644799999933</v>
       </c>
     </row>
@@ -7563,7 +7696,7 @@
         <v>3.7</v>
       </c>
       <c r="R67" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>384.79544900000019</v>
       </c>
     </row>
@@ -7575,7 +7708,7 @@
         <v>3.8</v>
       </c>
       <c r="R68" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.19437600000037</v>
       </c>
     </row>
@@ -7587,7 +7720,7 @@
         <v>3.9</v>
       </c>
       <c r="R69" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>400.39322699999911</v>
       </c>
     </row>
@@ -7599,7 +7732,7 @@
         <v>4</v>
       </c>
       <c r="R70" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>399.99199999999973</v>
       </c>
     </row>
@@ -7611,7 +7744,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="R71" s="16">
-        <f t="shared" ref="R71:R86" si="15" xml:space="preserve"> -66.667*POWER(Q71,3) + 500*POWER(Q71,2) - 833.33*Q71</f>
+        <f t="shared" ref="R71:R86" si="17" xml:space="preserve"> -66.667*POWER(Q71,3) + 500*POWER(Q71,2) - 833.33*Q71</f>
         <v>393.59069300000056</v>
       </c>
     </row>
@@ -7623,7 +7756,7 @@
         <v>4.2</v>
       </c>
       <c r="R72" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>380.78930399999945</v>
       </c>
     </row>
@@ -7635,7 +7768,7 @@
         <v>4.3</v>
       </c>
       <c r="R73" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>361.18783100000064</v>
       </c>
     </row>
@@ -7647,7 +7780,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="R74" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>334.38627199999928</v>
       </c>
     </row>
@@ -7659,7 +7792,7 @@
         <v>4.5</v>
       </c>
       <c r="R75" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>299.9846249999996</v>
       </c>
     </row>
@@ -7671,7 +7804,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="R76" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>257.58288800000037</v>
       </c>
     </row>
@@ -7683,7 +7816,7 @@
         <v>4.7</v>
       </c>
       <c r="R77" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>206.78105899999946</v>
       </c>
     </row>
@@ -7695,7 +7828,7 @@
         <v>4.8</v>
       </c>
       <c r="R78" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>147.1791360000002</v>
       </c>
     </row>
@@ -7707,7 +7840,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="R79" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>78.377116999999544</v>
       </c>
     </row>
@@ -7719,7 +7852,7 @@
         <v>5</v>
       </c>
       <c r="R80" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.5000000000545697E-2</v>
       </c>
     </row>
@@ -7731,7 +7864,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="R81" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-88.427217000000383</v>
       </c>
     </row>
@@ -7743,7 +7876,7 @@
         <v>5.2</v>
       </c>
       <c r="R82" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-187.22953600000073</v>
       </c>
     </row>
@@ -7755,7 +7888,7 @@
         <v>5.3</v>
       </c>
       <c r="R83" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-296.8319590000001</v>
       </c>
     </row>
@@ -7767,7 +7900,7 @@
         <v>5.4</v>
       </c>
       <c r="R84" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-417.6344880000006</v>
       </c>
     </row>
@@ -7779,7 +7912,7 @@
         <v>5.5</v>
       </c>
       <c r="R85" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-550.03712500000074</v>
       </c>
     </row>
@@ -7791,7 +7924,7 @@
         <v>5.6</v>
       </c>
       <c r="R86" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-694.43987199999992</v>
       </c>
     </row>
@@ -9248,4 +9381,424 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <f>10/2</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5*400</f>
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <f>C5*1024</f>
+        <v>2048000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>-2.5</v>
+      </c>
+      <c r="C6" s="4">
+        <f>B6*400</f>
+        <v>-1000</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <f>12/2</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <f>B7*400</f>
+        <v>2400</v>
+      </c>
+      <c r="D7">
+        <f>C7*1024</f>
+        <v>2457600</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>-4.5</v>
+      </c>
+      <c r="C8" s="4">
+        <f>B8*400</f>
+        <v>-1800</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>-1.99</v>
+      </c>
+      <c r="C9" s="4">
+        <f>B9*400</f>
+        <v>-796</v>
+      </c>
+      <c r="D9">
+        <f>C9*1024</f>
+        <v>-815104</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>7</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>-2.2450000000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <f>B10*400</f>
+        <v>-898</v>
+      </c>
+      <c r="D10">
+        <f>C10*1024</f>
+        <v>-919552</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <f>B5+B9</f>
+        <v>3.01</v>
+      </c>
+      <c r="C11" s="4">
+        <f>B11*400</f>
+        <v>1204</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <f>B6+B10</f>
+        <v>-4.7450000000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <f>B12*400</f>
+        <v>-1898</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <f>-(B5+B9)</f>
+        <v>-3.01</v>
+      </c>
+      <c r="C13" s="4">
+        <f>B13*400</f>
+        <v>-1204</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <f>-(B6+B10)</f>
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B14*400</f>
+        <v>1898</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(B9*B9+B10*B10)</f>
+        <v>3.0000208332609959</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B15*400</f>
+        <v>1200.0083333043983</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10">
+        <v>2</v>
+      </c>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <f>SQRT(B15*B15/2)</f>
+        <v>2.121335074899767</v>
+      </c>
+      <c r="C16" s="2">
+        <f>INT(B16*400)</f>
+        <v>848</v>
+      </c>
+      <c r="D16">
+        <f>C16*1024</f>
+        <v>868352</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <f>B5+B13</f>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="C18" s="4">
+        <f>B18*400</f>
+        <v>796.00000000000011</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18*1024</f>
+        <v>815104.00000000012</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <f>B6+B14</f>
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="C19" s="4">
+        <f>B19*400</f>
+        <v>898</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19*1024</f>
+        <v>919552</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <f>B7+B13</f>
+        <v>2.99</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B20*400</f>
+        <v>1196</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20*1024</f>
+        <v>1224704</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <f>B8+B14</f>
+        <v>0.24500000000000011</v>
+      </c>
+      <c r="C21" s="4">
+        <f>B21*400</f>
+        <v>98.000000000000043</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21*1024</f>
+        <v>100352.00000000004</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/rampup.xlsx
+++ b/rampup.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="7900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="7900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
     <sheet name="arc" sheetId="5" r:id="rId3"/>
+    <sheet name="ellipse" sheetId="7" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="145">
   <si>
     <t>pps</t>
   </si>
@@ -257,6 +259,643 @@
   </si>
   <si>
     <t>G1 X0. Z-2.5 F1.,</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>exy=e+(2x+1)b²+(2y+1)a²</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exy</t>
+  </si>
+  <si>
+    <t>ey=(x+1)²b²+y²a²–a²b²</t>
+  </si>
+  <si>
+    <t>ex=x²b²+(y+1)²a²–a²b²</t>
+  </si>
+  <si>
+    <t>ex+exy&gt;0?x++</t>
+  </si>
+  <si>
+    <t>ey+exy&lt;0?y++</t>
+  </si>
+  <si>
+    <t>y++</t>
+  </si>
+  <si>
+    <t>err+=ex</t>
+  </si>
+  <si>
+    <t>Q1:</t>
+  </si>
+  <si>
+    <t>exy=e+(2x+1)b²-(2y-1)a²</t>
+  </si>
+  <si>
+    <t>e = exy-(2x+1)b²+(2y-1)a²</t>
+  </si>
+  <si>
+    <t>ex=x²b²+(y-1)²a²–a²b²=x²b²+y²a²-(2y-1)a²–a²b²=e-(2y-1)a²=exy-(2x+1)b²</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>ey=(x+1)²b²+y²a²–a²b²=x²b²+(2x+1)b²+y²a²–a²b²=e+(2x+1)b²=exy+(2y-1)a²</t>
+  </si>
+  <si>
+    <t>ex=x²b²+(y-1)²a²–a²b²</t>
+  </si>
+  <si>
+    <r>
+      <t>ex+exy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0?x++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ey+exy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0?y--</t>
+    </r>
+  </si>
+  <si>
+    <t>ey</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>2exy-(2x+1)b²&lt;0</t>
+  </si>
+  <si>
+    <t>2exy+(2y-1)a²&gt;0?</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> + 2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> – 2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>x2b2+y2a2-a2b2</t>
+  </si>
+  <si>
+    <t>exy = (x+1)2b2+(y-1)2a2–a2b2</t>
+  </si>
+  <si>
+    <t>e+(2x+1)b2+(2y+1)a2</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>e=x²b²+y²a²-a²b²</t>
+  </si>
+  <si>
+    <t>e+(2*x+1)b2-(2*y-1)a2</t>
+  </si>
+  <si>
+    <t>ey=(x-1)²b²+y²a²–a²b²</t>
+  </si>
+  <si>
+    <r>
+      <t>ex+exy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x--</t>
+    </r>
+  </si>
+  <si>
+    <t>ey+exy&lt;0?y--</t>
+  </si>
+  <si>
+    <t>Q4:</t>
+  </si>
+  <si>
+    <t>exy=(x-1)²b²+(y-1)²a²-a²b²=x²b²-2xb²+b²+y²a²-2ya²+a²-a²b²=e-(2x-1)b²-(2y-1)a²</t>
+  </si>
+  <si>
+    <t>exy=e-(2x-1)b²-(2y-1)a²</t>
+  </si>
+  <si>
+    <t>e=exy+(2x-1)b²+(2y-1)a²</t>
+  </si>
+  <si>
+    <t>x+1y+1</t>
+  </si>
+  <si>
+    <t>ex=x²b²+(y-1)²a²–a²b²=x²b²+y²a²-(2y-1)a²–a²b²=e-(2y-1)a²=exy+(2x-1)b²</t>
+  </si>
+  <si>
+    <t>y2a2-2ya2+a2</t>
+  </si>
+  <si>
+    <t>ey=(x-1)²b²+y²a²–a²b²=x²b²-(2x-1)b²+y²a²–a²b²=e-(2x-1)b²=exy+(2y-1)a²</t>
+  </si>
+  <si>
+    <t>ex = x²b²+y²a²-2ya²+a²–a²b²</t>
+  </si>
+  <si>
+    <t>ex=exy –(2x+1)b²</t>
+  </si>
+  <si>
+    <t>ey = x²b²+y²a²–a²b²+2xb²+b²=e+(2x+1)b²=exy+(2y-1)a²</t>
+  </si>
+  <si>
+    <t>ey=exy–(2y+1)a²</t>
+  </si>
+  <si>
+    <t>x²b²+(2x+1)b²+y²a²–a²b²</t>
+  </si>
+  <si>
+    <t>ex = x²b²+y²a²–a²b²-(2y-1)a²=exy-(2x+1)b²</t>
+  </si>
+  <si>
+    <t>(y-1)²a²=y²a²-2ya²+a²</t>
+  </si>
+  <si>
+    <t>exy-(2x+1)b²+(2y-1)a²=e</t>
+  </si>
+  <si>
+    <t>y²a²-2ya²+a²</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>(x+1)²b²=x²b²+2xb²+b²</t>
+  </si>
+  <si>
+    <r>
+      <t>ex+exy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x--</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ey+exy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y++</t>
+    </r>
+  </si>
+  <si>
+    <t>exy=(x-1)²b²+(y+1)²a²-a²b²=x²b²-2xb²+b²+y²a²+2ya²+a²-a²b²=e-(2x-1)b²+(2y+1)a²</t>
+  </si>
+  <si>
+    <t>e=exy+(2x-1)b²-(2y+1)a²</t>
+  </si>
+  <si>
+    <t>ex=x²b²+(y+1)²a²–a²b²=x²b²+y²a²-(2y-1)a²–a²b²=e+(2y+1)a²=exy+(2x-1)b²</t>
+  </si>
+  <si>
+    <t>ey=(x-1)²b²+y²a²–a²b²=x²b²-(2x-1)b²+y²a²–a²b²=e-(2x-1)b²=exy-(2y+1)a²</t>
   </si>
 </sst>
 </file>
@@ -273,7 +912,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +945,37 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +1000,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -378,12 +1052,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -414,6 +1168,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,7 +1266,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -551,7 +1343,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -843,11 +1634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406653960"/>
-        <c:axId val="406656312"/>
+        <c:axId val="287573616"/>
+        <c:axId val="287572048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406653960"/>
+        <c:axId val="287573616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,12 +1694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406656312"/>
+        <c:crossAx val="287572048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406656312"/>
+        <c:axId val="287572048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406653960"/>
+        <c:crossAx val="287573616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1055,7 +1846,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1654,11 +2444,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406652000"/>
-        <c:axId val="406656704"/>
+        <c:axId val="289924832"/>
+        <c:axId val="289927576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406652000"/>
+        <c:axId val="289924832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +2505,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406656704"/>
+        <c:crossAx val="289927576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406656704"/>
+        <c:axId val="289927576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +2567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406652000"/>
+        <c:crossAx val="289924832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1791,7 +2581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2032,11 +2821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453590616"/>
-        <c:axId val="453588656"/>
+        <c:axId val="289930320"/>
+        <c:axId val="289930712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453590616"/>
+        <c:axId val="289930320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2881,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453588656"/>
+        <c:crossAx val="289930712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453588656"/>
+        <c:axId val="289930712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453590616"/>
+        <c:crossAx val="289930320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2218,7 +3007,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2449,11 +3237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453585128"/>
-        <c:axId val="453585912"/>
+        <c:axId val="289924440"/>
+        <c:axId val="289925616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453585128"/>
+        <c:axId val="289924440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +3297,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453585912"/>
+        <c:crossAx val="289925616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453585912"/>
+        <c:axId val="289925616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +3359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453585128"/>
+        <c:crossAx val="289924440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9387,7 +10175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -9431,7 +10219,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <f>B5*400</f>
+        <f t="shared" ref="C5:C15" si="0">B5*400</f>
         <v>2000</v>
       </c>
       <c r="D5">
@@ -9447,7 +10235,7 @@
         <v>-2.5</v>
       </c>
       <c r="C6" s="4">
-        <f>B6*400</f>
+        <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
       <c r="G6" s="10"/>
@@ -9466,7 +10254,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <f>B7*400</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D7">
@@ -9488,7 +10276,7 @@
         <v>-4.5</v>
       </c>
       <c r="C8" s="4">
-        <f>B8*400</f>
+        <f t="shared" si="0"/>
         <v>-1800</v>
       </c>
       <c r="G8" s="10"/>
@@ -9506,7 +10294,7 @@
         <v>-1.99</v>
       </c>
       <c r="C9" s="4">
-        <f>B9*400</f>
+        <f t="shared" si="0"/>
         <v>-796</v>
       </c>
       <c r="D9">
@@ -9533,7 +10321,7 @@
         <v>-2.2450000000000001</v>
       </c>
       <c r="C10" s="4">
-        <f>B10*400</f>
+        <f t="shared" si="0"/>
         <v>-898</v>
       </c>
       <c r="D10">
@@ -9557,7 +10345,7 @@
         <v>3.01</v>
       </c>
       <c r="C11" s="4">
-        <f>B11*400</f>
+        <f t="shared" si="0"/>
         <v>1204</v>
       </c>
       <c r="E11" s="4"/>
@@ -9581,7 +10369,7 @@
         <v>-4.7450000000000001</v>
       </c>
       <c r="C12" s="4">
-        <f>B12*400</f>
+        <f t="shared" si="0"/>
         <v>-1898</v>
       </c>
       <c r="G12" s="10"/>
@@ -9600,7 +10388,7 @@
         <v>-3.01</v>
       </c>
       <c r="C13" s="4">
-        <f>B13*400</f>
+        <f t="shared" si="0"/>
         <v>-1204</v>
       </c>
       <c r="G13" s="10"/>
@@ -9619,7 +10407,7 @@
         <v>4.7450000000000001</v>
       </c>
       <c r="C14" s="4">
-        <f>B14*400</f>
+        <f t="shared" si="0"/>
         <v>1898</v>
       </c>
       <c r="E14" s="4"/>
@@ -9639,7 +10427,7 @@
         <v>3.0000208332609959</v>
       </c>
       <c r="C15" s="4">
-        <f>B15*400</f>
+        <f t="shared" si="0"/>
         <v>1200.0083333043983</v>
       </c>
       <c r="G15" s="10"/>
@@ -9801,4 +10589,2195 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="48.36328125" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="7.36328125" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.36328125" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" customWidth="1"/>
+    <col min="18" max="18" width="21.08984375" customWidth="1"/>
+    <col min="19" max="19" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" customWidth="1"/>
+    <col min="23" max="23" width="12.453125" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1796875" customWidth="1"/>
+    <col min="30" max="30" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1">
+        <v>7</v>
+      </c>
+      <c r="T1">
+        <f>S1*S1</f>
+        <v>49</v>
+      </c>
+      <c r="U1">
+        <f>T1*T2</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="4">
+        <f>600/8</f>
+        <v>75</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2">
+        <f>50*K2</f>
+        <v>3750</v>
+      </c>
+      <c r="R2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f>S2*S2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <f>-S1</f>
+        <v>-7</v>
+      </c>
+      <c r="F3">
+        <f>B5+B6</f>
+        <v>-159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <f>S2</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>2*F4</f>
+        <v>-318</v>
+      </c>
+      <c r="F4">
+        <f>(B3+1)*(B3+1)*$T$2+(B7+1)*(B7+1)*$T$1-$T$1*$T$2</f>
+        <v>-159</v>
+      </c>
+      <c r="G4">
+        <f>B3</f>
+        <v>-7</v>
+      </c>
+      <c r="H4">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>(2*G4+1)*S2*S2</f>
+        <v>-208</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <f>(1+2*B3)*B4*B4</f>
+        <v>-208</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="22"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <f>B3*B3</f>
+        <v>49</v>
+      </c>
+      <c r="L6" s="27">
+        <v>1</v>
+      </c>
+      <c r="M6" s="22">
+        <v>1</v>
+      </c>
+      <c r="N6" s="22">
+        <f>-7</f>
+        <v>-7</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" ref="P6:P14" si="0">(N6)*(N6)*$T$2+(O6)*(O6)*$T$1-$U$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <f t="shared" ref="Q6:Q14" si="1">(N6+L6)*(N6+L6)*$T$2+(O6+M6)*(O6+M6)*$T$1-$U$1</f>
+        <v>-159</v>
+      </c>
+      <c r="R6" s="28">
+        <f t="shared" ref="R6:R14" si="2">(N6+L6)*(N6+L6)*$T$2+O6*O6*$T$1-$U$1</f>
+        <v>-208</v>
+      </c>
+      <c r="S6" s="28">
+        <f t="shared" ref="S6:S14" si="3">N6*N6*$T$2+(O6+M6)*(O6+M6)*$T$1-$U$1</f>
+        <v>49</v>
+      </c>
+      <c r="T6" s="28">
+        <f>Q6+S6</f>
+        <v>-110</v>
+      </c>
+      <c r="U6" s="29">
+        <f>Q6+R6</f>
+        <v>-367</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="28">
+        <f>P6+(2*N6+1)*$T$2+(2*O6+1)*$T$1</f>
+        <v>-159</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
+        <v>-7</v>
+      </c>
+      <c r="O7" s="22">
+        <v>1</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" si="2"/>
+        <v>-159</v>
+      </c>
+      <c r="S7" s="28">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="T7" s="28">
+        <f>Q7+S7</f>
+        <v>184</v>
+      </c>
+      <c r="U7" s="29">
+        <f>Q7+R7</f>
+        <v>-171</v>
+      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28">
+        <f t="shared" ref="W7:W14" si="4">P7+(2*N7+1)*$T$2+(2*O7+1)*$T$1</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L8" s="27">
+        <v>1</v>
+      </c>
+      <c r="M8" s="22">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <v>-6</v>
+      </c>
+      <c r="O8" s="22">
+        <v>2</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" si="2"/>
+        <v>-188</v>
+      </c>
+      <c r="S8" s="28">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" ref="T8:T14" si="5">Q8+S8</f>
+        <v>290</v>
+      </c>
+      <c r="U8" s="29">
+        <f t="shared" ref="U8:U14" si="6">Q8+R8</f>
+        <v>-131</v>
+      </c>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L9" s="27">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
+        <v>-5</v>
+      </c>
+      <c r="O9" s="22">
+        <v>3</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" si="2"/>
+        <v>-87</v>
+      </c>
+      <c r="S9" s="28">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="T9" s="28">
+        <f t="shared" si="5"/>
+        <v>656</v>
+      </c>
+      <c r="U9" s="29">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L10" s="27">
+        <v>1</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1</v>
+      </c>
+      <c r="N10" s="22">
+        <v>-4</v>
+      </c>
+      <c r="O10" s="22">
+        <v>3</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="0"/>
+        <v>-87</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" si="2"/>
+        <v>-199</v>
+      </c>
+      <c r="S10" s="28">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="T10" s="28">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U10" s="29">
+        <f t="shared" si="6"/>
+        <v>-55</v>
+      </c>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L11" s="27">
+        <v>1</v>
+      </c>
+      <c r="M11" s="22">
+        <v>1</v>
+      </c>
+      <c r="N11" s="22">
+        <v>-3</v>
+      </c>
+      <c r="O11" s="22">
+        <v>4</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="1"/>
+        <v>505</v>
+      </c>
+      <c r="R11" s="28">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="S11" s="28">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="T11" s="28">
+        <f t="shared" si="5"/>
+        <v>1090</v>
+      </c>
+      <c r="U11" s="29">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28">
+        <f t="shared" si="4"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L12" s="27">
+        <v>1</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1</v>
+      </c>
+      <c r="N12" s="22">
+        <v>-2</v>
+      </c>
+      <c r="O12" s="22">
+        <v>4</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="R12" s="28">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S12" s="28">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="T12" s="28">
+        <f t="shared" si="5"/>
+        <v>962</v>
+      </c>
+      <c r="U12" s="29">
+        <f t="shared" si="6"/>
+        <v>473</v>
+      </c>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28">
+        <f t="shared" si="4"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L13" s="27">
+        <v>1</v>
+      </c>
+      <c r="M13" s="22">
+        <v>1</v>
+      </c>
+      <c r="N13" s="22">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="22">
+        <v>4</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="R13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="5"/>
+        <v>898</v>
+      </c>
+      <c r="U13" s="29">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L14" s="27">
+        <v>1</v>
+      </c>
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>4</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="R14" s="28">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S14" s="28">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="T14" s="28">
+        <f t="shared" si="5"/>
+        <v>898</v>
+      </c>
+      <c r="U14" s="29">
+        <f t="shared" si="6"/>
+        <v>473</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28">
+        <f t="shared" si="4"/>
+        <v>457</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L15" s="31"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="AA15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="AA16" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L17" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" s="22"/>
+      <c r="W17" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L18" s="27">
+        <v>1</v>
+      </c>
+      <c r="M18" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22">
+        <v>4</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" ref="P18:P26" si="7">(N18)*(N18)*$T$2+(O18)*(O18)*$T$1-$U$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" ref="Q18:Q26" si="8">(N18+L18)*(N18+L18)*$T$2+(O18+M18)*(O18+M18)*$T$1-$U$1</f>
+        <v>-327</v>
+      </c>
+      <c r="R18" s="28">
+        <f t="shared" ref="R18:R26" si="9">(N18+L18)*(N18+L18)*$T$2+O18*O18*$T$1-$U$1</f>
+        <v>16</v>
+      </c>
+      <c r="S18" s="28">
+        <f t="shared" ref="S18:S26" si="10">N18*N18*$T$2+(O18+M18)*(O18+M18)*$T$1-$U$1</f>
+        <v>-343</v>
+      </c>
+      <c r="T18" s="28">
+        <f>Q18+S18</f>
+        <v>-670</v>
+      </c>
+      <c r="U18" s="29">
+        <f>Q18+R18</f>
+        <v>-311</v>
+      </c>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28">
+        <f>P18+(2*N18+1)*$T$2-(2*O18-1)*$T$1</f>
+        <v>-327</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z26" si="11">W18+(2*O18-1)*$T$1</f>
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AA26" si="12">W18-(2*N18+1)*$T$2</f>
+        <v>-343</v>
+      </c>
+      <c r="AC18">
+        <f>2*W18</f>
+        <v>-654</v>
+      </c>
+      <c r="AD18">
+        <f>-Z18</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L19" s="27">
+        <v>1</v>
+      </c>
+      <c r="M19" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="22">
+        <v>1</v>
+      </c>
+      <c r="O19" s="22">
+        <v>4</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="8"/>
+        <v>-279</v>
+      </c>
+      <c r="R19" s="28">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="S19" s="28">
+        <f t="shared" si="10"/>
+        <v>-327</v>
+      </c>
+      <c r="T19" s="28">
+        <f t="shared" ref="T19:T26" si="13">Q19+S19</f>
+        <v>-606</v>
+      </c>
+      <c r="U19" s="29">
+        <f t="shared" ref="U19:U26" si="14">Q19+R19</f>
+        <v>-215</v>
+      </c>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28">
+        <f>P19+(2*N19+1)*$T$2-(2*O19-1)*$T$1</f>
+        <v>-279</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="12"/>
+        <v>-327</v>
+      </c>
+      <c r="AC19">
+        <f>2*W19</f>
+        <v>-558</v>
+      </c>
+      <c r="AD19">
+        <f>-Z19</f>
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="27">
+        <v>1</v>
+      </c>
+      <c r="M20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="22">
+        <v>2</v>
+      </c>
+      <c r="O20" s="22">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="8"/>
+        <v>-199</v>
+      </c>
+      <c r="R20" s="28">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="S20" s="28">
+        <f t="shared" si="10"/>
+        <v>-279</v>
+      </c>
+      <c r="T20" s="28">
+        <f t="shared" si="13"/>
+        <v>-478</v>
+      </c>
+      <c r="U20" s="29">
+        <f t="shared" si="14"/>
+        <v>-55</v>
+      </c>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28">
+        <f>P20+(2*N20+1)*$T$2-(2*O20-1)*$T$1</f>
+        <v>-199</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="12"/>
+        <v>-279</v>
+      </c>
+      <c r="AC20">
+        <f>2*W20</f>
+        <v>-398</v>
+      </c>
+      <c r="AD20">
+        <f>-Z20</f>
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L21" s="27">
+        <v>1</v>
+      </c>
+      <c r="M21" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="22">
+        <v>3</v>
+      </c>
+      <c r="O21" s="22">
+        <v>4</v>
+      </c>
+      <c r="P21" s="22">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="8"/>
+        <v>-87</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="S21" s="28">
+        <f t="shared" si="10"/>
+        <v>-199</v>
+      </c>
+      <c r="T21" s="28">
+        <f t="shared" si="13"/>
+        <v>-286</v>
+      </c>
+      <c r="U21" s="29">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28">
+        <f t="shared" ref="W21:W26" si="15">P21+(2*N21+1)*$T$2-(2*O21-1)*$T$1</f>
+        <v>-87</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="11"/>
+        <v>256</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="12"/>
+        <v>-199</v>
+      </c>
+      <c r="AC21">
+        <f>2*W21</f>
+        <v>-174</v>
+      </c>
+      <c r="AD21">
+        <f>-Z21</f>
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="27">
+        <v>1</v>
+      </c>
+      <c r="M22" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="22">
+        <v>4</v>
+      </c>
+      <c r="O22" s="22">
+        <v>3</v>
+      </c>
+      <c r="P22" s="22">
+        <f t="shared" si="7"/>
+        <v>-87</v>
+      </c>
+      <c r="Q22" s="22">
+        <f t="shared" si="8"/>
+        <v>-188</v>
+      </c>
+      <c r="R22" s="28">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="S22" s="28">
+        <f t="shared" si="10"/>
+        <v>-332</v>
+      </c>
+      <c r="T22" s="28">
+        <f t="shared" si="13"/>
+        <v>-520</v>
+      </c>
+      <c r="U22" s="29">
+        <f t="shared" si="14"/>
+        <v>-131</v>
+      </c>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28">
+        <f t="shared" si="15"/>
+        <v>-188</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="12"/>
+        <v>-332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L23" s="27">
+        <v>1</v>
+      </c>
+      <c r="M23" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="22">
+        <v>5</v>
+      </c>
+      <c r="O23" s="22">
+        <v>3</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="Q23" s="22">
+        <f t="shared" si="8"/>
+        <v>-12</v>
+      </c>
+      <c r="R23" s="28">
+        <f t="shared" si="9"/>
+        <v>233</v>
+      </c>
+      <c r="S23" s="28">
+        <f t="shared" si="10"/>
+        <v>-188</v>
+      </c>
+      <c r="T23" s="28">
+        <f t="shared" si="13"/>
+        <v>-200</v>
+      </c>
+      <c r="U23" s="29">
+        <f t="shared" si="14"/>
+        <v>221</v>
+      </c>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28">
+        <f t="shared" si="15"/>
+        <v>-12</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="11"/>
+        <v>233</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="12"/>
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="27">
+        <v>1</v>
+      </c>
+      <c r="M24" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="22">
+        <v>6</v>
+      </c>
+      <c r="O24" s="22">
+        <v>2</v>
+      </c>
+      <c r="P24" s="22">
+        <f t="shared" si="7"/>
+        <v>-12</v>
+      </c>
+      <c r="Q24" s="22">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="R24" s="28">
+        <f t="shared" si="9"/>
+        <v>196</v>
+      </c>
+      <c r="S24" s="28">
+        <f t="shared" si="10"/>
+        <v>-159</v>
+      </c>
+      <c r="T24" s="28">
+        <f t="shared" si="13"/>
+        <v>-110</v>
+      </c>
+      <c r="U24" s="29">
+        <f t="shared" si="14"/>
+        <v>245</v>
+      </c>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="11"/>
+        <v>196</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="12"/>
+        <v>-159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L25" s="27">
+        <v>1</v>
+      </c>
+      <c r="M25" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="22">
+        <v>7</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1</v>
+      </c>
+      <c r="P25" s="22">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="Q25" s="22">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="R25" s="28">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
+      <c r="S25" s="28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="28">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="U25" s="29">
+        <f t="shared" si="14"/>
+        <v>529</v>
+      </c>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28">
+        <f t="shared" si="15"/>
+        <v>240</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="11"/>
+        <v>289</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L26" s="27">
+        <v>1</v>
+      </c>
+      <c r="M26" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="22">
+        <v>7</v>
+      </c>
+      <c r="O26" s="22">
+        <v>0</v>
+      </c>
+      <c r="P26" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="22">
+        <f t="shared" si="8"/>
+        <v>289</v>
+      </c>
+      <c r="R26" s="28">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="S26" s="28">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="T26" s="28">
+        <f t="shared" si="13"/>
+        <v>338</v>
+      </c>
+      <c r="U26" s="29">
+        <f t="shared" si="14"/>
+        <v>529</v>
+      </c>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L28" s="31"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="AA29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T30" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="Z30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="L31" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="22">
+        <v>7</v>
+      </c>
+      <c r="O31" s="22">
+        <v>0</v>
+      </c>
+      <c r="P31" s="22">
+        <f t="shared" ref="P31:P39" si="16">(N31)*(N31)*$T$2+(O31)*(O31)*$T$1-$U$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="22">
+        <f t="shared" ref="Q31:Q39" si="17">(N31+L31)*(N31+L31)*$T$2+(O31+M31)*(O31+M31)*$T$1-$U$1</f>
+        <v>-159</v>
+      </c>
+      <c r="R31" s="28">
+        <f t="shared" ref="R31:R39" si="18">(N31+L31)*(N31+L31)*$T$2+O31*O31*$T$1-$U$1</f>
+        <v>-208</v>
+      </c>
+      <c r="S31" s="28">
+        <f t="shared" ref="S31:S39" si="19">N31*N31*$T$2+(O31+M31)*(O31+M31)*$T$1-$U$1</f>
+        <v>49</v>
+      </c>
+      <c r="T31" s="28">
+        <f>Q31+S31</f>
+        <v>-110</v>
+      </c>
+      <c r="U31" s="29">
+        <f>Q31+R31</f>
+        <v>-367</v>
+      </c>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28">
+        <f t="shared" ref="W31:W39" si="20">P31-(2*N31-1)*$T$2-(2*O31-1)*$T$1</f>
+        <v>-159</v>
+      </c>
+      <c r="AA31" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="22">
+        <v>7</v>
+      </c>
+      <c r="O32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="22">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="Q32" s="22">
+        <f t="shared" si="17"/>
+        <v>-12</v>
+      </c>
+      <c r="R32" s="28">
+        <f t="shared" si="18"/>
+        <v>-159</v>
+      </c>
+      <c r="S32" s="28">
+        <f t="shared" si="19"/>
+        <v>196</v>
+      </c>
+      <c r="T32" s="28">
+        <f>Q32+S32</f>
+        <v>184</v>
+      </c>
+      <c r="U32" s="29">
+        <f>Q32+R32</f>
+        <v>-171</v>
+      </c>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28">
+        <f t="shared" si="20"/>
+        <v>-12</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="22">
+        <v>6</v>
+      </c>
+      <c r="O33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="P33" s="22">
+        <f t="shared" si="16"/>
+        <v>-12</v>
+      </c>
+      <c r="Q33" s="22">
+        <f t="shared" si="17"/>
+        <v>57</v>
+      </c>
+      <c r="R33" s="28">
+        <f t="shared" si="18"/>
+        <v>-188</v>
+      </c>
+      <c r="S33" s="28">
+        <f t="shared" si="19"/>
+        <v>233</v>
+      </c>
+      <c r="T33" s="28">
+        <f t="shared" ref="T33:T39" si="21">Q33+S33</f>
+        <v>290</v>
+      </c>
+      <c r="U33" s="29">
+        <f t="shared" ref="U33:U39" si="22">Q33+R33</f>
+        <v>-131</v>
+      </c>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28">
+        <f t="shared" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="AA33" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="22">
+        <v>5</v>
+      </c>
+      <c r="O34" s="22">
+        <v>-3</v>
+      </c>
+      <c r="P34" s="22">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="Q34" s="22">
+        <f t="shared" si="17"/>
+        <v>256</v>
+      </c>
+      <c r="R34" s="28">
+        <f t="shared" si="18"/>
+        <v>-87</v>
+      </c>
+      <c r="S34" s="28">
+        <f t="shared" si="19"/>
+        <v>400</v>
+      </c>
+      <c r="T34" s="28">
+        <f t="shared" si="21"/>
+        <v>656</v>
+      </c>
+      <c r="U34" s="29">
+        <f t="shared" si="22"/>
+        <v>169</v>
+      </c>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28">
+        <f t="shared" si="20"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="I35" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="22">
+        <v>4</v>
+      </c>
+      <c r="O35" s="22">
+        <v>-3</v>
+      </c>
+      <c r="P35" s="22">
+        <f t="shared" si="16"/>
+        <v>-87</v>
+      </c>
+      <c r="Q35" s="22">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="R35" s="28">
+        <f t="shared" si="18"/>
+        <v>-199</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="19"/>
+        <v>256</v>
+      </c>
+      <c r="T35" s="28">
+        <f t="shared" si="21"/>
+        <v>400</v>
+      </c>
+      <c r="U35" s="29">
+        <f t="shared" si="22"/>
+        <v>-55</v>
+      </c>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="22">
+        <v>3</v>
+      </c>
+      <c r="O36" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P36" s="22">
+        <f t="shared" si="16"/>
+        <v>144</v>
+      </c>
+      <c r="Q36" s="22">
+        <f t="shared" si="17"/>
+        <v>505</v>
+      </c>
+      <c r="R36" s="28">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="S36" s="28">
+        <f t="shared" si="19"/>
+        <v>585</v>
+      </c>
+      <c r="T36" s="28">
+        <f t="shared" si="21"/>
+        <v>1090</v>
+      </c>
+      <c r="U36" s="29">
+        <f t="shared" si="22"/>
+        <v>569</v>
+      </c>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28">
+        <f t="shared" si="20"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="37" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="I37" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="22">
+        <v>2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P37" s="22">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="17"/>
+        <v>457</v>
+      </c>
+      <c r="R37" s="28">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="S37" s="28">
+        <f t="shared" si="19"/>
+        <v>505</v>
+      </c>
+      <c r="T37" s="28">
+        <f t="shared" si="21"/>
+        <v>962</v>
+      </c>
+      <c r="U37" s="29">
+        <f t="shared" si="22"/>
+        <v>473</v>
+      </c>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28">
+        <f t="shared" si="20"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L38" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="22">
+        <v>1</v>
+      </c>
+      <c r="O38" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P38" s="22">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="Q38" s="22">
+        <f t="shared" si="17"/>
+        <v>441</v>
+      </c>
+      <c r="R38" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="28">
+        <f t="shared" si="19"/>
+        <v>457</v>
+      </c>
+      <c r="T38" s="28">
+        <f t="shared" si="21"/>
+        <v>898</v>
+      </c>
+      <c r="U38" s="29">
+        <f t="shared" si="22"/>
+        <v>441</v>
+      </c>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28">
+        <f t="shared" si="20"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="22">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P39" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="22">
+        <f t="shared" si="17"/>
+        <v>457</v>
+      </c>
+      <c r="R39" s="28">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="S39" s="28">
+        <f t="shared" si="19"/>
+        <v>441</v>
+      </c>
+      <c r="T39" s="28">
+        <f t="shared" si="21"/>
+        <v>898</v>
+      </c>
+      <c r="U39" s="29">
+        <f t="shared" si="22"/>
+        <v>473</v>
+      </c>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28">
+        <f t="shared" si="20"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="Z40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R41" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T41" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="U41" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="AA41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L42" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="22">
+        <v>1</v>
+      </c>
+      <c r="N42" s="22">
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P42" s="22">
+        <f t="shared" ref="P42:P50" si="23">(N42)*(N42)*$T$2+(O42)*(O42)*$T$1-$U$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="22">
+        <f t="shared" ref="Q42:Q50" si="24">(N42+L42)*(N42+L42)*$T$2+(O42+M42)*(O42+M42)*$T$1-$U$1</f>
+        <v>-327</v>
+      </c>
+      <c r="R42" s="28">
+        <f t="shared" ref="R42:R50" si="25">(N42+L42)*(N42+L42)*$T$2+O42*O42*$T$1-$U$1</f>
+        <v>16</v>
+      </c>
+      <c r="S42" s="28">
+        <f t="shared" ref="S42:S50" si="26">N42*N42*$T$2+(O42+M42)*(O42+M42)*$T$1-$U$1</f>
+        <v>-343</v>
+      </c>
+      <c r="T42" s="28">
+        <f>Q42+S42</f>
+        <v>-670</v>
+      </c>
+      <c r="U42" s="29">
+        <f>Q42+R42</f>
+        <v>-311</v>
+      </c>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28">
+        <f>P42-(2*N42-1)*$T$2+(2*O42+1)*$T$1</f>
+        <v>-327</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L43" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="22">
+        <v>1</v>
+      </c>
+      <c r="N43" s="22">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P43" s="22">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="Q43" s="22">
+        <f t="shared" si="24"/>
+        <v>-279</v>
+      </c>
+      <c r="R43" s="28">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="S43" s="28">
+        <f t="shared" si="26"/>
+        <v>-327</v>
+      </c>
+      <c r="T43" s="28">
+        <f>Q43+S43</f>
+        <v>-606</v>
+      </c>
+      <c r="U43" s="29">
+        <f>Q43+R43</f>
+        <v>-215</v>
+      </c>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28">
+        <f t="shared" ref="W43:W50" si="27">P43-(2*N43-1)*$T$2+(2*O43+1)*$T$1</f>
+        <v>-279</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L44" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="22">
+        <v>1</v>
+      </c>
+      <c r="N44" s="22">
+        <v>-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P44" s="22">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="Q44" s="22">
+        <f t="shared" si="24"/>
+        <v>-199</v>
+      </c>
+      <c r="R44" s="28">
+        <f t="shared" si="25"/>
+        <v>144</v>
+      </c>
+      <c r="S44" s="28">
+        <f t="shared" si="26"/>
+        <v>-279</v>
+      </c>
+      <c r="T44" s="28">
+        <f t="shared" ref="T44:T50" si="28">Q44+S44</f>
+        <v>-478</v>
+      </c>
+      <c r="U44" s="29">
+        <f t="shared" ref="U44:U50" si="29">Q44+R44</f>
+        <v>-55</v>
+      </c>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28">
+        <f t="shared" si="27"/>
+        <v>-199</v>
+      </c>
+      <c r="AA44" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L45" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="22">
+        <v>1</v>
+      </c>
+      <c r="N45" s="22">
+        <v>-3</v>
+      </c>
+      <c r="O45" s="22">
+        <v>-4</v>
+      </c>
+      <c r="P45" s="22">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q45" s="22">
+        <f t="shared" si="24"/>
+        <v>-87</v>
+      </c>
+      <c r="R45" s="28">
+        <f t="shared" si="25"/>
+        <v>256</v>
+      </c>
+      <c r="S45" s="28">
+        <f t="shared" si="26"/>
+        <v>-199</v>
+      </c>
+      <c r="T45" s="28">
+        <f t="shared" si="28"/>
+        <v>-286</v>
+      </c>
+      <c r="U45" s="29">
+        <f t="shared" si="29"/>
+        <v>169</v>
+      </c>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28">
+        <f t="shared" si="27"/>
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="46" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L46" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1</v>
+      </c>
+      <c r="N46" s="22">
+        <v>-4</v>
+      </c>
+      <c r="O46" s="22">
+        <v>-3</v>
+      </c>
+      <c r="P46" s="22">
+        <f t="shared" si="23"/>
+        <v>-87</v>
+      </c>
+      <c r="Q46" s="22">
+        <f t="shared" si="24"/>
+        <v>-188</v>
+      </c>
+      <c r="R46" s="28">
+        <f t="shared" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="S46" s="28">
+        <f t="shared" si="26"/>
+        <v>-332</v>
+      </c>
+      <c r="T46" s="28">
+        <f t="shared" si="28"/>
+        <v>-520</v>
+      </c>
+      <c r="U46" s="29">
+        <f t="shared" si="29"/>
+        <v>-131</v>
+      </c>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28">
+        <f t="shared" si="27"/>
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="47" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L47" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="22">
+        <v>1</v>
+      </c>
+      <c r="N47" s="22">
+        <v>-5</v>
+      </c>
+      <c r="O47" s="22">
+        <v>-3</v>
+      </c>
+      <c r="P47" s="22">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="Q47" s="22">
+        <f t="shared" si="24"/>
+        <v>-12</v>
+      </c>
+      <c r="R47" s="28">
+        <f t="shared" si="25"/>
+        <v>233</v>
+      </c>
+      <c r="S47" s="28">
+        <f t="shared" si="26"/>
+        <v>-188</v>
+      </c>
+      <c r="T47" s="28">
+        <f t="shared" si="28"/>
+        <v>-200</v>
+      </c>
+      <c r="U47" s="29">
+        <f t="shared" si="29"/>
+        <v>221</v>
+      </c>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28">
+        <f t="shared" si="27"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="48" spans="6:27" x14ac:dyDescent="0.35">
+      <c r="L48" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="22">
+        <v>1</v>
+      </c>
+      <c r="N48" s="22">
+        <v>-6</v>
+      </c>
+      <c r="O48" s="22">
+        <v>-2</v>
+      </c>
+      <c r="P48" s="22">
+        <f t="shared" si="23"/>
+        <v>-12</v>
+      </c>
+      <c r="Q48" s="22">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="R48" s="28">
+        <f t="shared" si="25"/>
+        <v>196</v>
+      </c>
+      <c r="S48" s="28">
+        <f t="shared" si="26"/>
+        <v>-159</v>
+      </c>
+      <c r="T48" s="28">
+        <f t="shared" si="28"/>
+        <v>-110</v>
+      </c>
+      <c r="U48" s="29">
+        <f t="shared" si="29"/>
+        <v>245</v>
+      </c>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" x14ac:dyDescent="0.35">
+      <c r="L49" s="27">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="22">
+        <v>1</v>
+      </c>
+      <c r="N49" s="22">
+        <v>-7</v>
+      </c>
+      <c r="O49" s="22">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="22">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="Q49" s="22">
+        <f t="shared" si="24"/>
+        <v>240</v>
+      </c>
+      <c r="R49" s="28">
+        <f t="shared" si="25"/>
+        <v>289</v>
+      </c>
+      <c r="S49" s="28">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="28">
+        <f t="shared" si="28"/>
+        <v>240</v>
+      </c>
+      <c r="U49" s="29">
+        <f t="shared" si="29"/>
+        <v>529</v>
+      </c>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28">
+        <f t="shared" si="27"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="12:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L50" s="35">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="36">
+        <v>1</v>
+      </c>
+      <c r="N50" s="36">
+        <v>-7</v>
+      </c>
+      <c r="O50" s="36">
+        <v>0</v>
+      </c>
+      <c r="P50" s="36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="36">
+        <f t="shared" si="24"/>
+        <v>289</v>
+      </c>
+      <c r="R50" s="37">
+        <f t="shared" si="25"/>
+        <v>240</v>
+      </c>
+      <c r="S50" s="37">
+        <f t="shared" si="26"/>
+        <v>49</v>
+      </c>
+      <c r="T50" s="37">
+        <f t="shared" si="28"/>
+        <v>338</v>
+      </c>
+      <c r="U50" s="38">
+        <f t="shared" si="29"/>
+        <v>529</v>
+      </c>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28">
+        <f t="shared" si="27"/>
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rampup.xlsx
+++ b/rampup.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STM32\project\efeed\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="7900" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="7896" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="ellipse" sheetId="7" r:id="rId4"/>
     <sheet name="Лист2" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>pps</t>
   </si>
@@ -896,6 +891,15 @@
   </si>
   <si>
     <t>ey=(x-1)²b²+y²a²–a²b²=x²b²-(2x-1)b²+y²a²–a²b²=e-(2x-1)b²=exy-(2y+1)a²</t>
+  </si>
+  <si>
+    <t>2xb2+b2</t>
+  </si>
+  <si>
+    <t>2xb2-2x+1b2</t>
+  </si>
+  <si>
+    <t>(2*x+1)b²=2xb²+b²</t>
   </si>
 </sst>
 </file>
@@ -1274,26 +1278,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1368,7 +1352,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1517,7 +1501,7 @@
             <c:numRef>
               <c:f>Лист1!$M$2:$M$35</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.0\ _₽_-;\-* #\ ##0.0\ _₽_-;_-* "-"?\ _₽_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* "-"?\ _₽_-;_-@_-</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
@@ -1634,11 +1618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287573616"/>
-        <c:axId val="287572048"/>
+        <c:axId val="111183744"/>
+        <c:axId val="111190016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287573616"/>
+        <c:axId val="111183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,15 +1675,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287572048"/>
+        <c:crossAx val="111190016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287572048"/>
+        <c:axId val="111190016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1737,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287573616"/>
+        <c:crossAx val="111183744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1794,7 +1778,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1854,26 +1838,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2444,11 +2408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289924832"/>
-        <c:axId val="289927576"/>
+        <c:axId val="111694976"/>
+        <c:axId val="111696512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289924832"/>
+        <c:axId val="111694976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,15 +2466,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289927576"/>
+        <c:crossAx val="111696512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289927576"/>
+        <c:axId val="111696512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,10 +2528,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289924832"/>
+        <c:crossAx val="111694976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2606,7 +2570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2636,7 +2600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2687,7 +2651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2821,11 +2785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289930320"/>
-        <c:axId val="289930712"/>
+        <c:axId val="111708800"/>
+        <c:axId val="111739264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289930320"/>
+        <c:axId val="111708800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,15 +2842,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289930712"/>
+        <c:crossAx val="111739264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289930712"/>
+        <c:axId val="111739264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,10 +2904,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289930320"/>
+        <c:crossAx val="111708800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2981,7 +2945,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3032,7 +2996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3081,7 +3045,7 @@
             <c:numRef>
               <c:f>Лист1!$M$2:$M$48</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.0\ _₽_-;\-* #\ ##0.0\ _₽_-;_-* "-"?\ _₽_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* "-"?\ _₽_-;_-@_-</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
@@ -3237,11 +3201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289924440"/>
-        <c:axId val="289925616"/>
+        <c:axId val="111758720"/>
+        <c:axId val="111773568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289924440"/>
+        <c:axId val="111758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,15 +3258,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289925616"/>
+        <c:crossAx val="111773568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289925616"/>
+        <c:axId val="111773568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,7 +3286,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0.0\ _₽_-;\-* #\ ##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3356,10 +3320,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289924440"/>
+        <c:crossAx val="111758720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3397,7 +3361,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6290,7 +6254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6304,19 +6268,19 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="4" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" customWidth="1"/>
-    <col min="11" max="11" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6346,7 +6310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6385,7 +6349,7 @@
       </c>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -6430,7 +6394,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="D4" s="3">
         <f t="shared" si="3"/>
@@ -6467,7 +6431,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
         <f t="shared" si="3"/>
         <v>17.138794763564931</v>
@@ -6504,7 +6468,7 @@
         <v>1059.4810050208546</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -6551,7 +6515,7 @@
         <v>1258.1356436876538</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6599,7 +6563,7 @@
         <v>1504.817494144412</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6643,7 +6607,7 @@
         <v>1752.3148788993626</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6694,7 +6658,7 @@
         <v>1982.5797508212245</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6745,7 +6709,7 @@
         <v>2194.2984959295286</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6795,7 +6759,7 @@
         <v>2389.9003949579878</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6845,7 +6809,7 @@
         <v>2572.0202037980921</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6889,7 +6853,7 @@
         <v>2742.8534492135568</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6933,7 +6897,7 @@
         <v>2904.1375642760904</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -6981,7 +6945,7 @@
         <v>3057.2410066734733</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7025,7 +6989,7 @@
         <v>3203.2513579270349</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7073,7 +7037,7 @@
         <v>3343.0442185287829</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D18" s="3">
         <f t="shared" si="10"/>
         <v>0.34655809044890162</v>
@@ -7114,7 +7078,7 @@
         <v>3477.3341119711649</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -7158,7 +7122,7 @@
         <v>3606.711683246433</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -7206,7 +7170,7 @@
         <v>3731.6710136458742</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -7250,7 +7214,7 @@
         <v>3852.6298958745169</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -7298,7 +7262,7 @@
         <v>3969.9450788590875</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -7342,7 +7306,7 @@
         <v>4083.9238834805128</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -7386,7 +7350,7 @@
         <v>4194.8331683341985</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7430,7 +7394,7 @@
         <v>4302.9063354782502</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7474,7 +7438,7 @@
         <v>4408.3488678660888</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7518,7 +7482,7 @@
         <v>4511.3427531888328</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7562,7 +7526,7 @@
         <v>4612.0500532348669</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -7606,7 +7570,7 @@
         <v>4710.6158103428443</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -7650,7 +7614,7 @@
         <v>4807.1704342548719</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -7694,7 +7658,7 @@
         <v>4901.8316777630444</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -7738,7 +7702,7 @@
         <v>4994.7062839970813</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -7782,7 +7746,7 @@
         <v>5085.8913693025606</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D34" s="3">
         <f t="shared" si="10"/>
         <v>0.10210227941709249</v>
@@ -7823,7 +7787,7 @@
         <v>5175.475591531047</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -7867,7 +7831,7 @@
         <v>5263.5401428956211</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -7892,7 +7856,7 @@
         <v>5350.1595984142568</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -7917,7 +7881,7 @@
         <v>5435.4026447106817</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G38" s="3">
         <f t="shared" si="7"/>
         <v>5.4354396774403675</v>
@@ -7935,7 +7899,7 @@
         <v>5519.3327090932717</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G39" s="3">
         <f t="shared" si="7"/>
         <v>5.3552221445214583</v>
@@ -7953,7 +7917,7 @@
         <v>5602.0085050422858</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G40" s="3">
         <f t="shared" si="7"/>
         <v>5.2784519710975539</v>
@@ -7971,7 +7935,7 @@
         <v>5683.4845072507251</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G41" s="3">
         <f t="shared" si="7"/>
         <v>5.204889280690046</v>
@@ -7996,7 +7960,7 @@
         <v>-400.39677700000004</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
@@ -8023,7 +7987,7 @@
         <v>-395.19657599999994</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
@@ -8050,7 +8014,7 @@
         <v>-384.79639900000006</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
@@ -8077,7 +8041,7 @@
         <v>-369.59624800000006</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3">
@@ -8104,7 +8068,7 @@
         <v>-349.99612500000012</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
@@ -8131,7 +8095,7 @@
         <v>-326.3960320000001</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3">
@@ -8158,7 +8122,7 @@
         <v>-299.19597100000033</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3">
@@ -8185,7 +8149,7 @@
         <v>-268.79594400000019</v>
       </c>
     </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
@@ -8212,7 +8176,7 @@
         <v>-235.59595300000001</v>
       </c>
     </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
@@ -8239,7 +8203,7 @@
         <v>-199.99600000000009</v>
       </c>
     </row>
-    <row r="51" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
@@ -8266,7 +8230,7 @@
         <v>-162.39608700000031</v>
       </c>
     </row>
-    <row r="52" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
@@ -8293,7 +8257,7 @@
         <v>-123.19621600000005</v>
       </c>
     </row>
-    <row r="53" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
@@ -8320,7 +8284,7 @@
         <v>-82.79638900000009</v>
       </c>
     </row>
-    <row r="54" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="I54" s="2"/>
@@ -8332,7 +8296,7 @@
         <v>-41.59660800000006</v>
       </c>
     </row>
-    <row r="55" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="I55" s="2"/>
@@ -8344,7 +8308,7 @@
         <v>3.1249999997271516E-3</v>
       </c>
     </row>
-    <row r="56" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="I56" s="2"/>
@@ -8356,7 +8320,7 @@
         <v>41.602807999999641</v>
       </c>
     </row>
-    <row r="57" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="I57" s="2"/>
@@ -8368,7 +8332,7 @@
         <v>82.802438999999595</v>
       </c>
     </row>
-    <row r="58" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="I58" s="2"/>
@@ -8380,7 +8344,7 @@
         <v>123.20201599999973</v>
       </c>
     </row>
-    <row r="59" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="I59" s="2"/>
@@ -8392,7 +8356,7 @@
         <v>162.40153699999973</v>
       </c>
     </row>
-    <row r="60" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="I60" s="2"/>
@@ -8404,7 +8368,7 @@
         <v>200.00099999999975</v>
       </c>
     </row>
-    <row r="61" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="I61" s="2"/>
@@ -8416,7 +8380,7 @@
         <v>235.60040300000037</v>
       </c>
     </row>
-    <row r="62" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="I62" s="2"/>
@@ -8428,7 +8392,7 @@
         <v>268.79974399999992</v>
       </c>
     </row>
-    <row r="63" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="I63" s="2"/>
@@ -8440,7 +8404,7 @@
         <v>299.19902099999899</v>
       </c>
     </row>
-    <row r="64" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="I64" s="2"/>
@@ -8452,7 +8416,7 @@
         <v>326.3982319999991</v>
       </c>
     </row>
-    <row r="65" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="I65" s="2"/>
@@ -8464,7 +8428,7 @@
         <v>349.99737499999992</v>
       </c>
     </row>
-    <row r="66" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="I66" s="2"/>
@@ -8476,7 +8440,7 @@
         <v>369.59644799999933</v>
       </c>
     </row>
-    <row r="67" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="I67" s="2"/>
@@ -8488,7 +8452,7 @@
         <v>384.79544900000019</v>
       </c>
     </row>
-    <row r="68" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="I68" s="2"/>
@@ -8500,7 +8464,7 @@
         <v>395.19437600000037</v>
       </c>
     </row>
-    <row r="69" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="I69" s="2"/>
@@ -8512,7 +8476,7 @@
         <v>400.39322699999911</v>
       </c>
     </row>
-    <row r="70" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="I70" s="2"/>
@@ -8524,7 +8488,7 @@
         <v>399.99199999999973</v>
       </c>
     </row>
-    <row r="71" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="I71" s="2"/>
@@ -8536,7 +8500,7 @@
         <v>393.59069300000056</v>
       </c>
     </row>
-    <row r="72" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="I72" s="2"/>
@@ -8548,7 +8512,7 @@
         <v>380.78930399999945</v>
       </c>
     </row>
-    <row r="73" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="I73" s="2"/>
@@ -8560,7 +8524,7 @@
         <v>361.18783100000064</v>
       </c>
     </row>
-    <row r="74" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="I74" s="2"/>
@@ -8572,7 +8536,7 @@
         <v>334.38627199999928</v>
       </c>
     </row>
-    <row r="75" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="I75" s="2"/>
@@ -8584,7 +8548,7 @@
         <v>299.9846249999996</v>
       </c>
     </row>
-    <row r="76" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="I76" s="2"/>
@@ -8596,7 +8560,7 @@
         <v>257.58288800000037</v>
       </c>
     </row>
-    <row r="77" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="I77" s="2"/>
@@ -8608,7 +8572,7 @@
         <v>206.78105899999946</v>
       </c>
     </row>
-    <row r="78" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="2"/>
@@ -8620,7 +8584,7 @@
         <v>147.1791360000002</v>
       </c>
     </row>
-    <row r="79" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="I79" s="2"/>
@@ -8632,7 +8596,7 @@
         <v>78.377116999999544</v>
       </c>
     </row>
-    <row r="80" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="I80" s="2"/>
@@ -8644,7 +8608,7 @@
         <v>-2.5000000000545697E-2</v>
       </c>
     </row>
-    <row r="81" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="I81" s="2"/>
@@ -8656,7 +8620,7 @@
         <v>-88.427217000000383</v>
       </c>
     </row>
-    <row r="82" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="I82" s="2"/>
@@ -8668,7 +8632,7 @@
         <v>-187.22953600000073</v>
       </c>
     </row>
-    <row r="83" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="I83" s="2"/>
@@ -8680,7 +8644,7 @@
         <v>-296.8319590000001</v>
       </c>
     </row>
-    <row r="84" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="I84" s="2"/>
@@ -8692,7 +8656,7 @@
         <v>-417.6344880000006</v>
       </c>
     </row>
-    <row r="85" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="I85" s="2"/>
@@ -8704,7 +8668,7 @@
         <v>-550.03712500000074</v>
       </c>
     </row>
-    <row r="86" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="I86" s="2"/>
@@ -8716,1297 +8680,1297 @@
         <v>-694.43987199999992</v>
       </c>
     </row>
-    <row r="87" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="I227" s="2"/>
     </row>
-    <row r="228" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="I253" s="2"/>
     </row>
-    <row r="254" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="I255" s="2"/>
     </row>
-    <row r="256" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="I260" s="2"/>
     </row>
-    <row r="261" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="I262" s="2"/>
     </row>
-    <row r="263" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="I266" s="2"/>
     </row>
-    <row r="267" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="I274" s="2"/>
     </row>
-    <row r="275" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="I279" s="2"/>
     </row>
-    <row r="280" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="I281" s="2"/>
     </row>
-    <row r="282" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="I284" s="2"/>
     </row>
-    <row r="285" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="I288" s="2"/>
     </row>
-    <row r="289" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="I291" s="2"/>
     </row>
-    <row r="292" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
       <c r="I298" s="2"/>
     </row>
-    <row r="299" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="I300" s="2"/>
     </row>
-    <row r="301" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="I304" s="2"/>
     </row>
-    <row r="305" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
       <c r="I306" s="2"/>
     </row>
-    <row r="307" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
       <c r="I311" s="2"/>
     </row>
-    <row r="312" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="I328" s="2"/>
     </row>
-    <row r="329" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
       <c r="I330" s="2"/>
     </row>
-    <row r="331" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
       <c r="I333" s="2"/>
     </row>
-    <row r="334" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
       <c r="I334" s="2"/>
     </row>
-    <row r="335" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
       <c r="I335" s="2"/>
     </row>
-    <row r="336" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
       <c r="I336" s="2"/>
     </row>
-    <row r="337" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
       <c r="I337" s="2"/>
     </row>
-    <row r="338" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
       <c r="I338" s="2"/>
     </row>
-    <row r="339" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
       <c r="I339" s="2"/>
     </row>
-    <row r="340" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
       <c r="I340" s="2"/>
     </row>
-    <row r="341" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
       <c r="I341" s="2"/>
     </row>
-    <row r="342" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
       <c r="I342" s="2"/>
     </row>
-    <row r="343" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
       <c r="I343" s="2"/>
     </row>
-    <row r="344" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
       <c r="I344" s="2"/>
     </row>
-    <row r="345" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
       <c r="I345" s="2"/>
@@ -10026,7 +9990,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -10179,30 +10143,30 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>73</v>
       </c>
@@ -10210,7 +10174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -10227,7 +10191,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -10245,7 +10209,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -10268,7 +10232,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -10286,7 +10250,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -10313,7 +10277,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -10336,7 +10300,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -10360,7 +10324,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -10379,7 +10343,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -10398,7 +10362,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -10418,7 +10382,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -10441,7 +10405,7 @@
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -10464,7 +10428,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -10472,7 +10436,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -10499,7 +10463,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -10522,7 +10486,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -10545,7 +10509,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -10568,7 +10532,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -10576,7 +10540,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -10595,37 +10559,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" customWidth="1"/>
-    <col min="11" max="11" width="48.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="7.36328125" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.36328125" customWidth="1"/>
-    <col min="16" max="16" width="5.1796875" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" customWidth="1"/>
-    <col min="18" max="18" width="21.08984375" customWidth="1"/>
-    <col min="19" max="19" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" customWidth="1"/>
     <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.1796875" customWidth="1"/>
-    <col min="30" max="30" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.21875" customWidth="1"/>
+    <col min="30" max="30" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="R1" t="s">
         <v>77</v>
       </c>
@@ -10641,7 +10605,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>78</v>
       </c>
@@ -10675,7 +10639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -10688,7 +10652,7 @@
         <v>-159</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -10724,7 +10688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -10766,7 +10730,7 @@
       <c r="X5" s="26"/>
       <c r="Y5" s="26"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -10792,15 +10756,15 @@
         <v>0</v>
       </c>
       <c r="Q6" s="22">
-        <f t="shared" ref="Q6:Q14" si="1">(N6+L6)*(N6+L6)*$T$2+(O6+M6)*(O6+M6)*$T$1-$U$1</f>
+        <f>(N6+L6)*(N6+L6)*$T$2+(O6+M6)*(O6+M6)*$T$1-$U$1</f>
         <v>-159</v>
       </c>
       <c r="R6" s="28">
-        <f t="shared" ref="R6:R14" si="2">(N6+L6)*(N6+L6)*$T$2+O6*O6*$T$1-$U$1</f>
+        <f t="shared" ref="R6:R14" si="1">(N6+L6)*(N6+L6)*$T$2+O6*O6*$T$1-$U$1</f>
         <v>-208</v>
       </c>
       <c r="S6" s="28">
-        <f t="shared" ref="S6:S14" si="3">N6*N6*$T$2+(O6+M6)*(O6+M6)*$T$1-$U$1</f>
+        <f t="shared" ref="S6:S14" si="2">N6*N6*$T$2+(O6+M6)*(O6+M6)*$T$1-$U$1</f>
         <v>49</v>
       </c>
       <c r="T6" s="28">
@@ -10823,7 +10787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -10847,15 +10811,15 @@
         <v>49</v>
       </c>
       <c r="Q7" s="22">
+        <f t="shared" ref="Q6:Q14" si="3">(N7+L7)*(N7+L7)*$T$2+(O7+M7)*(O7+M7)*$T$1-$U$1</f>
+        <v>-12</v>
+      </c>
+      <c r="R7" s="28">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="R7" s="28">
+        <v>-159</v>
+      </c>
+      <c r="S7" s="28">
         <f t="shared" si="2"/>
-        <v>-159</v>
-      </c>
-      <c r="S7" s="28">
-        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="T7" s="28">
@@ -10871,8 +10835,11 @@
         <f t="shared" ref="W7:W14" si="4">P7+(2*N7+1)*$T$2+(2*O7+1)*$T$1</f>
         <v>-12</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AA7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L8" s="27">
         <v>1</v>
       </c>
@@ -10890,15 +10857,15 @@
         <v>-12</v>
       </c>
       <c r="Q8" s="22">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="R8" s="28">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="R8" s="28">
+        <v>-188</v>
+      </c>
+      <c r="S8" s="28">
         <f t="shared" si="2"/>
-        <v>-188</v>
-      </c>
-      <c r="S8" s="28">
-        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="T8" s="28">
@@ -10914,8 +10881,11 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AA8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L9" s="27">
         <v>1</v>
       </c>
@@ -10933,15 +10903,15 @@
         <v>57</v>
       </c>
       <c r="Q9" s="22">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="R9" s="28">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="R9" s="28">
+        <v>-87</v>
+      </c>
+      <c r="S9" s="28">
         <f t="shared" si="2"/>
-        <v>-87</v>
-      </c>
-      <c r="S9" s="28">
-        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="T9" s="28">
@@ -10957,8 +10927,11 @@
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AA9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L10" s="27">
         <v>1</v>
       </c>
@@ -10976,15 +10949,15 @@
         <v>-87</v>
       </c>
       <c r="Q10" s="22">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="R10" s="28">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="R10" s="28">
+        <v>-199</v>
+      </c>
+      <c r="S10" s="28">
         <f t="shared" si="2"/>
-        <v>-199</v>
-      </c>
-      <c r="S10" s="28">
-        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="T10" s="28">
@@ -11001,7 +10974,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f>57+(-245)</f>
+        <v>-188</v>
+      </c>
       <c r="L11" s="27">
         <v>1</v>
       </c>
@@ -11019,15 +10996,15 @@
         <v>144</v>
       </c>
       <c r="Q11" s="22">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="R11" s="28">
         <f t="shared" si="1"/>
-        <v>505</v>
-      </c>
-      <c r="R11" s="28">
+        <v>64</v>
+      </c>
+      <c r="S11" s="28">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="S11" s="28">
-        <f t="shared" si="3"/>
         <v>585</v>
       </c>
       <c r="T11" s="28">
@@ -11044,7 +11021,11 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <f>-188-57</f>
+        <v>-245</v>
+      </c>
       <c r="L12" s="27">
         <v>1</v>
       </c>
@@ -11062,15 +11043,15 @@
         <v>64</v>
       </c>
       <c r="Q12" s="22">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="R12" s="28">
         <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-      <c r="R12" s="28">
+        <v>16</v>
+      </c>
+      <c r="S12" s="28">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S12" s="28">
-        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="T12" s="28">
@@ -11087,7 +11068,11 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f>7*7*2</f>
+        <v>98</v>
+      </c>
       <c r="L13" s="27">
         <v>1</v>
       </c>
@@ -11105,15 +11090,15 @@
         <v>16</v>
       </c>
       <c r="Q13" s="22">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="R13" s="28">
         <f t="shared" si="1"/>
-        <v>441</v>
-      </c>
-      <c r="R13" s="28">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="28">
-        <f t="shared" si="3"/>
         <v>457</v>
       </c>
       <c r="T13" s="28">
@@ -11136,7 +11121,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f>K12+K13</f>
+        <v>-147</v>
+      </c>
       <c r="L14" s="27">
         <v>1</v>
       </c>
@@ -11154,15 +11143,15 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="R14" s="28">
         <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-      <c r="R14" s="28">
+        <v>16</v>
+      </c>
+      <c r="S14" s="28">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S14" s="28">
-        <f t="shared" si="3"/>
         <v>441</v>
       </c>
       <c r="T14" s="28">
@@ -11182,7 +11171,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f>K12-K13</f>
+        <v>-343</v>
+      </c>
       <c r="L15" s="31"/>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
@@ -11199,7 +11192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="L16" s="31" t="s">
         <v>100</v>
       </c>
@@ -11218,7 +11211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L17" s="27" t="s">
         <v>85</v>
       </c>
@@ -11266,7 +11259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L18" s="27">
         <v>1</v>
       </c>
@@ -11303,7 +11296,10 @@
         <f>Q18+R18</f>
         <v>-311</v>
       </c>
-      <c r="V18" s="28"/>
+      <c r="V18" s="28">
+        <f>Q18-Q19</f>
+        <v>-48</v>
+      </c>
       <c r="W18" s="28">
         <f>P18+(2*N18+1)*$T$2-(2*O18-1)*$T$1</f>
         <v>-327</v>
@@ -11325,7 +11321,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L19" s="27">
         <v>1</v>
       </c>
@@ -11362,7 +11358,10 @@
         <f t="shared" ref="U19:U26" si="14">Q19+R19</f>
         <v>-215</v>
       </c>
-      <c r="V19" s="28"/>
+      <c r="V19" s="28">
+        <f>Q19-Q20</f>
+        <v>-80</v>
+      </c>
       <c r="W19" s="28">
         <f>P19+(2*N19+1)*$T$2-(2*O19-1)*$T$1</f>
         <v>-279</v>
@@ -11384,7 +11383,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="K20" t="s">
         <v>83</v>
       </c>
@@ -11424,7 +11423,10 @@
         <f t="shared" si="14"/>
         <v>-55</v>
       </c>
-      <c r="V20" s="28"/>
+      <c r="V20" s="28">
+        <f>Q20-Q21</f>
+        <v>-112</v>
+      </c>
       <c r="W20" s="28">
         <f>P20+(2*N20+1)*$T$2-(2*O20-1)*$T$1</f>
         <v>-199</v>
@@ -11446,7 +11448,7 @@
         <v>-144</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L21" s="27">
         <v>1</v>
       </c>
@@ -11483,7 +11485,10 @@
         <f t="shared" si="14"/>
         <v>169</v>
       </c>
-      <c r="V21" s="28"/>
+      <c r="V21" s="28">
+        <f>Q21-Q22</f>
+        <v>101</v>
+      </c>
       <c r="W21" s="28">
         <f t="shared" ref="W21:W26" si="15">P21+(2*N21+1)*$T$2-(2*O21-1)*$T$1</f>
         <v>-87</v>
@@ -11505,7 +11510,7 @@
         <v>-256</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>109</v>
       </c>
@@ -11559,7 +11564,7 @@
         <v>-332</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L23" s="27">
         <v>1</v>
       </c>
@@ -11610,7 +11615,7 @@
         <v>-188</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>110</v>
       </c>
@@ -11664,7 +11669,7 @@
         <v>-159</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L25" s="27">
         <v>1</v>
       </c>
@@ -11715,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L26" s="27">
         <v>1</v>
       </c>
@@ -11766,7 +11771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>111</v>
       </c>
@@ -11783,7 +11788,7 @@
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L28" s="31"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
@@ -11797,7 +11802,7 @@
       <c r="V28" s="28"/>
       <c r="W28" s="28"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>112</v>
       </c>
@@ -11822,7 +11827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>116</v>
       </c>
@@ -11865,7 +11870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L31" s="27">
         <v>-1</v>
       </c>
@@ -11914,7 +11919,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
         <v>124</v>
       </c>
@@ -11966,7 +11971,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>126</v>
       </c>
@@ -12021,7 +12026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:27" x14ac:dyDescent="0.3">
       <c r="I34" t="s">
         <v>128</v>
       </c>
@@ -12070,7 +12075,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:27" x14ac:dyDescent="0.3">
       <c r="I35" s="34" t="s">
         <v>130</v>
       </c>
@@ -12119,7 +12124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:27" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>132</v>
       </c>
@@ -12165,7 +12170,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:27" x14ac:dyDescent="0.3">
       <c r="I37" s="34" t="s">
         <v>133</v>
       </c>
@@ -12211,7 +12216,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L38" s="27">
         <v>-1</v>
       </c>
@@ -12254,7 +12259,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
         <v>134</v>
       </c>
@@ -12303,7 +12308,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>136</v>
       </c>
@@ -12328,7 +12333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>138</v>
       </c>
@@ -12368,7 +12373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L42" s="27">
         <v>-1</v>
       </c>
@@ -12414,7 +12419,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L43" s="27">
         <v>-1</v>
       </c>
@@ -12460,7 +12465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L44" s="27">
         <v>-1</v>
       </c>
@@ -12506,7 +12511,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L45" s="27">
         <v>-1</v>
       </c>
@@ -12549,7 +12554,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L46" s="27">
         <v>-1</v>
       </c>
@@ -12592,7 +12597,7 @@
         <v>-188</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L47" s="27">
         <v>-1</v>
       </c>
@@ -12635,7 +12640,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L48" s="27">
         <v>-1</v>
       </c>
@@ -12678,7 +12683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="12:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:23" ht="14.55" x14ac:dyDescent="0.35">
       <c r="L49" s="27">
         <v>-1</v>
       </c>
@@ -12776,7 +12781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rampup.xlsx
+++ b/rampup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="7896" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1270,6 +1270,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1327,6 +1328,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1373,97 +1375,97 @@
                   <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
+                  <c:v>909.09090909090912</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
                   <c:v>1071.4285714285713</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>1250</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>1764.7058823529412</c:v>
-                </c:pt>
                 <c:pt idx="7" formatCode="0">
+                  <c:v>1666.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="10" formatCode="0">
                   <c:v>2142.8571428571427</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0">
+                <c:pt idx="11" formatCode="0">
                   <c:v>2307.6923076923076</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0">
+                <c:pt idx="12" formatCode="0">
+                  <c:v>2307.6923076923076</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0">
+                <c:pt idx="14" formatCode="0">
                   <c:v>2727.2727272727275</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0">
+                <c:pt idx="15" formatCode="0">
+                  <c:v>2727.2727272727275</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>2727.2727272727275</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0">
+                <c:pt idx="18" formatCode="0">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0">
+                <c:pt idx="19" formatCode="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
                   <c:v>3333.3333333333335</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0">
+                <c:pt idx="21" formatCode="0">
                   <c:v>3333.3333333333335</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="22" formatCode="0">
                   <c:v>3333.3333333333335</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="0">
+                <c:pt idx="23" formatCode="0">
+                  <c:v>3333.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
                   <c:v>3750</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="0">
+                <c:pt idx="25" formatCode="0">
                   <c:v>3750</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="0">
+                <c:pt idx="26" formatCode="0">
                   <c:v>3750</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="0">
+                <c:pt idx="27" formatCode="0">
                   <c:v>3750</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="0">
+                <c:pt idx="28" formatCode="0">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0">
                   <c:v>4285.7142857142853</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="0">
+                <c:pt idx="31" formatCode="0">
                   <c:v>4285.7142857142853</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="0">
+                <c:pt idx="32" formatCode="0">
                   <c:v>4285.7142857142853</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="0">
+                <c:pt idx="33" formatCode="0">
                   <c:v>4285.7142857142853</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0">
-                  <c:v>4285.7142857142853</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0">
-                  <c:v>4285.7142857142853</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,100 +1512,100 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>660</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1059.4810050208546</c:v>
+                  <c:v>895.82364335844579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1258.1356436876538</c:v>
+                  <c:v>1071.8241083510134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1504.817494144412</c:v>
+                  <c:v>1274.2350098532629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1752.3148788993626</c:v>
+                  <c:v>1470.6529344628423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1982.5797508212245</c:v>
+                  <c:v>1652.1368949298385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2194.2984959295286</c:v>
+                  <c:v>1819.1099575609635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2389.9003949579878</c:v>
+                  <c:v>1973.7091502469334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2572.0202037980921</c:v>
+                  <c:v>2117.9756015258135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2742.8534492135568</c:v>
+                  <c:v>2253.5695366079408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2904.1375642760904</c:v>
+                  <c:v>2381.7996403943566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3057.2410066734733</c:v>
+                  <c:v>2503.6985683714856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3203.2513579270349</c:v>
+                  <c:v>2620.0899482814275</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3343.0442185287829</c:v>
+                  <c:v>2731.6394881111296</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3477.3341119711649</c:v>
+                  <c:v>2838.892515239565</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3606.711683246433</c:v>
+                  <c:v>2942.3014191760326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3731.6710136458742</c:v>
+                  <c:v>3042.2458583344142</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3852.6298958745169</c:v>
+                  <c:v>3139.0478134584259</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3969.9450788590875</c:v>
+                  <c:v>3232.9829499617563</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4083.9238834805128</c:v>
+                  <c:v>3324.2893084355046</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4194.8331683341985</c:v>
+                  <c:v>3413.1740369527561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4302.9063354782502</c:v>
+                  <c:v>3499.8186696031266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4408.3488678660888</c:v>
+                  <c:v>3584.3833119984306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4511.3427531888328</c:v>
+                  <c:v>3667.0099949405731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4612.0500532348669</c:v>
+                  <c:v>3747.8253877183624</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4710.6158103428443</c:v>
+                  <c:v>3826.9430130853784</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4807.1704342548719</c:v>
+                  <c:v>3904.4650705281497</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4901.8316777630444</c:v>
+                  <c:v>3980.4839487110507</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4994.7062839970813</c:v>
+                  <c:v>4055.0834891022514</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5085.8913693025606</c:v>
+                  <c:v>4128.3400487729195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5175.475591531047</c:v>
+                  <c:v>4200.3233998556252</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5263.5401428956211</c:v>
+                  <c:v>4271.0974951928465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,11 +1620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111183744"/>
-        <c:axId val="111190016"/>
+        <c:axId val="205023104"/>
+        <c:axId val="205033472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111183744"/>
+        <c:axId val="205023104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,12 +1680,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111190016"/>
+        <c:crossAx val="205033472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111190016"/>
+        <c:axId val="205033472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1742,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111183744"/>
+        <c:crossAx val="205023104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1830,6 +1832,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1960,70 +1963,70 @@
                   <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.315750690980522</c:v>
+                  <c:v>33.488734331156856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.711968670623246</c:v>
+                  <c:v>20.969581310163637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.326365734149858</c:v>
+                  <c:v>17.895976530533058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.823488782431417</c:v>
+                  <c:v>15.985485733969318</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.745699375196637</c:v>
+                  <c:v>14.623864683136356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.917467452475021</c:v>
+                  <c:v>13.581390701044569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.252376500225987</c:v>
+                  <c:v>12.746342636032498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7015828032820579</c:v>
+                  <c:v>12.056046390730806</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2348771017673528</c:v>
+                  <c:v>11.471937957406334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8323374349026142</c:v>
+                  <c:v>10.9686817805724</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4801756062615752</c:v>
+                  <c:v>10.528793839556215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1684805893663945</c:v>
+                  <c:v>10.139735605393065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8899074962519764</c:v>
+                  <c:v>9.7922325416319662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6388743573290654</c:v>
+                  <c:v>9.4792472705557635</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.411048285076669</c:v>
+                  <c:v>9.1953244492807684</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2030047375329058</c:v>
+                  <c:v>8.9361573201419233</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0119945972679627</c:v>
+                  <c:v>8.6982919809590182</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.8357807469915413</c:v>
+                  <c:v>8.4789202355411284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.6725207831563296</c:v>
+                  <c:v>8.2757311412822663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5206811563153622</c:v>
+                  <c:v>8.0868024725439884</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.3789732058168633</c:v>
+                  <c:v>7.9105199522712821</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2463047555443607</c:v>
+                  <c:v>7.745516194040392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,73 +2145,73 @@
                   <c:v>65.217391304347828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.454545454545453</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.315750690980522</c:v>
+                  <c:v>33.488734331156856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.84480572545311</c:v>
+                  <c:v>27.989667116328057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.935972379864562</c:v>
+                  <c:v>23.543537705383493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.120210734524576</c:v>
+                  <c:v>20.39910253261592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.131799862060225</c:v>
+                  <c:v>18.158301586306511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.671795362231098</c:v>
+                  <c:v>16.491581432616403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.552824403599201</c:v>
+                  <c:v>15.199807933325262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.663983026143853</c:v>
+                  <c:v>14.164469117768713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.937514728904578</c:v>
+                  <c:v>13.312214028751834</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.330089169683685</c:v>
+                  <c:v>12.595517897984431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.8127690733294326</c:v>
+                  <c:v>11.982273097481261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3654842058396319</c:v>
+                  <c:v>11.449988585192518</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9738567721376086</c:v>
+                  <c:v>10.982415553212096</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6272986816887069</c:v>
+                  <c:v>10.567501178348909</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.317825940829497</c:v>
+                  <c:v>10.196100169914358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0392938954952911</c:v>
+                  <c:v>9.8611359492242254</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7868886477065127</c:v>
+                  <c:v>9.5570382430548868</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.5567796037676231</c:v>
+                  <c:v>9.2793560820835381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.3458763816216335</c:v>
+                  <c:v>9.0244853009254982</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1516550947634556</c:v>
+                  <c:v>8.7894726946838215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.9720318456956658</c:v>
+                  <c:v>8.5718726688779991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.8052690245728762</c:v>
+                  <c:v>8.3696405737571222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,73 +2330,73 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,11 +2411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111694976"/>
-        <c:axId val="111696512"/>
+        <c:axId val="205538432"/>
+        <c:axId val="205539968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111694976"/>
+        <c:axId val="205538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,12 +2472,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111696512"/>
+        <c:crossAx val="205539968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111696512"/>
+        <c:axId val="205539968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2534,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111694976"/>
+        <c:crossAx val="205538432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2545,6 +2548,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2626,6 +2630,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2785,11 +2790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111708800"/>
-        <c:axId val="111739264"/>
+        <c:axId val="205556352"/>
+        <c:axId val="205574528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111708800"/>
+        <c:axId val="205556352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,12 +2850,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111739264"/>
+        <c:crossAx val="205574528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111739264"/>
+        <c:axId val="205574528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +2912,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111708800"/>
+        <c:crossAx val="205556352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2971,6 +2976,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3054,139 +3060,139 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>660</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1059.4810050208546</c:v>
+                  <c:v>895.82364335844579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1258.1356436876538</c:v>
+                  <c:v>1071.8241083510134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1504.817494144412</c:v>
+                  <c:v>1274.2350098532629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1752.3148788993626</c:v>
+                  <c:v>1470.6529344628423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1982.5797508212245</c:v>
+                  <c:v>1652.1368949298385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2194.2984959295286</c:v>
+                  <c:v>1819.1099575609635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2389.9003949579878</c:v>
+                  <c:v>1973.7091502469334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2572.0202037980921</c:v>
+                  <c:v>2117.9756015258135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2742.8534492135568</c:v>
+                  <c:v>2253.5695366079408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2904.1375642760904</c:v>
+                  <c:v>2381.7996403943566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3057.2410066734733</c:v>
+                  <c:v>2503.6985683714856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3203.2513579270349</c:v>
+                  <c:v>2620.0899482814275</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3343.0442185287829</c:v>
+                  <c:v>2731.6394881111296</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3477.3341119711649</c:v>
+                  <c:v>2838.892515239565</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3606.711683246433</c:v>
+                  <c:v>2942.3014191760326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3731.6710136458742</c:v>
+                  <c:v>3042.2458583344142</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3852.6298958745169</c:v>
+                  <c:v>3139.0478134584259</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3969.9450788590875</c:v>
+                  <c:v>3232.9829499617563</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4083.9238834805128</c:v>
+                  <c:v>3324.2893084355046</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4194.8331683341985</c:v>
+                  <c:v>3413.1740369527561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4302.9063354782502</c:v>
+                  <c:v>3499.8186696031266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4408.3488678660888</c:v>
+                  <c:v>3584.3833119984306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4511.3427531888328</c:v>
+                  <c:v>3667.0099949405731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4612.0500532348669</c:v>
+                  <c:v>3747.8253877183624</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4710.6158103428443</c:v>
+                  <c:v>3826.9430130853784</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4807.1704342548719</c:v>
+                  <c:v>3904.4650705281497</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4901.8316777630444</c:v>
+                  <c:v>3980.4839487110507</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4994.7062839970813</c:v>
+                  <c:v>4055.0834891022514</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5085.8913693025606</c:v>
+                  <c:v>4128.3400487729195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5175.475591531047</c:v>
+                  <c:v>4200.3233998556252</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5263.5401428956211</c:v>
+                  <c:v>4271.0974951928465</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5350.1595984142568</c:v>
+                  <c:v>4340.7211236271087</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5435.4026447106817</c:v>
+                  <c:v>4409.2484736975857</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5519.3327090932717</c:v>
+                  <c:v>4476.7296208649477</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5602.0085050422858</c:v>
+                  <c:v>4543.2109505323206</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5683.4845072507251</c:v>
+                  <c:v>4608.7355268779165</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5763.8113669965915</c:v>
+                  <c:v>4673.3434157250049</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5843.0362767340303</c:v>
+                  <c:v>4737.0719682430508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5921.2032912717759</c:v>
+                  <c:v>4799.9560711212298</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5998.3536116794867</c:v>
+                  <c:v>4862.028367922223</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6074.5258370641368</c:v>
+                  <c:v>4923.3194555641685</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6149.756188542643</c:v>
+                  <c:v>4983.8580592564149</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6224.0787090663171</c:v>
+                  <c:v>5043.6711887027705</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6297.5254421991112</c:v>
+                  <c:v>5102.7842779625489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,11 +3207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111758720"/>
-        <c:axId val="111773568"/>
+        <c:axId val="205602176"/>
+        <c:axId val="205617024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111758720"/>
+        <c:axId val="205602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,12 +3267,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111773568"/>
+        <c:crossAx val="205617024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111773568"/>
+        <c:axId val="205617024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,7 +3329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111758720"/>
+        <c:crossAx val="205602176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5660,16 +5666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>391138</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>93169</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>848338</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>55069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>573634</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>34898</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>430759</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>177773</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5805,8 +5811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6908800" y="622300"/>
-          <a:ext cx="4286250" cy="3790950"/>
+          <a:off x="6803390" y="618490"/>
+          <a:ext cx="4286250" cy="3765550"/>
           <a:chOff x="4895850" y="622300"/>
           <a:chExt cx="4286250" cy="3790950"/>
         </a:xfrm>
@@ -6254,7 +6260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6264,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R345"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,11 +6280,11 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="4" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" customWidth="1"/>
     <col min="11" max="11" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.44140625" customWidth="1"/>
   </cols>
@@ -6398,7 +6404,7 @@
       <c r="A4" s="7"/>
       <c r="D4" s="3">
         <f t="shared" si="3"/>
-        <v>19.762845849802375</v>
+        <v>15.217391304347828</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -6408,12 +6414,11 @@
         <v>45.454545454545453</v>
       </c>
       <c r="G4" s="21">
-        <f>$B$12/J4</f>
-        <v>45.454545454545453</v>
+        <v>50</v>
       </c>
       <c r="H4" s="13">
         <f>ROUND(G4,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J4" s="14">
         <v>660</v>
@@ -6424,48 +6429,48 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>0x2D745D17,</v>
+        <v>0x32000000,</v>
       </c>
       <c r="M4" s="19">
         <f t="shared" si="2"/>
-        <v>660</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
         <f t="shared" si="3"/>
-        <v>17.138794763564931</v>
+        <v>16.511265668843144</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="15">
         <f>B17</f>
-        <v>28.315750690980522</v>
+        <v>33.488734331156856</v>
       </c>
       <c r="G5" s="21">
         <f>B17</f>
-        <v>28.315750690980522</v>
+        <v>33.488734331156856</v>
       </c>
       <c r="H5" s="8">
         <f>ROUND(G5,0)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J35" si="5">$B$12/H5</f>
-        <v>1071.4285714285713</v>
+        <v>909.09090909090912</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="4"/>
-        <v>411.42857142857133</v>
+        <v>249.09090909090912</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>0x1C50D509,</v>
+        <v>0x217D1DB1,</v>
       </c>
       <c r="M5" s="19">
         <f t="shared" si="2"/>
-        <v>1059.4810050208546</v>
+        <v>895.82364335844579</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6477,42 +6482,42 @@
       </c>
       <c r="D6" s="3">
         <f>G5-G6</f>
-        <v>4.4709449655274121</v>
+        <v>5.4990672148287985</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6:F35" si="6">F5*(1+-1*$B$22*F5*F5)</f>
-        <v>16.711968670623246</v>
+        <v>20.969581310163637</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" ref="G6:G48" si="7">G5*(1+I6+1.5*I6*I6)</f>
-        <v>23.84480572545311</v>
+        <v>27.989667116328057</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H35" si="8">ROUND(G6,0)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I48" si="9">-1*$B$22*G5*G5</f>
-        <v>-0.40979955456570161</v>
+        <v>-0.37383177570093457</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="5"/>
-        <v>1250</v>
+        <v>1071.4285714285713</v>
       </c>
       <c r="K6" s="4">
         <f>J6-J5</f>
-        <v>178.57142857142867</v>
+        <v>162.33766233766221</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>0x17D84530,</v>
+        <v>0x1BFD5AD2,</v>
       </c>
       <c r="M6" s="19">
         <f t="shared" si="2"/>
-        <v>1258.1356436876538</v>
+        <v>1071.8241083510134</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6525,42 +6530,42 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D37" si="10">G6-G7</f>
-        <v>3.9088333455885476</v>
+        <v>4.4461294109445646</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="6"/>
-        <v>14.326365734149858</v>
+        <v>17.895976530533058</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="7"/>
-        <v>19.935972379864562</v>
+        <v>23.543537705383493</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="9"/>
-        <v>-0.29060487737657409</v>
+        <v>-0.26114048842761872</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" ref="K7:K35" si="11">J7-J6</f>
-        <v>250</v>
+        <v>178.57142857142867</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>0x13EF9BE2,</v>
+        <v>0x178B2549,</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" si="2"/>
-        <v>1504.817494144412</v>
+        <v>1274.2350098532629</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6569,42 +6574,42 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="10"/>
-        <v>2.8157616453399861</v>
+        <v>3.1444351727675723</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="6"/>
-        <v>12.823488782431417</v>
+        <v>15.985485733969318</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="7"/>
-        <v>17.120210734524576</v>
+        <v>20.39910253261592</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="9"/>
-        <v>-0.20313753064014717</v>
+        <v>-0.18476605589493808</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>1764.7058823529412</v>
+        <v>1500</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="11"/>
-        <v>264.70588235294122</v>
+        <v>250</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>0x111EC621,</v>
+        <v>0x14662B95,</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="2"/>
-        <v>1752.3148788993626</v>
+        <v>1470.6529344628423</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6620,42 +6625,42 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="10"/>
-        <v>1.9884108724643514</v>
+        <v>2.2408009463094096</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="6"/>
-        <v>11.745699375196637</v>
+        <v>14.623864683136356</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="7"/>
-        <v>15.131799862060225</v>
+        <v>18.158301586306511</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="9"/>
-        <v>-0.14980749241498229</v>
+        <v>-0.13870779471205907</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="11"/>
-        <v>235.29411764705878</v>
+        <v>166.66666666666674</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>0x0F21BDA2,</v>
+        <v>0x12288673,</v>
       </c>
       <c r="M9" s="19">
         <f t="shared" si="2"/>
-        <v>1982.5797508212245</v>
+        <v>1652.1368949298385</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6671,42 +6676,42 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="10"/>
-        <v>1.4600044998291271</v>
+        <v>1.6667201536901075</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="6"/>
-        <v>10.917467452475021</v>
+        <v>13.581390701044569</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="7"/>
-        <v>13.671795362231098</v>
+        <v>16.491581432616403</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="9"/>
-        <v>-0.11702980983345011</v>
+        <v>-0.10990797216642051</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>2142.8571428571427</v>
+        <v>1875</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="11"/>
-        <v>142.85714285714266</v>
+        <v>208.33333333333326</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>0x0DABFAC7,</v>
+        <v>0x107DD847,</v>
       </c>
       <c r="M10" s="19">
         <f t="shared" si="2"/>
-        <v>2194.2984959295286</v>
+        <v>1819.1099575609635</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6714,49 +6719,49 @@
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="10"/>
-        <v>1.1189709586318966</v>
+        <v>1.2917734992911409</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="6"/>
-        <v>10.252376500225987</v>
+        <v>12.746342636032498</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="7"/>
-        <v>12.552824403599201</v>
+        <v>15.199807933325262</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="9"/>
-        <v>-9.5535860751436594E-2</v>
+        <v>-9.0657419382872695E-2</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>2307.6923076923076</v>
+        <v>2000</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="11"/>
-        <v>164.83516483516496</v>
+        <v>125</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>0x0C8D85E6,</v>
+        <v>0x0F33269C,</v>
       </c>
       <c r="M11" s="19">
         <f t="shared" si="2"/>
-        <v>2389.9003949579878</v>
+        <v>1973.7091502469334</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6771,42 +6776,42 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="10"/>
-        <v>0.88884137745534808</v>
+        <v>1.0353388155565497</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="6"/>
-        <v>9.7015828032820579</v>
+        <v>12.056046390730806</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="7"/>
-        <v>11.663983026143853</v>
+        <v>14.164469117768713</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="9"/>
-        <v>-8.0537515814993341E-2</v>
+        <v>-7.7011387069992526E-2</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>2500</v>
+        <v>2142.8571428571427</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="11"/>
-        <v>192.30769230769238</v>
+        <v>142.85714285714266</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>0x0BA9FACA,</v>
+        <v>0x0E2A1AA5,</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="2"/>
-        <v>2572.0202037980921</v>
+        <v>2117.9756015258135</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6815,42 +6820,42 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="10"/>
-        <v>0.72646829723927553</v>
+        <v>0.85225508901687874</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="6"/>
-        <v>9.2348771017673528</v>
+        <v>11.471937957406334</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="7"/>
-        <v>10.937514728904578</v>
+        <v>13.312214028751834</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="9"/>
-        <v>-6.9535900017465652E-2</v>
+        <v>-6.6877395129407852E-2</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>2727.2727272727275</v>
+        <v>2307.6923076923076</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="11"/>
-        <v>227.27272727272748</v>
+        <v>164.83516483516496</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>0x0AF000F7,</v>
+        <v>0x0D4FED42,</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" si="2"/>
-        <v>2742.8534492135568</v>
+        <v>2253.5695366079408</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6859,42 +6864,42 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="10"/>
-        <v>0.60742555922089281</v>
+        <v>0.71669613076740291</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="6"/>
-        <v>8.8323374349026142</v>
+        <v>10.9686817805724</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="7"/>
-        <v>10.330089169683685</v>
+        <v>12.595517897984431</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="9"/>
-        <v>-6.1143827871891238E-2</v>
+        <v>-5.907168078243237E-2</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>2307.6923076923076</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="11"/>
-        <v>272.72727272727252</v>
+        <v>0</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>0x0A5480B9,</v>
+        <v>0x0C9873DC,</v>
       </c>
       <c r="M14" s="19">
         <f t="shared" si="2"/>
-        <v>2904.1375642760904</v>
+        <v>2381.7996403943566</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6903,46 +6908,46 @@
       </c>
       <c r="B15" s="4">
         <f>(B10*B10-B9*B9)/(2*B11)</f>
-        <v>38.910326086956523</v>
+        <v>59.662500000000001</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="10"/>
-        <v>0.51732009635425236</v>
+        <v>0.61324480050316943</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="6"/>
-        <v>8.4801756062615752</v>
+        <v>10.528793839556215</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="7"/>
-        <v>9.8127690733294326</v>
+        <v>11.982273097481261</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="9"/>
-        <v>-5.4541046040737153E-2</v>
+        <v>-5.2882357039482041E-2</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>192.30769230769238</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>0x09D011A2,</v>
+        <v>0x0BFB763F,</v>
       </c>
       <c r="M15" s="19">
         <f t="shared" si="2"/>
-        <v>3057.2410066734733</v>
+        <v>2503.6985683714856</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
@@ -6951,42 +6956,42 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="10"/>
-        <v>0.44728486748980067</v>
+        <v>0.53228451228874363</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="6"/>
-        <v>8.1684805893663945</v>
+        <v>10.139735605393065</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="7"/>
-        <v>9.3654842058396319</v>
+        <v>11.449988585192518</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="9"/>
-        <v>-4.9215112186428517E-2</v>
+        <v>-4.7858289527541058E-2</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>3333.3333333333335</v>
+        <v>2727.2727272727275</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="11"/>
-        <v>333.33333333333348</v>
+        <v>227.27272727272748</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>0x095D905F,</v>
+        <v>0x0B733273,</v>
       </c>
       <c r="M16" s="19">
         <f t="shared" si="2"/>
-        <v>3203.2513579270349</v>
+        <v>2620.0899482814275</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -6995,34 +7000,34 @@
       </c>
       <c r="B17" s="3">
         <f>B12/SQRT(B9*B9+2*B11)</f>
-        <v>28.315750690980522</v>
+        <v>33.488734331156856</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="10"/>
-        <v>0.39162743370202335</v>
+        <v>0.46757303198042166</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="6"/>
-        <v>7.8899074962519764</v>
+        <v>9.7922325416319662</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="7"/>
-        <v>8.9738567721376086</v>
+        <v>10.982415553212096</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="9"/>
-        <v>-4.4830728253913939E-2</v>
+        <v>-4.3700746200346315E-2</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>3333.3333333333335</v>
+        <v>2727.2727272727275</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="11"/>
@@ -7030,40 +7035,40 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>0x08F94EAD,</v>
+        <v>0x0AFB7F95,</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="2"/>
-        <v>3343.0442185287829</v>
+        <v>2731.6394881111296</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D18" s="3">
         <f t="shared" si="10"/>
-        <v>0.34655809044890162</v>
+        <v>0.41491437486318716</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="6"/>
-        <v>7.6388743573290654</v>
+        <v>9.4792472705557635</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="7"/>
-        <v>8.6272986816887069</v>
+        <v>10.567501178348909</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="9"/>
-        <v>-4.1159831631940459E-2</v>
+        <v>-4.0204483794478316E-2</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>3333.3333333333335</v>
+        <v>2727.2727272727275</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="11"/>
@@ -7071,11 +7076,11 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>0x08A096A5,</v>
+        <v>0x0A9147C1,</v>
       </c>
       <c r="M18" s="19">
         <f t="shared" si="2"/>
-        <v>3477.3341119711649</v>
+        <v>2838.892515239565</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7084,42 +7089,42 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="10"/>
-        <v>0.30947274085920995</v>
+        <v>0.37140100843455137</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="6"/>
-        <v>7.411048285076669</v>
+        <v>9.1953244492807684</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="7"/>
-        <v>8.317825940829497</v>
+        <v>10.196100169914358</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="9"/>
-        <v>-3.8042144410901271E-2</v>
+        <v>-3.7224027051468524E-2</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="11"/>
-        <v>416.66666666666652</v>
+        <v>272.72727272727252</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>0x08515D0A,</v>
+        <v>0x0A32339E,</v>
       </c>
       <c r="M19" s="19">
         <f t="shared" si="2"/>
-        <v>3606.711683246433</v>
+        <v>2942.3014191760326</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7132,30 +7137,30 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="10"/>
-        <v>0.27853204533420595</v>
+        <v>0.33496422069013221</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="6"/>
-        <v>7.2030047375329058</v>
+        <v>8.9361573201419233</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="7"/>
-        <v>8.0392938954952911</v>
+        <v>9.8611359492242254</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
-        <v>-3.5361850061878461E-2</v>
+        <v>-3.4653486224975862E-2</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="11"/>
@@ -7163,11 +7168,11 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>0x080A0F2A,</v>
+        <v>0x09DC7367,</v>
       </c>
       <c r="M20" s="19">
         <f t="shared" si="2"/>
-        <v>3731.6710136458742</v>
+        <v>3042.2458583344142</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7176,30 +7181,30 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="10"/>
-        <v>0.25240524778877838</v>
+        <v>0.30409770616933862</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="6"/>
-        <v>7.0119945972679627</v>
+        <v>8.6982919809590182</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="7"/>
-        <v>7.7868886477065127</v>
+        <v>9.5570382430548868</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
-        <v>-3.3033237017275577E-2</v>
+        <v>-3.241400073636079E-2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="11"/>
@@ -7207,11 +7212,11 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>0x07C97188,</v>
+        <v>0x098E9A0E,</v>
       </c>
       <c r="M21" s="19">
         <f t="shared" si="2"/>
-        <v>3852.6298958745169</v>
+        <v>3139.0478134584259</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7220,46 +7225,46 @@
       </c>
       <c r="B22">
         <f>B11/(B12*B12)</f>
-        <v>5.1111111111111116E-4</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="10"/>
-        <v>0.23010904393888953</v>
+        <v>0.27768216097134868</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="6"/>
-        <v>6.8357807469915413</v>
+        <v>8.4789202355411284</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="7"/>
-        <v>7.5567796037676231</v>
+        <v>9.2793560820835381</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>-3.0991546681576734E-2</v>
+        <v>-3.0445659993071212E-2</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>3750</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>333.33333333333348</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>0x078E891B,</v>
+        <v>0x094783E1,</v>
       </c>
       <c r="M22" s="19">
         <f t="shared" si="2"/>
-        <v>3969.9450788590875</v>
+        <v>3232.9829499617563</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7268,42 +7273,42 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="10"/>
-        <v>0.21090322214598967</v>
+        <v>0.25487078115803996</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="6"/>
-        <v>6.6725207831563296</v>
+        <v>8.2757311412822663</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="7"/>
-        <v>7.3458763816216335</v>
+        <v>9.0244853009254982</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="9"/>
-        <v>-2.9186958078624939E-2</v>
+        <v>-2.870214976603358E-2</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>4285.7142857142853</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="11"/>
-        <v>535.71428571428532</v>
+        <v>0</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>0x07588B5A,</v>
+        <v>0x090644AB,</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="2"/>
-        <v>4083.9238834805128</v>
+        <v>3324.2893084355046</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7312,30 +7317,30 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="10"/>
-        <v>0.19422128685817786</v>
+        <v>0.23501260624167664</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="6"/>
-        <v>6.5206811563153622</v>
+        <v>8.0868024725439884</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="7"/>
-        <v>7.1516550947634556</v>
+        <v>8.7894726946838215</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="9"/>
-        <v>-2.7580526571634015E-2</v>
+        <v>-2.7147111648873457E-2</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>4285.7142857142853</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="11"/>
@@ -7343,11 +7348,11 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>0x0726D2DE,</v>
+        <v>0x08CA1AE1,</v>
       </c>
       <c r="M24" s="19">
         <f t="shared" si="2"/>
-        <v>4194.8331683341985</v>
+        <v>3413.1740369527561</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7356,30 +7361,30 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="10"/>
-        <v>0.17962324906778981</v>
+        <v>0.21760002580582238</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="6"/>
-        <v>6.3789732058168633</v>
+        <v>7.9105199522712821</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="7"/>
-        <v>6.9720318456956658</v>
+        <v>8.5718726688779991</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="9"/>
-        <v>-2.6141376081610893E-2</v>
+        <v>-2.5751610083530826E-2</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>4285.7142857142853</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="11"/>
@@ -7387,11 +7392,11 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>0x06F8D714,</v>
+        <v>0x0892663F,</v>
       </c>
       <c r="M25" s="19">
         <f t="shared" si="2"/>
-        <v>4302.9063354782502</v>
+        <v>3499.8186696031266</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7400,42 +7405,42 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="10"/>
-        <v>0.16676282112278962</v>
+        <v>0.20223209512087692</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="6"/>
-        <v>6.2463047555443607</v>
+        <v>7.745516194040392</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="7"/>
-        <v>6.8052690245728762</v>
+        <v>8.3696405737571222</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="9"/>
-        <v>-2.4844716562668307E-2</v>
+        <v>-2.4492333683819211E-2</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>4285.7142857142853</v>
+        <v>3750</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>416.66666666666652</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>0x06CE261C,</v>
+        <v>0x085EA0C3,</v>
       </c>
       <c r="M26" s="19">
         <f t="shared" si="2"/>
-        <v>4408.3488678660888</v>
+        <v>3584.3833119984306</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7444,30 +7449,30 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="10"/>
-        <v>0.15536418664085083</v>
+        <v>0.18858842462433145</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="6"/>
-        <v>6.1217429683462772</v>
+        <v>7.5906238885225576</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="7"/>
-        <v>6.6499048379320254</v>
+        <v>8.1810521491327908</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="9"/>
-        <v>-2.3670417542814546E-2</v>
+        <v>-2.3350294444627148E-2</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>4285.7142857142853</v>
+        <v>3750</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="11"/>
@@ -7475,11 +7480,11 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>0x06A66029,</v>
+        <v>0x082E596F,</v>
       </c>
       <c r="M27" s="19">
         <f t="shared" si="2"/>
-        <v>4511.3427531888328</v>
+        <v>3667.0099949405731</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7488,30 +7493,30 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="10"/>
-        <v>0.14520526751904494</v>
+        <v>0.17641028446371898</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="6"/>
-        <v>6.00448547782399</v>
+        <v>7.4448394515357723</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="7"/>
-        <v>6.5046995704129804</v>
+        <v>8.0046418646690718</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="9"/>
-        <v>-2.260196422514868E-2</v>
+        <v>-2.230987142227675E-2</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>4285.7142857142853</v>
+        <v>3750</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="11"/>
@@ -7519,11 +7524,11 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>0x068133FD,</v>
+        <v>0x08013035,</v>
       </c>
       <c r="M28" s="19">
         <f t="shared" si="2"/>
-        <v>4612.0500532348669</v>
+        <v>3747.8253877183624</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
@@ -7532,42 +7537,42 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="10"/>
-        <v>0.1361054825379675</v>
+        <v>0.16548672245198404</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="6"/>
-        <v>5.8938376943024755</v>
+        <v>7.3072944681864946</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="7"/>
-        <v>6.3685940878750129</v>
+        <v>7.8391551422170878</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="9"/>
-        <v>-2.162568176734686E-2</v>
+        <v>-2.135809712720425E-2</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="11"/>
-        <v>714.28571428571468</v>
+        <v>0</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>0x065E5C2E,</v>
+        <v>0x07D6D2DF,</v>
       </c>
       <c r="M29" s="19">
         <f t="shared" si="2"/>
-        <v>4710.6158103428443</v>
+        <v>3826.9430130853784</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -7576,30 +7581,30 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="10"/>
-        <v>0.1279166643689944</v>
+        <v>0.15564422379518028</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="6"/>
-        <v>5.7891947771156733</v>
+        <v>7.1772330240864832</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="7"/>
-        <v>6.2406774235060185</v>
+        <v>7.6835109184219075</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="9"/>
-        <v>-2.0730150779792914E-2</v>
+        <v>-2.0484117781249533E-2</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="11"/>
@@ -7607,11 +7612,11 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>0x063D9D09,</v>
+        <v>0x07AEFA92,</v>
       </c>
       <c r="M30" s="19">
         <f t="shared" si="2"/>
-        <v>4807.1704342548719</v>
+        <v>3904.4650705281497</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -7620,30 +7625,30 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="10"/>
-        <v>0.12051623231421349</v>
+        <v>0.14673891116019799</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="6"/>
-        <v>5.6900271761307488</v>
+        <v>7.0539935360380976</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="7"/>
-        <v>6.120161191191805</v>
+        <v>7.5367720072617095</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="9"/>
-        <v>-1.9905761293287281E-2</v>
+        <v>-1.9678780011169555E-2</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="11"/>
@@ -7651,11 +7656,11 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>0x061EC2E2,</v>
+        <v>0x078969E3,</v>
       </c>
       <c r="M31" s="19">
         <f t="shared" si="2"/>
-        <v>4901.8316777630444</v>
+        <v>3980.4839487110507</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -7664,42 +7669,42 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="10"/>
-        <v>0.1138019992370598</v>
+        <v>0.13865059234562516</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>5.5958689335211558</v>
+        <v>6.9369940598562074</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="7"/>
-        <v>6.0063591919547452</v>
+        <v>7.3981214149160843</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="9"/>
-        <v>-1.9144368425375931E-2</v>
+        <v>-1.8934310763147898E-2</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>535.71428571428532</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>0x0601A0C1,</v>
+        <v>0x0765EB48,</v>
       </c>
       <c r="M32" s="19">
         <f t="shared" si="2"/>
-        <v>4994.7062839970813</v>
+        <v>4055.0834891022514</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -7708,30 +7713,30 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="10"/>
-        <v>0.10768817804475539</v>
+        <v>0.1312781690654905</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>5.5063081418393915</v>
+        <v>6.8257203127230452</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="7"/>
-        <v>5.8986710139099898</v>
+        <v>7.2668432458505938</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="9"/>
-        <v>-1.8439023712976066E-2</v>
+        <v>-1.8244066823279989E-2</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="11"/>
@@ -7739,40 +7744,40 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" si="1"/>
-        <v>0x05E60F4D,</v>
+        <v>0x07444FD6,</v>
       </c>
       <c r="M33" s="19">
         <f t="shared" si="2"/>
-        <v>5085.8913693025606</v>
+        <v>4128.3400487729195</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D34" s="3">
         <f t="shared" si="10"/>
-        <v>0.10210227941709249</v>
+        <v>0.12453606040121379</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="6"/>
-        <v>5.4209791023696212</v>
+        <v>6.7197158346899313</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="7"/>
-        <v>5.7965687344928973</v>
+        <v>7.14230718544938</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="9"/>
-        <v>-1.778376341773031E-2</v>
+        <v>-1.7602336919921465E-2</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="11"/>
@@ -7780,11 +7785,11 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
-        <v>0x05CBEBED,</v>
+        <v>0x07246E3E,</v>
       </c>
       <c r="M34" s="19">
         <f t="shared" si="2"/>
-        <v>5175.475591531047</v>
+        <v>4200.3233998556252</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7793,30 +7798,30 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="10"/>
-        <v>9.6982679185231291E-2</v>
+        <v>0.11835139100422065</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="6"/>
-        <v>5.3395558358089321</v>
+        <v>6.6185738505980378</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="7"/>
-        <v>5.699586055307666</v>
+        <v>7.0239557944451594</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="9"/>
-        <v>-1.7173440203446969E-2</v>
+        <v>-1.700418397710728E-2</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="11"/>
@@ -7824,11 +7829,11 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
-        <v>0x05B31812,</v>
+        <v>0x070621F7,</v>
       </c>
       <c r="M35" s="19">
         <f t="shared" si="2"/>
-        <v>5263.5401428956211</v>
+        <v>4271.0974951928465</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -7837,23 +7842,27 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="10"/>
-        <v>9.2276694126786296E-2</v>
+        <v>0.11266176159285202</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="7"/>
-        <v>5.6073093611808797</v>
+        <v>6.9112940328523074</v>
+      </c>
+      <c r="H36" s="12">
+        <f>ROUND(G36,0)</f>
+        <v>7</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="9"/>
-        <v>-1.660358816983833E-2</v>
+        <v>-1.6445318334106576E-2</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
-        <v>0x059B78A0,</v>
+        <v>0x06E94A90,</v>
       </c>
       <c r="M36" s="19">
         <f t="shared" si="2"/>
-        <v>5350.1595984142568</v>
+        <v>4340.7211236271087</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -7862,95 +7871,115 @@
       </c>
       <c r="D37" s="3">
         <f t="shared" si="10"/>
-        <v>8.7939047521834013E-2</v>
+        <v>0.10741346704648169</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="7"/>
-        <v>5.5193703136590457</v>
+        <v>6.8038805658058257</v>
+      </c>
+      <c r="H37" s="13">
+        <f>ROUND(G37,0)</f>
+        <v>7</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="9"/>
-        <v>-1.6070313783459883E-2</v>
+        <v>-1.5921995069513303E-2</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
-        <v>0x0584F573,</v>
+        <v>0x06CDCB1D,</v>
       </c>
       <c r="M37" s="19">
         <f t="shared" si="2"/>
-        <v>5435.4026447106817</v>
+        <v>4409.2484736975857</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G38" s="3">
         <f t="shared" si="7"/>
-        <v>5.4354396774403675</v>
+        <v>6.701320504186203</v>
+      </c>
+      <c r="H38" s="13">
+        <f>ROUND(G38,0)</f>
+        <v>7</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="9"/>
-        <v>-1.5570207092531499E-2</v>
+        <v>-1.5430930251250067E-2</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
-        <v>0x056F78F9,</v>
+        <v>0x06B389BD,</v>
       </c>
       <c r="M38" s="19">
         <f t="shared" si="2"/>
-        <v>5519.3327090932717</v>
+        <v>4476.7296208649477</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G39" s="3">
         <f t="shared" si="7"/>
-        <v>5.3552221445214583</v>
+        <v>6.6032593085920759</v>
+      </c>
+      <c r="H39" s="8">
+        <f>ROUND(G39,0)</f>
+        <v>7</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="9"/>
-        <v>-1.5100268960069779E-2</v>
+        <v>-1.4969232166608809E-2</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
-        <v>0x055AEFD6,</v>
+        <v>0x069A6F33,</v>
       </c>
       <c r="M39" s="19">
         <f t="shared" si="2"/>
-        <v>5602.0085050422858</v>
+        <v>4543.2109505323206</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G40" s="3">
         <f t="shared" si="7"/>
-        <v>5.2784519710975539</v>
+        <v>6.509377642748535</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" ref="H40:H53" si="12">ROUND(G40,0)</f>
+        <v>7</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="9"/>
-        <v>-1.4657851044332872E-2</v>
+        <v>-1.4534344498835967E-2</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
-        <v>0x054748A0,</v>
+        <v>0x06826692,</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" si="2"/>
-        <v>5683.4845072507251</v>
+        <v>4608.7355268779165</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G41" s="3">
         <f t="shared" si="7"/>
-        <v>5.204889280690046</v>
+        <v>6.4193870065390675</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="9"/>
-        <v>-1.4240605996827201E-2</v>
+        <v>-1.4123999098638157E-2</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
-        <v>0x0534739F,</v>
+        <v>0x066B5CF2,</v>
       </c>
       <c r="M41" s="19">
         <f t="shared" si="2"/>
-        <v>5763.8113669965915</v>
+        <v>4673.3434157250049</v>
       </c>
       <c r="Q41">
         <v>1.1000000000000001</v>
@@ -7965,25 +7994,29 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <f t="shared" si="7"/>
-        <v>5.1343169166097535</v>
+        <v>6.3330260129289959</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="9"/>
-        <v>-1.3846445905723764E-2</v>
+        <v>-1.3736176513240869E-2</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
-        <v>0x05226297,</v>
+        <v>0x06554131,</v>
       </c>
       <c r="M42" s="19">
         <f t="shared" si="2"/>
-        <v>5843.0362767340303</v>
+        <v>4737.0719682430508</v>
       </c>
       <c r="Q42">
         <v>1.2</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" ref="R42:R70" si="12" xml:space="preserve"> -66.667*POWER(Q42,3) + 500*POWER(Q42,2) - 833.33*Q42</f>
+        <f t="shared" ref="R42:R70" si="13" xml:space="preserve"> -66.667*POWER(Q42,3) + 500*POWER(Q42,2) - 833.33*Q42</f>
         <v>-395.19657599999994</v>
       </c>
     </row>
@@ -7992,25 +8025,29 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3">
         <f t="shared" si="7"/>
-        <v>5.0665377498897692</v>
+        <v>6.250057199584381</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="9"/>
-        <v>-1.3473507435650156E-2</v>
+        <v>-1.3369072826811778E-2</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
-        <v>0x0511089E,</v>
+        <v>0x064003BF,</v>
       </c>
       <c r="M43" s="19">
         <f t="shared" si="2"/>
-        <v>5921.2032912717759</v>
+        <v>4799.9560711212298</v>
       </c>
       <c r="Q43">
         <v>1.3</v>
       </c>
       <c r="R43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-384.79639900000006</v>
       </c>
     </row>
@@ -8019,25 +8056,29 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3">
         <f t="shared" si="7"/>
-        <v>5.0013723668418848</v>
+        <v>6.1702642868002089</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="9"/>
-        <v>-1.3120122438540801E-2</v>
+        <v>-1.302107166602552E-2</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
-        <v>0x050059F0,</v>
+        <v>0x062B9670,</v>
       </c>
       <c r="M44" s="19">
         <f t="shared" si="2"/>
-        <v>5998.3536116794867</v>
+        <v>4862.028367922223</v>
       </c>
       <c r="Q44">
         <v>1.4</v>
       </c>
       <c r="R44" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-369.59624800000006</v>
       </c>
     </row>
@@ -8046,25 +8087,29 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3">
         <f t="shared" si="7"/>
-        <v>4.9386570745905694</v>
+        <v>6.0934498097812888</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="9"/>
-        <v>-1.2784793059813795E-2</v>
+        <v>-1.2690720456320697E-2</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
-        <v>0x04F04BD4,</v>
+        <v>0x0617EC53,</v>
       </c>
       <c r="M45" s="19">
         <f t="shared" si="2"/>
-        <v>6074.5258370641368</v>
+        <v>4923.3194555641685</v>
       </c>
       <c r="Q45">
         <v>1.5</v>
       </c>
       <c r="R45" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-349.99612500000012</v>
       </c>
     </row>
@@ -8073,25 +8118,29 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3">
         <f t="shared" si="7"/>
-        <v>4.878242174200623</v>
+        <v>6.019433066373475</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="9"/>
-        <v>-1.2466170557984003E-2</v>
+        <v>-1.2376710194774541E-2</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
-        <v>0x04E0D47A,</v>
+        <v>0x0604F990,</v>
       </c>
       <c r="M46" s="19">
         <f t="shared" si="2"/>
-        <v>6149.756188542643</v>
+        <v>4983.8580592564149</v>
       </c>
       <c r="Q46">
         <v>1.6</v>
       </c>
       <c r="R46" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-326.3960320000001</v>
       </c>
     </row>
@@ -8100,25 +8149,29 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3">
         <f t="shared" si="7"/>
-        <v>4.8199904600018053</v>
+        <v>5.9480483317779456</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="9"/>
-        <v>-1.2163037207409808E-2</v>
+        <v>-1.2077858146850124E-2</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
-        <v>0x04D1EAE5,</v>
+        <v>0x05F2B34B,</v>
       </c>
       <c r="M47" s="19">
         <f t="shared" si="2"/>
-        <v>6224.0787090663171</v>
+        <v>5043.6711887027705</v>
       </c>
       <c r="Q47">
         <v>1.7</v>
       </c>
       <c r="R47" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-299.19597100000033</v>
       </c>
     </row>
@@ -8127,25 +8180,29 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3">
         <f t="shared" si="7"/>
-        <v>4.763775910927313</v>
+        <v>5.8791433001707194</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="9"/>
-        <v>-1.1874290773193191E-2</v>
+        <v>-1.1793092985722132E-2</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
-        <v>0x04C386D1,</v>
+        <v>0x05E10F89,</v>
       </c>
       <c r="M48" s="19">
         <f t="shared" si="2"/>
-        <v>6297.5254421991112</v>
+        <v>5102.7842779625489</v>
       </c>
       <c r="Q48">
         <v>1.8</v>
       </c>
       <c r="R48" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-268.79594400000019</v>
       </c>
     </row>
@@ -8153,26 +8210,30 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
-        <f t="shared" ref="G49:G53" si="13">G48*(1+I49+1.5*I49*I49)</f>
-        <v>4.7094825455050353</v>
+        <f t="shared" ref="G49:G112" si="14">G48*(1+I49+1.5*I49*I49)</f>
+        <v>5.812577719931209</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" ref="I49:I53" si="14">-1*$B$22*G48*G48</f>
-        <v>-1.159893114176047E-2</v>
+        <f t="shared" ref="I49:I112" si="15">-1*$B$22*G48*G48</f>
+        <v>-1.1521441981314086E-2</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" ref="L49:L53" si="15">CONCATENATE("0x",DEC2HEX(G49*POWER(2,24),8),",")</f>
-        <v>0x04B5A0A5,</v>
+        <f t="shared" ref="L49:L53" si="16">CONCATENATE("0x",DEC2HEX(G49*POWER(2,24),8),",")</f>
+        <v>0x05D00517,</v>
       </c>
       <c r="M49" s="19">
-        <f t="shared" ref="M49:M53" si="16">$B$12/G49</f>
-        <v>6370.12659249231</v>
+        <f t="shared" ref="M49:M53" si="17">$B$12/G49</f>
+        <v>5161.2213110081293</v>
       </c>
       <c r="Q49">
         <v>1.9</v>
       </c>
       <c r="R49" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-235.59595300000001</v>
       </c>
     </row>
@@ -8180,26 +8241,30 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
-        <f t="shared" si="13"/>
-        <v>4.6570034168642778</v>
+        <f t="shared" si="14"/>
+        <v>5.7482221946940451</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.1336048765946257E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.1262019916746897E-2</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="15"/>
-        <v>0x04A83160,</v>
+        <f t="shared" si="16"/>
+        <v>0x05BF8B7D,</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="16"/>
-        <v>6441.9106697156003</v>
+        <f t="shared" si="17"/>
+        <v>5219.0049347243057</v>
       </c>
       <c r="Q50">
         <v>2</v>
       </c>
       <c r="R50" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-199.99600000000009</v>
       </c>
     </row>
@@ -8207,26 +8272,30 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
-        <f t="shared" si="13"/>
-        <v>4.6062397279725129</v>
+        <f t="shared" si="14"/>
+        <v>5.6859571269380798</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.1084814643728175E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.1014019466524408E-2</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="15"/>
-        <v>0x049B3286,</v>
+        <f t="shared" si="16"/>
+        <v>0x05AF9AE2,</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="16"/>
-        <v>6512.9046188841821</v>
+        <f t="shared" si="17"/>
+        <v>5276.1565608489154</v>
       </c>
       <c r="Q51">
         <v>2.1</v>
       </c>
       <c r="R51" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-162.39608700000031</v>
       </c>
     </row>
@@ -8234,865 +8303,1866 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
-        <f t="shared" si="13"/>
-        <v>4.5571000504726502</v>
+        <f t="shared" si="14"/>
+        <v>5.625671784518131</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.0844471598348948E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.0776702816459314E-2</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="15"/>
-        <v>0x048E9E1B,</v>
+        <f t="shared" si="16"/>
+        <v>0x05A02C06,</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="16"/>
-        <v>6583.133937752471</v>
+        <f t="shared" si="17"/>
+        <v>5332.6964581474713</v>
       </c>
       <c r="Q52">
         <v>2.2000000000000002</v>
       </c>
       <c r="R52" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-123.19621600000005</v>
       </c>
     </row>
-    <row r="53" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
-        <f t="shared" si="13"/>
-        <v>4.5094996330888746</v>
+        <f t="shared" si="14"/>
+        <v>5.567263473587408</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.0614326666898004E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.0549394342374471E-2</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="15"/>
-        <v>0x04826E91,</v>
+        <f t="shared" si="16"/>
+        <v>0x0591382D,</v>
       </c>
       <c r="M53" s="19">
-        <f t="shared" si="16"/>
-        <v>6652.6227832179429</v>
+        <f t="shared" si="17"/>
+        <v>5388.6438359398744</v>
       </c>
       <c r="Q53">
         <v>2.2999999999999998</v>
       </c>
       <c r="R53" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-82.79638900000009</v>
       </c>
     </row>
     <row r="54" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="I54" s="2"/>
+      <c r="G54" s="3">
+        <f t="shared" si="14"/>
+        <v>5.5106368038766425</v>
+      </c>
+      <c r="H54" s="12">
+        <f>ROUND(G54,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.0331474194780177E-2</v>
+      </c>
       <c r="Q54">
         <v>2.4</v>
       </c>
       <c r="R54" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-41.59660800000006</v>
       </c>
     </row>
     <row r="55" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="3">
+        <f t="shared" si="14"/>
+        <v>5.4557030343886819</v>
+      </c>
+      <c r="H55" s="13">
+        <f>ROUND(G55,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.0122372661413259E-2</v>
+      </c>
       <c r="Q55">
         <v>2.5</v>
       </c>
       <c r="R55" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1249999997271516E-3</v>
       </c>
     </row>
     <row r="56" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="I56" s="2"/>
+      <c r="G56" s="3">
+        <f t="shared" si="14"/>
+        <v>5.4023794893133905</v>
+      </c>
+      <c r="H56" s="13">
+        <f>ROUND(G56,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="15"/>
+        <v>-9.9215651998126233E-3</v>
+      </c>
       <c r="Q56">
         <v>2.6</v>
       </c>
       <c r="R56" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.602807999999641</v>
       </c>
     </row>
     <row r="57" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="3">
+        <f t="shared" si="14"/>
+        <v>5.3505890354300423</v>
+      </c>
+      <c r="H57" s="8">
+        <f>ROUND(G57,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="15"/>
+        <v>-9.7285680488513361E-3</v>
+      </c>
       <c r="Q57">
         <v>2.7</v>
       </c>
       <c r="R57" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>82.802438999999595</v>
       </c>
     </row>
     <row r="58" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="I58" s="2"/>
+      <c r="G58" s="3">
+        <f t="shared" si="14"/>
+        <v>5.3002596134936004</v>
+      </c>
+      <c r="H58" s="8">
+        <f t="shared" ref="H58:H111" si="18">ROUND(G58,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="15"/>
+        <v>-9.5429343420213968E-3</v>
+      </c>
       <c r="Q58">
         <v>2.8</v>
       </c>
       <c r="R58" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>123.20201599999973</v>
       </c>
     </row>
     <row r="59" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="3">
+        <f t="shared" si="14"/>
+        <v>5.2513238171380126</v>
+      </c>
+      <c r="H59" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="15"/>
+        <v>-9.3642506568104439E-3</v>
+      </c>
       <c r="Q59">
         <v>2.9</v>
       </c>
       <c r="R59" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>162.40153699999973</v>
       </c>
     </row>
     <row r="60" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="3">
+        <f t="shared" si="14"/>
+        <v>5.2037185137071038</v>
+      </c>
+      <c r="H60" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="15"/>
+        <v>-9.1921339441469827E-3</v>
+      </c>
       <c r="Q60">
         <v>3</v>
       </c>
       <c r="R60" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>200.00099999999975</v>
       </c>
     </row>
     <row r="61" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="I61" s="2"/>
+      <c r="G61" s="3">
+        <f t="shared" si="14"/>
+        <v>5.1573845021685374</v>
+      </c>
+      <c r="H61" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="15"/>
+        <v>-9.0262287899660239E-3</v>
+      </c>
       <c r="Q61">
         <v>3.1</v>
       </c>
       <c r="R61" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>235.60040300000037</v>
       </c>
     </row>
     <row r="62" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="I62" s="2"/>
+      <c r="G62" s="3">
+        <f t="shared" si="14"/>
+        <v>5.1122662039007674</v>
+      </c>
+      <c r="H62" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.8662049677360709E-3</v>
+      </c>
       <c r="Q62">
         <v>3.2</v>
       </c>
       <c r="R62" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>268.79974399999992</v>
       </c>
     </row>
     <row r="63" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="I63" s="2"/>
+      <c r="G63" s="3">
+        <f t="shared" si="14"/>
+        <v>5.0683113826847572</v>
+      </c>
+      <c r="H63" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.7117552465153202E-3</v>
+      </c>
       <c r="Q63">
         <v>3.3</v>
       </c>
       <c r="R63" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>299.19902099999899</v>
       </c>
     </row>
     <row r="64" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="I64" s="2"/>
+      <c r="G64" s="3">
+        <f t="shared" si="14"/>
+        <v>5.0254708906964884</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.5625934239506249E-3</v>
+      </c>
       <c r="Q64">
         <v>3.4</v>
       </c>
       <c r="R64" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>326.3982319999991</v>
       </c>
     </row>
     <row r="65" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="I65" s="2"/>
+      <c r="G65" s="3">
+        <f t="shared" si="14"/>
+        <v>4.9836984376949882</v>
+      </c>
+      <c r="H65" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.4184525577459188E-3</v>
+      </c>
       <c r="Q65">
         <v>3.5</v>
       </c>
       <c r="R65" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>349.99737499999992</v>
       </c>
     </row>
     <row r="66" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="I66" s="2"/>
+      <c r="G66" s="3">
+        <f t="shared" si="14"/>
+        <v>4.9429503809440645</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.2790833726278223E-3</v>
+      </c>
       <c r="Q66">
         <v>3.6</v>
       </c>
       <c r="R66" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>369.59644799999933</v>
       </c>
     </row>
     <row r="67" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="I67" s="2"/>
+      <c r="G67" s="3">
+        <f t="shared" si="14"/>
+        <v>4.9031855337025094</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.1442528228250245E-3</v>
+      </c>
       <c r="Q67">
         <v>3.7</v>
       </c>
       <c r="R67" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>384.79544900000019</v>
       </c>
     </row>
     <row r="68" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="I68" s="2"/>
+      <c r="G68" s="3">
+        <f t="shared" si="14"/>
+        <v>4.864364990374221</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.0137427926365214E-3</v>
+      </c>
       <c r="Q68">
         <v>3.8</v>
       </c>
       <c r="R68" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>395.19437600000037</v>
       </c>
     </row>
     <row r="69" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="I69" s="2"/>
+      <c r="G69" s="3">
+        <f t="shared" si="14"/>
+        <v>4.8264519666325052</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.8873489198594653E-3</v>
+      </c>
       <c r="Q69">
         <v>3.9</v>
       </c>
       <c r="R69" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>400.39322699999911</v>
       </c>
     </row>
     <row r="70" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="I70" s="2"/>
+      <c r="G70" s="3">
+        <f t="shared" si="14"/>
+        <v>4.7894116530265443</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.7648795287369255E-3</v>
+      </c>
       <c r="Q70">
         <v>4</v>
       </c>
       <c r="R70" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>399.99199999999973</v>
       </c>
     </row>
     <row r="71" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="I71" s="2"/>
+      <c r="G71" s="3">
+        <f t="shared" si="14"/>
+        <v>4.7532110807469472</v>
+      </c>
+      <c r="H71" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.6461546607154846E-3</v>
+      </c>
       <c r="Q71">
         <v>4.0999999999999996</v>
       </c>
       <c r="R71" s="16">
-        <f t="shared" ref="R71:R86" si="17" xml:space="preserve"> -66.667*POWER(Q71,3) + 500*POWER(Q71,2) - 833.33*Q71</f>
+        <f t="shared" ref="R71:R86" si="19" xml:space="preserve"> -66.667*POWER(Q71,3) + 500*POWER(Q71,2) - 833.33*Q71</f>
         <v>393.59069300000056</v>
       </c>
     </row>
     <row r="72" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="I72" s="2"/>
+      <c r="G72" s="3">
+        <f t="shared" si="14"/>
+        <v>4.7178189983748489</v>
+      </c>
+      <c r="H72" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.5310051927118538E-3</v>
+      </c>
       <c r="Q72">
         <v>4.2</v>
       </c>
       <c r="R72" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>380.78930399999945</v>
       </c>
     </row>
     <row r="73" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="I73" s="2"/>
+      <c r="G73" s="3">
+        <f t="shared" si="14"/>
+        <v>4.6832057585682101</v>
+      </c>
+      <c r="H73" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.4192720338088864E-3</v>
+      </c>
       <c r="Q73">
         <v>4.3</v>
       </c>
       <c r="R73" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>361.18783100000064</v>
       </c>
     </row>
     <row r="74" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="I74" s="2"/>
+      <c r="G74" s="3">
+        <f t="shared" si="14"/>
+        <v>4.6493432137523101</v>
+      </c>
+      <c r="H74" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.3108053923621481E-3</v>
+      </c>
       <c r="Q74">
         <v>4.4000000000000004</v>
       </c>
       <c r="R74" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>334.38627199999928</v>
       </c>
     </row>
     <row r="75" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="I75" s="2"/>
+      <c r="G75" s="3">
+        <f t="shared" si="14"/>
+        <v>4.616204619981036</v>
+      </c>
+      <c r="H75" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.2054641064215521E-3</v>
+      </c>
       <c r="Q75">
         <v>4.5</v>
       </c>
       <c r="R75" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>299.9846249999996</v>
       </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="I76" s="2"/>
+      <c r="G76" s="3">
+        <f t="shared" si="14"/>
+        <v>4.5837645482233187</v>
+      </c>
+      <c r="H76" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.1031150311780871E-3</v>
+      </c>
       <c r="Q76">
         <v>4.5999999999999996</v>
       </c>
       <c r="R76" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>257.58288800000037</v>
       </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="I77" s="2"/>
+      <c r="G77" s="3">
+        <f t="shared" si="14"/>
+        <v>4.5519988024064704</v>
+      </c>
+      <c r="H77" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.003632477849641E-3</v>
+      </c>
       <c r="Q77">
         <v>4.7</v>
       </c>
       <c r="R77" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>206.78105899999946</v>
       </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="I78" s="2"/>
+      <c r="G78" s="3">
+        <f t="shared" si="14"/>
+        <v>4.5208843436166273</v>
+      </c>
+      <c r="H78" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.9068976990366467E-3</v>
+      </c>
       <c r="Q78">
         <v>4.8</v>
       </c>
       <c r="R78" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>147.1791360000002</v>
       </c>
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="I79" s="2"/>
+      <c r="G79" s="3">
+        <f t="shared" si="14"/>
+        <v>4.490399219917073</v>
+      </c>
+      <c r="H79" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.8127984161193136E-3</v>
+      </c>
       <c r="Q79">
         <v>4.9000000000000004</v>
       </c>
       <c r="R79" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>78.377116999999544</v>
       </c>
     </row>
     <row r="80" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="I80" s="2"/>
+      <c r="G80" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4605225012990051</v>
+      </c>
+      <c r="H80" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.7212283847439521E-3</v>
+      </c>
       <c r="Q80">
         <v>5</v>
       </c>
       <c r="R80" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.5000000000545697E-2</v>
       </c>
     </row>
     <row r="81" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="I81" s="2"/>
+      <c r="G81" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4312342193270373</v>
+      </c>
+      <c r="H81" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.6320869948649106E-3</v>
+      </c>
       <c r="Q81">
         <v>5.0999999999999996</v>
       </c>
       <c r="R81" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-88.427217000000383</v>
       </c>
     </row>
     <row r="82" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="I82" s="2"/>
+      <c r="G82" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4025153110842545</v>
+      </c>
+      <c r="H82" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.5452789021782998E-3</v>
+      </c>
       <c r="Q82">
         <v>5.2</v>
       </c>
       <c r="R82" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-187.22953600000073</v>
       </c>
     </row>
     <row r="83" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="I83" s="2"/>
+      <c r="G83" s="3">
+        <f t="shared" si="14"/>
+        <v>4.3743475670595169</v>
+      </c>
+      <c r="H83" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.4607136881104296E-3</v>
+      </c>
       <c r="Q83">
         <v>5.3</v>
       </c>
       <c r="R83" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-296.8319590000001</v>
       </c>
     </row>
     <row r="84" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="I84" s="2"/>
+      <c r="G84" s="3">
+        <f t="shared" si="14"/>
+        <v>4.346713582653531</v>
+      </c>
+      <c r="H84" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.3783055458131715E-3</v>
+      </c>
       <c r="Q84">
         <v>5.4</v>
       </c>
       <c r="R84" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-417.6344880000006</v>
       </c>
     </row>
     <row r="85" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="I85" s="2"/>
+      <c r="G85" s="3">
+        <f t="shared" si="14"/>
+        <v>4.3195967130104567</v>
+      </c>
+      <c r="H85" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.297972989874898E-3</v>
+      </c>
       <c r="Q85">
         <v>5.5</v>
       </c>
       <c r="R85" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-550.03712500000074</v>
       </c>
     </row>
     <row r="86" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="I86" s="2"/>
+      <c r="G86" s="3">
+        <f t="shared" si="14"/>
+        <v>4.2929810309088792</v>
+      </c>
+      <c r="H86" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.2196385876835802E-3</v>
+      </c>
       <c r="Q86">
         <v>5.6</v>
       </c>
       <c r="R86" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-694.43987199999992</v>
       </c>
     </row>
     <row r="87" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="I87" s="2"/>
+      <c r="G87" s="3">
+        <f t="shared" si="14"/>
+        <v>4.2668512874702698</v>
+      </c>
+      <c r="H87" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.1432287105811544E-3</v>
+      </c>
     </row>
     <row r="88" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="I88" s="2"/>
+      <c r="G88" s="3">
+        <f t="shared" si="14"/>
+        <v>4.2411928754648454</v>
+      </c>
+      <c r="H88" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.0686733031288988E-3</v>
+      </c>
     </row>
     <row r="89" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="I89" s="2"/>
+      <c r="G89" s="3">
+        <f t="shared" si="14"/>
+        <v>4.2159917950143377</v>
+      </c>
+      <c r="H89" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.9959056689645879E-3</v>
+      </c>
     </row>
     <row r="90" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="I90" s="2"/>
+      <c r="G90" s="3">
+        <f t="shared" si="14"/>
+        <v>4.1912346215088334</v>
+      </c>
+      <c r="H90" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.9248622718760724E-3</v>
+      </c>
     </row>
     <row r="91" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="I91" s="2"/>
+      <c r="G91" s="3">
+        <f t="shared" si="14"/>
+        <v>4.1669084755707448</v>
+      </c>
+      <c r="H91" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.8554825508447643E-3</v>
+      </c>
     </row>
     <row r="92" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="I92" s="2"/>
+      <c r="G92" s="3">
+        <f t="shared" si="14"/>
+        <v>4.1430009949133293</v>
+      </c>
+      <c r="H92" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.7877087479277691E-3</v>
+      </c>
     </row>
     <row r="93" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="I93" s="2"/>
+      <c r="G93" s="3">
+        <f t="shared" si="14"/>
+        <v>4.1195003079541443</v>
+      </c>
+      <c r="H93" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.7214857479509452E-3</v>
+      </c>
     </row>
     <row r="94" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="I94" s="2"/>
+      <c r="G94" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0963950090555672</v>
+      </c>
+      <c r="H94" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.6567609290780968E-3</v>
+      </c>
     </row>
     <row r="95" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="I95" s="2"/>
+      <c r="G95" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0736741352751364</v>
+      </c>
+      <c r="H95" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.59348402340512E-3</v>
+      </c>
     </row>
     <row r="96" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="I96" s="2"/>
+      <c r="G96" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0513271445181038</v>
+      </c>
+      <c r="H96" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.53160698680321E-3</v>
+      </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="I97" s="2"/>
+      <c r="G97" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0293438949933602</v>
+      </c>
+      <c r="H97" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.4710838773030703E-3</v>
+      </c>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="I98" s="2"/>
+      <c r="G98" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0077146258818193</v>
+      </c>
+      <c r="H98" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.411870741373421E-3</v>
+      </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="I99" s="2"/>
+      <c r="G99" s="3">
+        <f t="shared" si="14"/>
+        <v>3.9864299391336124</v>
+      </c>
+      <c r="H99" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.3539255075023499E-3</v>
+      </c>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="I100" s="2"/>
+      <c r="G100" s="3">
+        <f t="shared" si="14"/>
+        <v>3.9654807823170168</v>
+      </c>
+      <c r="H100" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.2972078865402726E-3</v>
+      </c>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="I101" s="2"/>
+      <c r="G101" s="3">
+        <f t="shared" si="14"/>
+        <v>3.9448584324480542</v>
+      </c>
+      <c r="H101" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.2416792783085264E-3</v>
+      </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="I102" s="2"/>
+      <c r="G102" s="3">
+        <f t="shared" si="14"/>
+        <v>3.9245544807351793</v>
+      </c>
+      <c r="H102" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.1873026840188394E-3</v>
+      </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="I103" s="2"/>
+      <c r="G103" s="3">
+        <f t="shared" si="14"/>
+        <v>3.9045608181784863</v>
+      </c>
+      <c r="H103" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.1340426240861908E-3</v>
+      </c>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="I104" s="2"/>
+      <c r="G104" s="3">
+        <f t="shared" si="14"/>
+        <v>3.8848696219674421</v>
+      </c>
+      <c r="H104" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.0818650609515499E-3</v>
+      </c>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="I105" s="2"/>
+      <c r="G105" s="3">
+        <f t="shared" si="14"/>
+        <v>3.8654733426253411</v>
+      </c>
+      <c r="H105" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.0307373265618188E-3</v>
+      </c>
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="I106" s="2"/>
+      <c r="G106" s="3">
+        <f t="shared" si="14"/>
+        <v>3.8463646918525205</v>
+      </c>
+      <c r="H106" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.9806280541823764E-3</v>
+      </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="I107" s="2"/>
+      <c r="G107" s="3">
+        <f t="shared" si="14"/>
+        <v>3.827536631023893</v>
+      </c>
+      <c r="H107" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.9315071142432441E-3</v>
+      </c>
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="I108" s="2"/>
+      <c r="G108" s="3">
+        <f t="shared" si="14"/>
+        <v>3.8089823602995785</v>
+      </c>
+      <c r="H108" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.8833455539432444E-3</v>
+      </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="I109" s="2"/>
+      <c r="G109" s="3">
+        <f t="shared" si="14"/>
+        <v>3.7906953083103936</v>
+      </c>
+      <c r="H109" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.836115540357783E-3</v>
+      </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="I110" s="2"/>
+      <c r="G110" s="3">
+        <f t="shared" si="14"/>
+        <v>3.7726691223826743</v>
+      </c>
+      <c r="H110" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.7897903068154762E-3</v>
+      </c>
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="I111" s="2"/>
+      <c r="G111" s="3">
+        <f t="shared" si="14"/>
+        <v>3.754897659269421</v>
+      </c>
+      <c r="H111" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.7443441023265528E-3</v>
+      </c>
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="I112" s="2"/>
+      <c r="G112" s="3">
+        <f t="shared" si="14"/>
+        <v>3.7373749763570623</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.6997521438623254E-3</v>
+      </c>
     </row>
     <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="I113" s="2"/>
+      <c r="G113" s="3">
+        <f t="shared" ref="G113:G169" si="20">G112*(1+I113+1.5*I113*I113)</f>
+        <v>3.7200953233192626</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" ref="I113:I152" si="21">-1*$B$22*G112*G112</f>
+        <v>-4.6559905712999844E-3</v>
+      </c>
     </row>
     <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="I114" s="2"/>
+      <c r="G114" s="3">
+        <f t="shared" si="20"/>
+        <v>3.7030531341911637</v>
+      </c>
+      <c r="I114" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.6130364048606164E-3</v>
+      </c>
     </row>
     <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="I115" s="2"/>
+      <c r="G115" s="3">
+        <f t="shared" si="20"/>
+        <v>3.6862430198392575</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.570867504881E-3</v>
+      </c>
     </row>
     <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="I116" s="2"/>
+      <c r="G116" s="3">
+        <f t="shared" si="20"/>
+        <v>3.6696597608037651</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.5294625337712162E-3</v>
+      </c>
     </row>
     <row r="117" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="I117" s="2"/>
+      <c r="G117" s="3">
+        <f t="shared" si="20"/>
+        <v>3.6532983004919326</v>
+      </c>
+      <c r="I117" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.488800920020782E-3</v>
+      </c>
     </row>
     <row r="118" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="I118" s="2"/>
+      <c r="G118" s="3">
+        <f t="shared" si="20"/>
+        <v>3.6371537387021022</v>
+      </c>
+      <c r="I118" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.4488628241257473E-3</v>
+      </c>
     </row>
     <row r="119" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="I119" s="2"/>
+      <c r="G119" s="3">
+        <f t="shared" si="20"/>
+        <v>3.6212213254597212</v>
+      </c>
+      <c r="I119" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.4096291063182268E-3</v>
+      </c>
     </row>
     <row r="120" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="I120" s="2"/>
+      <c r="G120" s="3">
+        <f t="shared" si="20"/>
+        <v>3.6054964551476916</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.3710812959880862E-3</v>
+      </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="I121" s="2"/>
+      <c r="G121" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5899746609145895</v>
+      </c>
+      <c r="I121" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.3332015626941899E-3</v>
+      </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
-      <c r="I122" s="2"/>
+      <c r="G122" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5746516093453464</v>
+      </c>
+      <c r="I122" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.2959726886696069E-3</v>
+      </c>
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
-      <c r="I123" s="2"/>
+      <c r="G123" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5595230953799524</v>
+      </c>
+      <c r="I123" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.2593780427317585E-3</v>
+      </c>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
-      <c r="I124" s="2"/>
+      <c r="G124" s="3">
+        <f t="shared" si="20"/>
+        <v>3.544585037466661</v>
+      </c>
+      <c r="I124" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.223401555514426E-3</v>
+      </c>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
-      <c r="I125" s="2"/>
+      <c r="G125" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5298334729370051</v>
+      </c>
+      <c r="I125" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.1880276959441768E-3</v>
+      </c>
     </row>
     <row r="126" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
-      <c r="I126" s="2"/>
+      <c r="G126" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5152645535907374</v>
+      </c>
+      <c r="I126" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.1532414488888395E-3</v>
+      </c>
     </row>
     <row r="127" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
-      <c r="I127" s="2"/>
+      <c r="G127" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5008745414795155</v>
+      </c>
+      <c r="I127" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.1190282939104952E-3</v>
+      </c>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
-      <c r="I128" s="2"/>
+      <c r="G128" s="3">
+        <f t="shared" si="20"/>
+        <v>3.486659804878856</v>
+      </c>
+      <c r="I128" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.0853741850598027E-3</v>
+      </c>
     </row>
     <row r="129" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
-      <c r="I129" s="2"/>
+      <c r="G129" s="3">
+        <f t="shared" si="20"/>
+        <v>3.472616814438493</v>
+      </c>
+      <c r="I129" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.0522655316526206E-3</v>
+      </c>
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="I130" s="2"/>
+      <c r="G130" s="3">
+        <f t="shared" si="20"/>
+        <v>3.4587421395018878</v>
+      </c>
+      <c r="I130" s="2">
+        <f t="shared" si="21"/>
+        <v>-4.0196891799736487E-3</v>
+      </c>
     </row>
     <row r="131" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="I131" s="2"/>
+      <c r="G131" s="3">
+        <f t="shared" si="20"/>
+        <v>3.4450324445861664</v>
+      </c>
+      <c r="I131" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.9876323958553655E-3</v>
+      </c>
     </row>
     <row r="132" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
-      <c r="I132" s="2"/>
+      <c r="G132" s="3">
+        <f t="shared" si="20"/>
+        <v>3.4314844860142935</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.9560828480837791E-3</v>
+      </c>
     </row>
     <row r="133" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
-      <c r="I133" s="2"/>
+      <c r="G133" s="3">
+        <f t="shared" si="20"/>
+        <v>3.4180951086917593</v>
+      </c>
+      <c r="I133" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.9250285925855931E-3</v>
+      </c>
     </row>
     <row r="134" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
-      <c r="I134" s="2"/>
+      <c r="G134" s="3">
+        <f t="shared" si="20"/>
+        <v>3.4048612430205085</v>
+      </c>
+      <c r="I134" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.894458057354176E-3</v>
+      </c>
     </row>
     <row r="135" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
-      <c r="I135" s="2"/>
+      <c r="G135" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3917799019432593</v>
+      </c>
+      <c r="I135" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.8643600280743868E-3</v>
+      </c>
     </row>
     <row r="136" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
-      <c r="I136" s="2"/>
+      <c r="G136" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3788481781117499</v>
+      </c>
+      <c r="I136" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.8347236344087416E-3</v>
+      </c>
     </row>
     <row r="137" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
-      <c r="I137" s="2"/>
+      <c r="G137" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3660632411728213</v>
+      </c>
+      <c r="I137" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.8055383369096974E-3</v>
+      </c>
     </row>
     <row r="138" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
-      <c r="I138" s="2"/>
+      <c r="G138" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3534223351665831</v>
+      </c>
+      <c r="I138" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.7767939145249593E-3</v>
+      </c>
     </row>
     <row r="139" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
-      <c r="I139" s="2"/>
+      <c r="G139" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3409227760312343</v>
+      </c>
+      <c r="I139" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.7484804526646993E-3</v>
+      </c>
     </row>
     <row r="140" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
-      <c r="I140" s="2"/>
+      <c r="G140" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3285619492094072</v>
+      </c>
+      <c r="I140" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.7205883318014161E-3</v>
+      </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
-      <c r="I141" s="2"/>
+      <c r="G141" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3163373073511924</v>
+      </c>
+      <c r="I141" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.6931082165749091E-3</v>
+      </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
-      <c r="I142" s="2"/>
+      <c r="G142" s="3">
+        <f t="shared" si="20"/>
+        <v>3.3042463681092635</v>
+      </c>
+      <c r="I142" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.6660310453764523E-3</v>
+      </c>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
-      <c r="I143" s="2"/>
+      <c r="G143" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2922867120217667</v>
+      </c>
+      <c r="I143" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.6393480203877528E-3</v>
+      </c>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="I144" s="2"/>
+      <c r="G144" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2804559804788784</v>
+      </c>
+      <c r="I144" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.613050598051698E-3</v>
+      </c>
     </row>
     <row r="145" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
-      <c r="I145" s="2"/>
+      <c r="G145" s="3">
+        <f t="shared" si="20"/>
+        <v>3.268751873769149</v>
+      </c>
+      <c r="I145" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.587130479953213E-3</v>
+      </c>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
-      <c r="I146" s="2"/>
+      <c r="G146" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2571721492019634</v>
+      </c>
+      <c r="I146" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.5615796040897739E-3</v>
+      </c>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
-      <c r="I147" s="2"/>
+      <c r="G147" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2457146193026323</v>
+      </c>
+      <c r="I147" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.5363901365123122E-3</v>
+      </c>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
-      <c r="I148" s="2"/>
+      <c r="G148" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2343771500768246</v>
+      </c>
+      <c r="I148" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.511554463318277E-3</v>
+      </c>
     </row>
     <row r="149" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
-      <c r="I149" s="2"/>
+      <c r="G149" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2231576593412079</v>
+      </c>
+      <c r="I149" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.487065182979694E-3</v>
+      </c>
     </row>
     <row r="150" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
-      <c r="I150" s="2"/>
+      <c r="G150" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2120541151173359</v>
+      </c>
+      <c r="I150" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.4629150989899647E-3</v>
+      </c>
     </row>
     <row r="151" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
-      <c r="I151" s="2"/>
+      <c r="G151" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2010645340859702</v>
+      </c>
+      <c r="I151" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.4390972128140701E-3</v>
+      </c>
     </row>
     <row r="152" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
-      <c r="I152" s="2"/>
+      <c r="G152" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
+      <c r="I152" s="2">
+        <f t="shared" si="21"/>
+        <v>-3.4156047171276767E-3</v>
+      </c>
     </row>
     <row r="153" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
+      <c r="G153" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
+      <c r="G154" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
+      <c r="G155" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
+      <c r="G156" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
+      <c r="G157" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I157" s="2"/>
     </row>
     <row r="158" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
+      <c r="G158" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I158" s="2"/>
     </row>
     <row r="159" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
+      <c r="G159" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I159" s="2"/>
     </row>
     <row r="160" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
+      <c r="G160" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
+      <c r="G161" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
+      <c r="G162" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
+      <c r="G163" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I163" s="2"/>
     </row>
     <row r="164" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
+      <c r="G164" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I164" s="2"/>
     </row>
     <row r="165" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
+      <c r="G165" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I165" s="2"/>
     </row>
     <row r="166" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
+      <c r="G166" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I166" s="2"/>
     </row>
     <row r="167" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
+      <c r="G167" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I167" s="2"/>
     </row>
     <row r="168" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
+      <c r="G168" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I168" s="2"/>
     </row>
     <row r="169" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
+      <c r="G169" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1901869800991673</v>
+      </c>
       <c r="I169" s="2"/>
     </row>
     <row r="170" spans="5:9" x14ac:dyDescent="0.3">
@@ -10559,7 +11629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
@@ -10787,7 +11857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -10811,7 +11881,7 @@
         <v>49</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q6:Q14" si="3">(N7+L7)*(N7+L7)*$T$2+(O7+M7)*(O7+M7)*$T$1-$U$1</f>
+        <f t="shared" ref="Q7:Q14" si="3">(N7+L7)*(N7+L7)*$T$2+(O7+M7)*(O7+M7)*$T$1-$U$1</f>
         <v>-12</v>
       </c>
       <c r="R7" s="28">
@@ -12216,7 +13286,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L38" s="27">
         <v>-1</v>
       </c>
@@ -12511,7 +13581,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L45" s="27">
         <v>-1</v>
       </c>
@@ -12554,7 +13624,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="46" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L46" s="27">
         <v>-1</v>
       </c>
@@ -12597,7 +13667,7 @@
         <v>-188</v>
       </c>
     </row>
-    <row r="47" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L47" s="27">
         <v>-1</v>
       </c>
@@ -12640,7 +13710,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="48" spans="6:27" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:27" x14ac:dyDescent="0.3">
       <c r="L48" s="27">
         <v>-1</v>
       </c>
@@ -12683,7 +13753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="12:23" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L49" s="27">
         <v>-1</v>
       </c>
@@ -12726,7 +13796,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="12:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="12:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L50" s="35">
         <v>-1</v>
       </c>
